--- a/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>125</v>
       </c>
       <c r="E2">
-        <v>0.01879098539590811</v>
+        <v>0.01786774324274964</v>
       </c>
       <c r="F2">
         <v>0.5000330170388811</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>131</v>
       </c>
       <c r="E3">
-        <v>0.01305371910548131</v>
+        <v>0.01269327433982799</v>
       </c>
       <c r="F3">
         <v>0.5389781770168645</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.01137112078095981</v>
+        <v>0.01120860421719229</v>
       </c>
       <c r="F4">
         <v>0.5016380105805202</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.01109285465279933</v>
+        <v>0.01106086238608255</v>
       </c>
       <c r="F5">
         <v>0.5213535205553783</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>132</v>
       </c>
       <c r="E6">
-        <v>0.01187942564184933</v>
+        <v>0.01161690410015671</v>
       </c>
       <c r="F6">
         <v>0.5194480848500017</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>149</v>
       </c>
       <c r="E2">
-        <v>0.01879098539590811</v>
+        <v>0.01786774324274964</v>
       </c>
       <c r="F2">
         <v>0.7150866350312468</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>0.01305371910548131</v>
+        <v>0.01269327433982799</v>
       </c>
       <c r="F3">
         <v>0.7073150313905533</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.01137112078095981</v>
+        <v>0.01120860421719229</v>
       </c>
       <c r="F4">
         <v>0.7064913648727673</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>152</v>
       </c>
       <c r="E5">
-        <v>0.01109285465279933</v>
+        <v>0.01106086238608255</v>
       </c>
       <c r="F5">
         <v>0.7176531757088308</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.01187942564184933</v>
+        <v>0.01161690410015671</v>
       </c>
       <c r="F6">
         <v>0.7206089193183156</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>156</v>
       </c>
       <c r="E2">
-        <v>0.01879098539590811</v>
+        <v>0.01786774324274964</v>
       </c>
       <c r="F2">
         <v>0.822129547694568</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>157</v>
       </c>
       <c r="E3">
-        <v>0.01305371910548131</v>
+        <v>0.01269327433982799</v>
       </c>
       <c r="F3">
         <v>0.8247953373738323</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.01137112078095981</v>
+        <v>0.01120860421719229</v>
       </c>
       <c r="F4">
         <v>0.8200859322561613</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>158</v>
       </c>
       <c r="E5">
-        <v>0.01109285465279933</v>
+        <v>0.01106086238608255</v>
       </c>
       <c r="F5">
         <v>0.8294496514984067</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.01187942564184933</v>
+        <v>0.01161690410015671</v>
       </c>
       <c r="F6">
         <v>0.8268464613866929</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.01879098539590811</v>
+        <v>0.01786774324274964</v>
       </c>
       <c r="F2">
         <v>0.9012046671055585</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>168</v>
       </c>
       <c r="E3">
-        <v>0.01305371910548131</v>
+        <v>0.01269327433982799</v>
       </c>
       <c r="F3">
         <v>0.9039123171997431</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.01137112078095981</v>
+        <v>0.01120860421719229</v>
       </c>
       <c r="F4">
         <v>0.9052950193365119</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>168</v>
       </c>
       <c r="E5">
-        <v>0.01109285465279933</v>
+        <v>0.01106086238608255</v>
       </c>
       <c r="F5">
         <v>0.9053084966201103</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>170</v>
       </c>
       <c r="E6">
-        <v>0.01187942564184933</v>
+        <v>0.01161690410015671</v>
       </c>
       <c r="F6">
         <v>0.9044222170643782</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>23</v>

--- a/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0003864244222495608</v>
+        <v>0.0003733971200431014</v>
       </c>
       <c r="C2">
-        <v>0.0005170604297713261</v>
+        <v>0.0005043882744064557</v>
       </c>
       <c r="D2">
-        <v>0.0002650833752629812</v>
+        <v>0.0002517261954798116</v>
       </c>
       <c r="E2">
-        <v>0.0002603018849876724</v>
+        <v>0.0002469317062526703</v>
       </c>
       <c r="F2">
-        <v>0.0002039705517442246</v>
+        <v>0.0001904472307365564</v>
       </c>
       <c r="G2">
-        <v>0.0001619204193230604</v>
+        <v>0.0001482827808924926</v>
       </c>
       <c r="H2">
-        <v>0.0001464579884327639</v>
+        <v>0.0001327783138622517</v>
       </c>
       <c r="I2">
-        <v>0.0001947149712113064</v>
+        <v>0.0001811664879971709</v>
       </c>
       <c r="J2">
-        <v>0.0001363254378493515</v>
+        <v>0.000122618216942992</v>
       </c>
       <c r="K2">
-        <v>3.450221498656992E-05</v>
+        <v>2.051817762901797E-05</v>
       </c>
       <c r="L2">
-        <v>2.871192665317646E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.764788916769167E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.40396668083765E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.253146429731756E-05</v>
+        <v>8.514883276043883E-06</v>
       </c>
       <c r="P2">
-        <v>8.233092874045351E-05</v>
+        <v>6.84769184477912E-05</v>
       </c>
       <c r="Q2">
-        <v>0.0001211680429766184</v>
+        <v>0.000107419615200745</v>
       </c>
       <c r="R2">
-        <v>0.0001277499473555916</v>
+        <v>0.0001140194131344599</v>
       </c>
       <c r="S2">
-        <v>0.000231144113308825</v>
+        <v>0.0002176946663022647</v>
       </c>
       <c r="T2">
-        <v>0.0002562088347520026</v>
+        <v>0.0002428275286571611</v>
       </c>
       <c r="U2">
-        <v>0.0003885085423695604</v>
+        <v>0.0003754869060487336</v>
       </c>
       <c r="V2">
-        <v>0.0003827153220359982</v>
+        <v>0.0003696779362756169</v>
       </c>
       <c r="W2">
-        <v>0.0002427485639769866</v>
+        <v>0.0002293306648114951</v>
       </c>
       <c r="X2">
-        <v>0.0002668100153623977</v>
+        <v>0.0002534575296202471</v>
       </c>
       <c r="Y2">
-        <v>0.0002381738437135831</v>
+        <v>0.0002247435077208836</v>
       </c>
       <c r="Z2">
-        <v>0.0002515083944813605</v>
+        <v>0.0002381143097770999</v>
       </c>
       <c r="AA2">
-        <v>0.0001222529270390839</v>
+        <v>0.0001085074486272916</v>
       </c>
       <c r="AB2">
-        <v>5.215138600277459E-05</v>
+        <v>3.8215329653384E-05</v>
       </c>
       <c r="AC2">
-        <v>9.760262561976789E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.486339385580509E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.241675186649304E-05</v>
+        <v>1.842704497223068E-05</v>
       </c>
       <c r="AF2">
-        <v>7.96085345837034E-05</v>
+        <v>6.574712319463072E-05</v>
       </c>
       <c r="AG2">
-        <v>8.465817987445207E-05</v>
+        <v>7.081049644300896E-05</v>
       </c>
       <c r="AH2">
-        <v>0.0001192882768683852</v>
+        <v>0.0001055347387633695</v>
       </c>
       <c r="AI2">
-        <v>0.0001500500486395877</v>
+        <v>0.0001363801394382218</v>
       </c>
       <c r="AJ2">
-        <v>7.873353453332261E-05</v>
+        <v>6.486974437050925E-05</v>
       </c>
       <c r="AK2">
-        <v>0.0001081068362245798</v>
+        <v>9.43229002728724E-05</v>
       </c>
       <c r="AL2">
-        <v>0.0001870166707680534</v>
+        <v>0.0001734472589666171</v>
       </c>
       <c r="AM2">
-        <v>0.0003444574198331831</v>
+        <v>0.0003313160262009225</v>
       </c>
       <c r="AN2">
-        <v>0.0004033596432246577</v>
+        <v>0.0003903783810829172</v>
       </c>
       <c r="AO2">
-        <v>0.000360456780754395</v>
+        <v>0.0003473588829592042</v>
       </c>
       <c r="AP2">
-        <v>0.0002775005159779358</v>
+        <v>0.0002641770934136995</v>
       </c>
       <c r="AQ2">
-        <v>9.268150533641943E-05</v>
+        <v>7.885563410477417E-05</v>
       </c>
       <c r="AR2">
-        <v>4.792524075944143E-05</v>
+        <v>3.397769521833609E-05</v>
       </c>
       <c r="AS2">
-        <v>8.644095497710077E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>3.406746796153804E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>3.245968586896509E-05</v>
+        <v>1.847009569501334E-05</v>
       </c>
       <c r="AV2">
-        <v>2.4275522397737E-05</v>
+        <v>1.026368277003208E-05</v>
       </c>
       <c r="AW2">
-        <v>9.212376530430585E-05</v>
+        <v>7.829637780149928E-05</v>
       </c>
       <c r="AX2">
-        <v>0.0002700323155479315</v>
+        <v>0.0002566885899459234</v>
       </c>
       <c r="AY2">
-        <v>0.0002716506856411141</v>
+        <v>0.0002583113597374587</v>
       </c>
       <c r="AZ2">
-        <v>0.0003737901815221061</v>
+        <v>0.0003607285318889659</v>
       </c>
       <c r="BA2">
-        <v>0.0004509197559630758</v>
+        <v>0.0004380677906679329</v>
       </c>
       <c r="BB2">
-        <v>0.0005574978320996325</v>
+        <v>0.0005449356097922046</v>
       </c>
       <c r="BC2">
-        <v>0.0004791923575909568</v>
+        <v>0.000466417254145484</v>
       </c>
       <c r="BD2">
-        <v>0.0003737901815221061</v>
+        <v>0.0003607285318889659</v>
       </c>
       <c r="BE2">
-        <v>0.0003662238810864534</v>
+        <v>0.0003531416617210225</v>
       </c>
       <c r="BF2">
-        <v>0.0003056065675962272</v>
+        <v>0.0002923595540990707</v>
       </c>
       <c r="BG2">
-        <v>0.0002054854818314513</v>
+        <v>0.0001919662793103008</v>
       </c>
       <c r="BH2">
-        <v>0.0001387202579872406</v>
+        <v>0.0001250195476350865</v>
       </c>
       <c r="BI2">
-        <v>3.416225196699552E-05</v>
+        <v>2.017729038652104E-05</v>
       </c>
       <c r="BJ2">
-        <v>3.392844695353348E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>3.392700695345057E-05</v>
+        <v>1.994140583625765E-05</v>
       </c>
       <c r="BL2">
-        <v>5.968962743681176E-05</v>
+        <v>4.577406453855474E-05</v>
       </c>
       <c r="BM2">
-        <v>8.73943850319974E-05</v>
+        <v>7.355414024352936E-05</v>
       </c>
       <c r="BN2">
-        <v>0.0001265560472868492</v>
+        <v>0.0001128222673308957</v>
       </c>
       <c r="BO2">
-        <v>0.0002163241324555196</v>
+        <v>0.0002028343958726601</v>
       </c>
       <c r="BP2">
-        <v>0.0002592452349268326</v>
+        <v>0.0002458721835846612</v>
       </c>
       <c r="BQ2">
-        <v>0.0004093064835670651</v>
+        <v>0.0003963413884959899</v>
       </c>
       <c r="BR2">
-        <v>0.0003883599623610055</v>
+        <v>0.0003753379221108045</v>
       </c>
       <c r="BS2">
-        <v>0.0004186435541046753</v>
+        <v>0.0004057038427786642</v>
       </c>
       <c r="BT2">
-        <v>0.0004768774974576716</v>
+        <v>0.0004640961008371344</v>
       </c>
       <c r="BU2">
-        <v>0.000340816879623568</v>
+        <v>0.0003276655888245028</v>
       </c>
       <c r="BV2">
-        <v>0.0004132951937967272</v>
+        <v>0.0004003409424269175</v>
       </c>
       <c r="BW2">
-        <v>0.0002498320943848424</v>
+        <v>0.0002364334524938143</v>
       </c>
       <c r="BX2">
-        <v>9.111035524595569E-05</v>
+        <v>7.728021268818162E-05</v>
       </c>
       <c r="BY2">
-        <v>5.209695799964074E-05</v>
+        <v>3.816075368236768E-05</v>
       </c>
       <c r="BZ2">
-        <v>2.77458835975536E-05</v>
+        <v>1.374347848826874E-05</v>
       </c>
       <c r="CA2">
-        <v>3.214125585063052E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>4.652079867857641E-07</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.97478864401662E-05</v>
+        <v>4.583248192474273E-05</v>
       </c>
       <c r="CD2">
-        <v>0.000144177988301486</v>
+        <v>0.0001304921153262551</v>
       </c>
       <c r="CE2">
-        <v>0.0002842189463647699</v>
+        <v>0.0002709137885146624</v>
       </c>
       <c r="CF2">
-        <v>0.0003662238810864534</v>
+        <v>0.0003531416617210225</v>
       </c>
       <c r="CG2">
-        <v>0.0004074715234614118</v>
+        <v>0.0003945014398707214</v>
       </c>
       <c r="CH2">
-        <v>0.0004791923575909568</v>
+        <v>0.000466417254145484</v>
       </c>
       <c r="CI2">
-        <v>0.0004958383785494021</v>
+        <v>0.0004831085289499443</v>
       </c>
       <c r="CJ2">
-        <v>0.0004936510284234587</v>
+        <v>0.000480915232297439</v>
       </c>
       <c r="CK2">
-        <v>0.0005024294289289018</v>
+        <v>0.0004897174977484882</v>
       </c>
       <c r="CL2">
-        <v>0.0004208127242295719</v>
+        <v>0.0004078789100060009</v>
       </c>
       <c r="CM2">
-        <v>0.0006925165398737451</v>
+        <v>0.0006803213792098186</v>
       </c>
       <c r="CN2">
-        <v>0.1368680978805968</v>
+        <v>0.1372261094380664</v>
       </c>
       <c r="CO2">
-        <v>0.07149917411678232</v>
+        <v>0.07167947382241871</v>
       </c>
       <c r="CP2">
-        <v>0.06704792786048827</v>
+        <v>0.06721612641515529</v>
       </c>
       <c r="CQ2">
-        <v>0.00124590087173653</v>
+        <v>0.001235210140834154</v>
       </c>
       <c r="CR2">
-        <v>0.03849286821634391</v>
+        <v>0.0385834370314285</v>
       </c>
       <c r="CS2">
-        <v>0.0005262165302985165</v>
+        <v>0.0005135692666939286</v>
       </c>
       <c r="CT2">
-        <v>0.08007553461059234</v>
+        <v>0.08027914999618165</v>
       </c>
       <c r="CU2">
-        <v>0.008888801511799769</v>
+        <v>0.008898888758381468</v>
       </c>
       <c r="CV2">
-        <v>0.007779208447911576</v>
+        <v>0.007786279156560398</v>
       </c>
       <c r="CW2">
-        <v>0.01120110014493739</v>
+        <v>0.01121747360289334</v>
       </c>
       <c r="CX2">
-        <v>0.0120599866943904</v>
+        <v>0.01207869511994913</v>
       </c>
       <c r="CY2">
-        <v>0.001524653887786583</v>
+        <v>0.001514720974388826</v>
       </c>
       <c r="CZ2">
-        <v>0.0001513497787144236</v>
+        <v>0.0001376834029571651</v>
       </c>
       <c r="DA2">
-        <v>1.067904061487823E-05</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.0005172319297812009</v>
+        <v>0.0005045602406559836</v>
       </c>
       <c r="DC2">
-        <v>6.888252396612073E-05</v>
+        <v>5.499195286169892E-05</v>
       </c>
       <c r="DD2">
-        <v>6.127780352825583E-05</v>
+        <v>4.736655824298671E-05</v>
       </c>
       <c r="DE2">
-        <v>0.01250400371995603</v>
+        <v>0.01252391924949193</v>
       </c>
       <c r="DF2">
-        <v>0.001558411289730268</v>
+        <v>0.001548570149151567</v>
       </c>
       <c r="DG2">
-        <v>0.005540742819025112</v>
+        <v>0.005541728038587229</v>
       </c>
       <c r="DH2">
-        <v>0.003708589313533304</v>
+        <v>0.003704593643499013</v>
       </c>
       <c r="DI2">
-        <v>0.0004607173865272042</v>
+        <v>0.0004478920570548785</v>
       </c>
       <c r="DJ2">
-        <v>0.000104055625991319</v>
+        <v>9.026067642593613E-05</v>
       </c>
       <c r="DK2">
-        <v>1.78274650264705E-05</v>
+        <v>3.798095720285408E-06</v>
       </c>
       <c r="DL2">
-        <v>0.0008833389508609255</v>
+        <v>0.0008716625596990078</v>
       </c>
       <c r="DM2">
-        <v>0.0008921288513670308</v>
+        <v>0.0008804763564146026</v>
       </c>
       <c r="DN2">
-        <v>3.508226201996789E-05</v>
+        <v>2.109980157735534E-05</v>
       </c>
       <c r="DO2">
-        <v>0.003878167223297268</v>
+        <v>0.00387463256749786</v>
       </c>
       <c r="DP2">
-        <v>0.0008584110094256235</v>
+        <v>0.000846666849201898</v>
       </c>
       <c r="DQ2">
-        <v>0.000479027367581457</v>
+        <v>0.0004662518155944076</v>
       </c>
       <c r="DR2">
-        <v>0.0003054748175886413</v>
+        <v>0.0002922274459161244</v>
       </c>
       <c r="DS2">
-        <v>0.001396894780430464</v>
+        <v>0.001386614541327318</v>
       </c>
       <c r="DT2">
-        <v>0.002655943152924002</v>
+        <v>0.002649085760717216</v>
       </c>
       <c r="DU2">
-        <v>0.002174850425223625</v>
+        <v>0.002166685135095007</v>
       </c>
       <c r="DV2">
-        <v>0.005076956792321222</v>
+        <v>0.005076681163931219</v>
       </c>
       <c r="DW2">
-        <v>0.004202666041981273</v>
+        <v>0.004200013568152527</v>
       </c>
       <c r="DX2">
-        <v>0.004848887979189467</v>
+        <v>0.00484799232328802</v>
       </c>
       <c r="DY2">
-        <v>0.002158417724277462</v>
+        <v>0.002150207760234274</v>
       </c>
       <c r="DZ2">
-        <v>0.001386170779812997</v>
+        <v>0.001375861386458885</v>
       </c>
       <c r="EA2">
-        <v>0.0256758234783636</v>
+        <v>0.02573154789607605</v>
       </c>
       <c r="EB2">
-        <v>0.02426191139695331</v>
+        <v>0.02431379195553746</v>
       </c>
       <c r="EC2">
-        <v>0.003135735380549497</v>
+        <v>0.003130182350727116</v>
       </c>
       <c r="ED2">
-        <v>0.0002169175224896858</v>
+        <v>0.0002034293990960263</v>
       </c>
       <c r="EE2">
-        <v>0.001385890279796846</v>
+        <v>0.001375580123875838</v>
       </c>
       <c r="EF2">
-        <v>0.003308334190487399</v>
+        <v>0.003303250387514294</v>
       </c>
       <c r="EG2">
-        <v>0.004472492557517356</v>
+        <v>0.004470573633623177</v>
       </c>
       <c r="EH2">
-        <v>0.002251956529663243</v>
+        <v>0.002244000860067114</v>
       </c>
       <c r="EI2">
-        <v>0.01265388972858617</v>
+        <v>0.01267421273798596</v>
       </c>
       <c r="EJ2">
-        <v>0.01329984176577882</v>
+        <v>0.01332192085935616</v>
       </c>
       <c r="EK2">
-        <v>0.0115753836664879</v>
+        <v>0.01159277465102828</v>
       </c>
       <c r="EL2">
-        <v>0.007399436426045047</v>
+        <v>0.007405474687081237</v>
       </c>
       <c r="EM2">
-        <v>0.007424835427507472</v>
+        <v>0.007430942738228508</v>
       </c>
       <c r="EN2">
-        <v>0.006254768360137304</v>
+        <v>0.006257694728396097</v>
       </c>
       <c r="EO2">
-        <v>0.000628320136177442</v>
+        <v>0.0006159504512728668</v>
       </c>
       <c r="EP2">
-        <v>0.0005112851294387957</v>
+        <v>0.0004985972733516571</v>
       </c>
       <c r="EQ2">
-        <v>0.009866900568116796</v>
+        <v>0.009879646873232216</v>
       </c>
       <c r="ER2">
-        <v>0.01202124869215994</v>
+        <v>0.01203985180464763</v>
       </c>
       <c r="ES2">
-        <v>0.02588635249048544</v>
+        <v>0.0259426492520343</v>
       </c>
       <c r="ET2">
-        <v>0.03022615174036258</v>
+        <v>0.03029424667322701</v>
       </c>
       <c r="EU2">
-        <v>0.02875702165577295</v>
+        <v>0.02882112261393375</v>
       </c>
       <c r="EV2">
-        <v>0.02677996454193787</v>
+        <v>0.02683869067578385</v>
       </c>
       <c r="EW2">
-        <v>0.01042150210004967</v>
+        <v>0.01043575614400481</v>
       </c>
       <c r="EX2">
-        <v>0.001432935082505594</v>
+        <v>0.001422752822510159</v>
       </c>
       <c r="EY2">
-        <v>0.002005539115475012</v>
+        <v>0.001996913535889886</v>
       </c>
       <c r="EZ2">
-        <v>0.01194506868777364</v>
+        <v>0.01196346469742297</v>
       </c>
       <c r="FA2">
-        <v>0.02570088147980638</v>
+        <v>0.02575667402016157</v>
       </c>
       <c r="FB2">
-        <v>0.0287112916531399</v>
+        <v>0.02877526828978852</v>
       </c>
       <c r="FC2">
-        <v>0.01849395306484557</v>
+        <v>0.01853015286111216</v>
       </c>
       <c r="FD2">
-        <v>0.01106965563736908</v>
+        <v>0.01108567175049649</v>
       </c>
       <c r="FE2">
-        <v>0.006148929554043313</v>
+        <v>0.006151568189092749</v>
       </c>
       <c r="FF2">
-        <v>4.349416050430852E-05</v>
+        <v>2.953456863549238E-05</v>
       </c>
       <c r="FG2">
-        <v>0.001762686401492028</v>
+        <v>0.001753400602906196</v>
       </c>
       <c r="FH2">
-        <v>0.002053131118215266</v>
+        <v>0.002044634922172846</v>
       </c>
       <c r="FI2">
-        <v>0.003015757173641388</v>
+        <v>0.003009877971257159</v>
       </c>
       <c r="FJ2">
-        <v>0.003447843898520095</v>
+        <v>0.003443139366416628</v>
       </c>
       <c r="FK2">
-        <v>0.001218286770146565</v>
+        <v>0.001207520967591671</v>
       </c>
       <c r="FL2">
-        <v>0.003110089979072886</v>
+        <v>0.003104467229702973</v>
       </c>
       <c r="FM2">
-        <v>0.006482952373275692</v>
+        <v>0.006486499082228483</v>
       </c>
       <c r="FN2">
-        <v>0.003581931506240596</v>
+        <v>0.00357759150449351</v>
       </c>
       <c r="FO2">
-        <v>0.002815773662126729</v>
+        <v>0.002809350784887216</v>
       </c>
       <c r="FP2">
-        <v>0.0005352785308202887</v>
+        <v>0.0005226559031558588</v>
       </c>
       <c r="FQ2">
-        <v>1.004599357842862E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.001365222778606852</v>
+        <v>0.001354856436050088</v>
       </c>
       <c r="FS2">
-        <v>0.006074613349764332</v>
+        <v>0.006077049948899404</v>
       </c>
       <c r="FT2">
-        <v>0.01371124878946683</v>
+        <v>0.01373444633352228</v>
       </c>
       <c r="FU2">
-        <v>0.008882620511443881</v>
+        <v>0.008892690954367875</v>
       </c>
       <c r="FV2">
-        <v>0.006215941957901755</v>
+        <v>0.006218762772765387</v>
       </c>
       <c r="FW2">
-        <v>0.003024350174136155</v>
+        <v>0.00301849433266936</v>
       </c>
       <c r="FX2">
-        <v>0.0003883599623610055</v>
+        <v>0.0003753379221108045</v>
       </c>
       <c r="FY2">
-        <v>7.224993416000961E-05</v>
+        <v>5.836851769156742E-05</v>
       </c>
       <c r="FZ2">
-        <v>0.0004187978241135579</v>
+        <v>0.0004058585321857468</v>
       </c>
       <c r="GA2">
-        <v>0.003135735380549497</v>
+        <v>0.003130182350727116</v>
       </c>
       <c r="GB2">
-        <v>0.002436386840282379</v>
+        <v>0.002428932562634398</v>
       </c>
       <c r="GC2">
-        <v>0.002119003922008093</v>
+        <v>0.002110686807664949</v>
       </c>
       <c r="GD2">
-        <v>0.002421846539445177</v>
+        <v>0.002414352732558543</v>
       </c>
       <c r="GE2">
-        <v>0.002549307346784121</v>
+        <v>0.002542160054644925</v>
       </c>
       <c r="GF2">
-        <v>0.005232825701295849</v>
+        <v>0.005232973817873059</v>
       </c>
       <c r="GG2">
-        <v>0.005943070342190343</v>
+        <v>0.005945149328714931</v>
       </c>
       <c r="GH2">
-        <v>0.003291819389536509</v>
+        <v>0.003286690689451892</v>
       </c>
       <c r="GI2">
-        <v>0.0005307378905588476</v>
+        <v>0.0005181029187170485</v>
       </c>
       <c r="GJ2">
-        <v>0.001418083481650468</v>
+        <v>0.001407860846116647</v>
       </c>
       <c r="GK2">
-        <v>1.738322400089197E-05</v>
+        <v>3.35264698176363E-06</v>
       </c>
       <c r="GL2">
-        <v>0.001783071902665786</v>
+        <v>0.001773841524070914</v>
       </c>
       <c r="GM2">
-        <v>0.001996740814968423</v>
+        <v>0.00198809131633758</v>
       </c>
       <c r="GN2">
-        <v>0.00181504980450701</v>
+        <v>0.001805906360985057</v>
       </c>
       <c r="GO2">
-        <v>0.00148776148566239</v>
+        <v>0.001477728276639089</v>
       </c>
       <c r="GP2">
-        <v>0.002121675622161924</v>
+        <v>0.002113365771098556</v>
       </c>
       <c r="GQ2">
-        <v>0.0005328317906794102</v>
+        <v>0.0005202025113111376</v>
       </c>
       <c r="GR2">
-        <v>0.0008862640510293471</v>
+        <v>0.0008745956120400796</v>
       </c>
       <c r="GS2">
-        <v>0.005496350016469062</v>
+        <v>0.005497214549828989</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.745217242776374E-05</v>
+        <v>3.362545641877603E-05</v>
       </c>
       <c r="C3">
-        <v>1.632372180314862E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.080824586966097E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.653757907701638E-05</v>
+        <v>6.278580203450703E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002309054372154602</v>
+        <v>0.0002175513911686311</v>
       </c>
       <c r="G3">
-        <v>0.0002343759971736079</v>
+        <v>0.0002210308930741789</v>
       </c>
       <c r="H3">
-        <v>0.0001059005427229219</v>
+        <v>9.222441977646495E-05</v>
       </c>
       <c r="I3">
-        <v>0.000459145054463068</v>
+        <v>0.0004463790710564562</v>
       </c>
       <c r="J3">
-        <v>0.0004251281448732854</v>
+        <v>0.0004122745164122934</v>
       </c>
       <c r="K3">
-        <v>0.0001604614980649592</v>
+        <v>0.0001469259522007728</v>
       </c>
       <c r="L3">
-        <v>0.0003909192152858185</v>
+        <v>0.0003779774470281741</v>
       </c>
       <c r="M3">
-        <v>9.207427888965588E-05</v>
+        <v>7.836253237656234E-05</v>
       </c>
       <c r="N3">
-        <v>2.188479373608642E-05</v>
+        <v>7.992203010000192E-06</v>
       </c>
       <c r="O3">
-        <v>9.773856282134901E-05</v>
+        <v>8.404141041686808E-05</v>
       </c>
       <c r="P3">
-        <v>2.332708971869346E-05</v>
+        <v>9.438215088847376E-06</v>
       </c>
       <c r="Q3">
-        <v>2.342328271753344E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.962330916039709E-05</v>
+        <v>5.58537174024962E-05</v>
       </c>
       <c r="S3">
-        <v>1.391312983221848E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3.737317654930858E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.678233279761813E-05</v>
+        <v>2.876595507901687E-06</v>
       </c>
       <c r="V3">
-        <v>1.350483183714224E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.000128842638446258</v>
+        <v>0.0001152256261377608</v>
       </c>
       <c r="X3">
-        <v>4.009855951644259E-05</v>
+        <v>2.625289681854997E-05</v>
       </c>
       <c r="Y3">
-        <v>4.832695941721448E-05</v>
+        <v>3.450249730942434E-05</v>
       </c>
       <c r="Z3">
-        <v>0.0001340600083833406</v>
+        <v>0.000120456438703153</v>
       </c>
       <c r="AA3">
-        <v>0.0001905304177023515</v>
+        <v>0.0001770723448399326</v>
       </c>
       <c r="AB3">
-        <v>0.0001578651580962691</v>
+        <v>0.0001443229227249966</v>
       </c>
       <c r="AC3">
-        <v>0.0005205894937220959</v>
+        <v>0.0005079818227925776</v>
       </c>
       <c r="AD3">
-        <v>0.0005774401330365215</v>
+        <v>0.0005649789385927966</v>
       </c>
       <c r="AE3">
-        <v>0.0002800946166222769</v>
+        <v>0.0002668673072001449</v>
       </c>
       <c r="AF3">
-        <v>0.0003968702452140538</v>
+        <v>0.0003839438098701858</v>
       </c>
       <c r="AG3">
-        <v>0.000228935007239222</v>
+        <v>0.00021557588435136</v>
       </c>
       <c r="AH3">
-        <v>1.087984386879755E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.292360984415133E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>9.739642882547487E-07</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.131270686357756E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.040690787450079E-08</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.25134166079135E-05</v>
+        <v>1.86482106807647E-05</v>
       </c>
       <c r="AN3">
-        <v>0.0002378724471314434</v>
+        <v>0.0002245363516853691</v>
       </c>
       <c r="AO3">
-        <v>0.0002286061172431882</v>
+        <v>0.0002152461469655445</v>
       </c>
       <c r="AP3">
-        <v>0.0002525187169548208</v>
+        <v>0.0002392203578325518</v>
       </c>
       <c r="AQ3">
-        <v>0.0005154910937835786</v>
+        <v>0.0005028702867536547</v>
       </c>
       <c r="AR3">
-        <v>0.0003809856354056098</v>
+        <v>0.0003680182731372428</v>
       </c>
       <c r="AS3">
-        <v>0.0002886811565187299</v>
+        <v>0.0002754759704395246</v>
       </c>
       <c r="AT3">
-        <v>0.0002008353275780823</v>
+        <v>0.0001874038054634337</v>
       </c>
       <c r="AU3">
-        <v>0.0001246134584972587</v>
+        <v>0.0001109855496460983</v>
       </c>
       <c r="AV3">
-        <v>8.517333897287583E-05</v>
+        <v>7.14438120893261E-05</v>
       </c>
       <c r="AW3">
-        <v>2.224105373179021E-05</v>
+        <v>8.349380914681408E-06</v>
       </c>
       <c r="AX3">
-        <v>8.981066391695329E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>8.532215897108118E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>2.9586901643205E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>5.13730423804811E-08</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.33099957188996E-05</v>
+        <v>9.421077046118412E-06</v>
       </c>
       <c r="BC3">
-        <v>0.0001877488077358955</v>
+        <v>0.00017428356801559</v>
       </c>
       <c r="BD3">
-        <v>0.0002492590269941301</v>
+        <v>0.0002359522692340274</v>
       </c>
       <c r="BE3">
-        <v>0.0001487874382057393</v>
+        <v>0.000135221813959256</v>
       </c>
       <c r="BF3">
-        <v>0.0002492590269941301</v>
+        <v>0.0002359522692340274</v>
       </c>
       <c r="BG3">
-        <v>0.0003476302358078499</v>
+        <v>0.0003345769328750641</v>
       </c>
       <c r="BH3">
-        <v>0.000208378867487113</v>
+        <v>0.0001949667814109971</v>
       </c>
       <c r="BI3">
-        <v>0.0001815649878104676</v>
+        <v>0.0001680838153896264</v>
       </c>
       <c r="BJ3">
-        <v>0.0002716960167235575</v>
+        <v>0.0002584470681885925</v>
       </c>
       <c r="BK3">
-        <v>0.0002540719269360903</v>
+        <v>0.0002407775696815663</v>
       </c>
       <c r="BL3">
-        <v>0.0001515758981721127</v>
+        <v>0.0001380174584326389</v>
       </c>
       <c r="BM3">
-        <v>0.0001119316586501913</v>
+        <v>9.827107496023341E-05</v>
       </c>
       <c r="BN3">
-        <v>9.571456884575681E-05</v>
+        <v>8.201220159183204E-05</v>
       </c>
       <c r="BO3">
-        <v>2.555892769177923E-05</v>
+        <v>1.167580342441104E-05</v>
       </c>
       <c r="BP3">
-        <v>3.885384553145287E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.85489337763143E-07</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>6.183767925428572E-05</v>
+        <v>4.804802770951017E-05</v>
       </c>
       <c r="BS3">
-        <v>9.402528886612821E-05</v>
+        <v>8.031856915816033E-05</v>
       </c>
       <c r="BT3">
-        <v>7.521622909295082E-05</v>
+        <v>6.146104757329745E-05</v>
       </c>
       <c r="BU3">
-        <v>0.0002680162367679328</v>
+        <v>0.0002547578072272501</v>
       </c>
       <c r="BV3">
-        <v>0.0002102589474644408</v>
+        <v>0.0001968517054412925</v>
       </c>
       <c r="BW3">
-        <v>0.0002598021168669887</v>
+        <v>0.0002465225235288274</v>
       </c>
       <c r="BX3">
-        <v>0.000339262195908762</v>
+        <v>0.0003261873326014196</v>
       </c>
       <c r="BY3">
-        <v>0.0003355470259535641</v>
+        <v>0.0003224625904576636</v>
       </c>
       <c r="BZ3">
-        <v>0.0001157458086041956</v>
+        <v>0.0001020950521261792</v>
       </c>
       <c r="CA3">
-        <v>0.0002513148569693385</v>
+        <v>0.0002380133960845882</v>
       </c>
       <c r="CB3">
-        <v>0.0001775470878589203</v>
+        <v>0.0001640555632613531</v>
       </c>
       <c r="CC3">
-        <v>6.962330916039709E-05</v>
+        <v>5.58537174024962E-05</v>
       </c>
       <c r="CD3">
-        <v>0.0001271664484664716</v>
+        <v>0.0001135451174305032</v>
       </c>
       <c r="CE3">
-        <v>6.144069525907305E-05</v>
+        <v>4.765002087935251E-05</v>
       </c>
       <c r="CF3">
-        <v>5.833909629647591E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.040690787450079E-08</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.234370385114454E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>6.605444920343476E-05</v>
+        <v>5.227566222678015E-05</v>
       </c>
       <c r="CJ3">
-        <v>4.745217242776374E-05</v>
+        <v>3.362545641877603E-05</v>
       </c>
       <c r="CK3">
-        <v>0.0001349396283727331</v>
+        <v>0.0001213383250460366</v>
       </c>
       <c r="CL3">
-        <v>0.0002255051372805836</v>
+        <v>0.0002121371772836876</v>
       </c>
       <c r="CM3">
-        <v>0.0006840159917512995</v>
+        <v>0.0006718293915327799</v>
       </c>
       <c r="CN3">
-        <v>0.1323696984037245</v>
+        <v>0.1326968018488183</v>
       </c>
       <c r="CO3">
-        <v>0.04288493948284101</v>
+        <v>0.04298148416594241</v>
       </c>
       <c r="CP3">
-        <v>0.08301851899886128</v>
+        <v>0.08321846842394469</v>
       </c>
       <c r="CQ3">
-        <v>0.003734009254970755</v>
+        <v>0.003729681006043931</v>
       </c>
       <c r="CR3">
-        <v>0.03807996554078526</v>
+        <v>0.03816413013976008</v>
       </c>
       <c r="CS3">
-        <v>0.008329916899547686</v>
+        <v>0.008337430072439986</v>
       </c>
       <c r="CT3">
-        <v>0.01992751675968966</v>
+        <v>0.01996491131459698</v>
       </c>
       <c r="CU3">
-        <v>0.0318872736154643</v>
+        <v>0.03195548265506879</v>
       </c>
       <c r="CV3">
-        <v>0.0130910518421321</v>
+        <v>0.01311083214734145</v>
       </c>
       <c r="CW3">
-        <v>2.517691569638599E-05</v>
+        <v>1.129280716964463E-05</v>
       </c>
       <c r="CX3">
-        <v>0.0066440689198777</v>
+        <v>0.006647238481323903</v>
       </c>
       <c r="CY3">
-        <v>0.005845319429509997</v>
+        <v>0.005846431001463218</v>
       </c>
       <c r="CZ3">
-        <v>0.007745224406598622</v>
+        <v>0.007751231110915199</v>
       </c>
       <c r="DA3">
-        <v>0.000245735017036627</v>
+        <v>0.000232419179614436</v>
       </c>
       <c r="DB3">
-        <v>0.00205958897516296</v>
+        <v>0.002050946558422277</v>
       </c>
       <c r="DC3">
-        <v>3.395037959058485E-05</v>
+        <v>2.008887601912553E-05</v>
       </c>
       <c r="DD3">
-        <v>2.153140974034796E-05</v>
+        <v>7.637908515339365E-06</v>
       </c>
       <c r="DE3">
-        <v>0.005246544236730761</v>
+        <v>0.005246113055830605</v>
       </c>
       <c r="DF3">
-        <v>0.004120482950310183</v>
+        <v>0.004117150456390296</v>
       </c>
       <c r="DG3">
-        <v>0.003178562961669005</v>
+        <v>0.003172803597418396</v>
       </c>
       <c r="DH3">
-        <v>0.001696126179546038</v>
+        <v>0.001686547295710866</v>
       </c>
       <c r="DI3">
-        <v>4.107622650465268E-09</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.001382246283331186</v>
+        <v>0.001371858683451423</v>
       </c>
       <c r="DK3">
-        <v>0.001152947086096355</v>
+        <v>0.001141968693553374</v>
       </c>
       <c r="DL3">
-        <v>0.0004329834147785571</v>
+        <v>0.0004201500255328942</v>
       </c>
       <c r="DM3">
-        <v>0.001325503184015463</v>
+        <v>0.001314969384728253</v>
       </c>
       <c r="DN3">
-        <v>0.0009623844383943928</v>
+        <v>0.0009509150584624307</v>
       </c>
       <c r="DO3">
-        <v>0.004830288941750475</v>
+        <v>0.004828785273125697</v>
       </c>
       <c r="DP3">
-        <v>0.0008824385893584775</v>
+        <v>0.0008707632278023548</v>
       </c>
       <c r="DQ3">
-        <v>0.0005879000929103824</v>
+        <v>0.000575465848702967</v>
       </c>
       <c r="DR3">
-        <v>0.0002221538473209975</v>
+        <v>0.0002087772526775598</v>
       </c>
       <c r="DS3">
-        <v>0.001821367478035726</v>
+        <v>0.001812111280198463</v>
       </c>
       <c r="DT3">
-        <v>0.003833757453767869</v>
+        <v>0.00382968620750276</v>
       </c>
       <c r="DU3">
-        <v>0.004553477245088608</v>
+        <v>0.004551260367165878</v>
       </c>
       <c r="DV3">
-        <v>0.01002633837909016</v>
+        <v>0.0100382224062023</v>
       </c>
       <c r="DW3">
-        <v>0.005745237930716902</v>
+        <v>0.005746091641256198</v>
       </c>
       <c r="DX3">
-        <v>0.004225002949049753</v>
+        <v>0.004221939752402423</v>
       </c>
       <c r="DY3">
-        <v>0.00412535335025145</v>
+        <v>0.004122033404986713</v>
       </c>
       <c r="DZ3">
-        <v>0.002903963364980462</v>
+        <v>0.00289749649093914</v>
       </c>
       <c r="EA3">
-        <v>0.02556714569168012</v>
+        <v>0.02561907083124048</v>
       </c>
       <c r="EB3">
-        <v>0.04047474551190607</v>
+        <v>0.04056508029574862</v>
       </c>
       <c r="EC3">
-        <v>0.01333767583915801</v>
+        <v>0.01335809157462517</v>
       </c>
       <c r="ED3">
-        <v>0.002849721965634571</v>
+        <v>0.002843115337851575</v>
       </c>
       <c r="EE3">
-        <v>0.0001877488077358955</v>
+        <v>0.00017428356801559</v>
       </c>
       <c r="EF3">
-        <v>2.195936973518709E-07</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.003800954154163452</v>
+        <v>0.003796798389727458</v>
       </c>
       <c r="EH3">
-        <v>0.004148345949974177</v>
+        <v>0.004145085245471677</v>
       </c>
       <c r="EI3">
-        <v>0.01052347587309507</v>
+        <v>0.01053664078207514</v>
       </c>
       <c r="EJ3">
-        <v>0.01478566482169639</v>
+        <v>0.01480981132149949</v>
       </c>
       <c r="EK3">
-        <v>0.01592905280790802</v>
+        <v>0.01595614526322083</v>
       </c>
       <c r="EL3">
-        <v>0.008044295902992053</v>
+        <v>0.008051073169299153</v>
       </c>
       <c r="EM3">
-        <v>0.01163278085971772</v>
+        <v>0.01164880390887128</v>
       </c>
       <c r="EN3">
-        <v>0.01504502981856865</v>
+        <v>0.01506984457599802</v>
       </c>
       <c r="EO3">
-        <v>0.004563719444965095</v>
+        <v>0.004561528956216925</v>
       </c>
       <c r="EP3">
-        <v>0.0001662322979953679</v>
+        <v>0.0001527116206797892</v>
       </c>
       <c r="EQ3">
-        <v>0.004989724939827802</v>
+        <v>0.004988632060333787</v>
       </c>
       <c r="ER3">
-        <v>0.0116269448597881</v>
+        <v>0.01164295287240432</v>
       </c>
       <c r="ES3">
-        <v>0.02218234973249813</v>
+        <v>0.02222555389682922</v>
       </c>
       <c r="ET3">
-        <v>0.02452291670427272</v>
+        <v>0.02457215137290287</v>
       </c>
       <c r="EU3">
-        <v>0.02223509673186204</v>
+        <v>0.02227843679959186</v>
       </c>
       <c r="EV3">
-        <v>0.01857666077597993</v>
+        <v>0.01861057483111288</v>
       </c>
       <c r="EW3">
-        <v>0.009605200884168755</v>
+        <v>0.009615999844498254</v>
       </c>
       <c r="EX3">
-        <v>0.001717014779294138</v>
+        <v>0.001707489715235157</v>
       </c>
       <c r="EY3">
-        <v>0.001665177579919255</v>
+        <v>0.001655518956574232</v>
       </c>
       <c r="EZ3">
-        <v>0.0107660598701697</v>
+        <v>0.01077984980028989</v>
       </c>
       <c r="FA3">
-        <v>0.02614090168476108</v>
+        <v>0.02619430511484873</v>
       </c>
       <c r="FB3">
-        <v>0.02677419367712407</v>
+        <v>0.02682922879309321</v>
       </c>
       <c r="FC3">
-        <v>0.01536300181473416</v>
+        <v>0.0153886358315622</v>
       </c>
       <c r="FD3">
-        <v>0.01097959586759462</v>
+        <v>0.01099393597626813</v>
       </c>
       <c r="FE3">
-        <v>0.005040105939220245</v>
+        <v>0.005039142867092177</v>
       </c>
       <c r="FF3">
-        <v>0.0003245241760864911</v>
+        <v>0.0003114113400601581</v>
       </c>
       <c r="FG3">
-        <v>0.001401923183093898</v>
+        <v>0.001391586281027973</v>
       </c>
       <c r="FH3">
-        <v>0.004962972340150416</v>
+        <v>0.004961810532200472</v>
       </c>
       <c r="FI3">
-        <v>0.005331121335710827</v>
+        <v>0.005330908068916591</v>
       </c>
       <c r="FJ3">
-        <v>0.008288434900047928</v>
+        <v>0.00829584119397486</v>
       </c>
       <c r="FK3">
-        <v>0.006573900520723877</v>
+        <v>0.006576889292285467</v>
       </c>
       <c r="FL3">
-        <v>0.009082263890474966</v>
+        <v>0.009091715496156366</v>
       </c>
       <c r="FM3">
-        <v>0.01176913585807338</v>
+        <v>0.01178551022783161</v>
       </c>
       <c r="FN3">
-        <v>0.008482906897702746</v>
+        <v>0.008490814251514761</v>
       </c>
       <c r="FO3">
-        <v>0.005331121335710827</v>
+        <v>0.005330908068916591</v>
       </c>
       <c r="FP3">
-        <v>0.001413305782956632</v>
+        <v>0.001402998208322153</v>
       </c>
       <c r="FQ3">
-        <v>6.009863927525719E-06</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.001108738986629471</v>
+        <v>0.001097646691285543</v>
       </c>
       <c r="FS3">
-        <v>0.008187787901261651</v>
+        <v>0.008194934876755834</v>
       </c>
       <c r="FT3">
-        <v>0.0193008147672472</v>
+        <v>0.01933659461550214</v>
       </c>
       <c r="FU3">
-        <v>0.0162078698045457</v>
+        <v>0.01623568063584055</v>
       </c>
       <c r="FV3">
-        <v>0.01128099186396002</v>
+        <v>0.0112961085237315</v>
       </c>
       <c r="FW3">
-        <v>0.005385047935060514</v>
+        <v>0.005384973610921257</v>
       </c>
       <c r="FX3">
-        <v>0.001849529177696118</v>
+        <v>0.001840345538881057</v>
       </c>
       <c r="FY3">
-        <v>0.0005720698331012831</v>
+        <v>0.0005595948020029198</v>
       </c>
       <c r="FZ3">
-        <v>3.25134166079135E-05</v>
+        <v>1.86482106807647E-05</v>
       </c>
       <c r="GA3">
-        <v>0.0004732614242928356</v>
+        <v>0.0004605318119151122</v>
       </c>
       <c r="GB3">
-        <v>0.000598899592777737</v>
+        <v>0.0005864936889391456</v>
       </c>
       <c r="GC3">
-        <v>0.001096867086772637</v>
+        <v>0.001085744203308827</v>
       </c>
       <c r="GD3">
-        <v>0.001151110486118504</v>
+        <v>0.001140127361549396</v>
       </c>
       <c r="GE3">
-        <v>0.0005074064938810726</v>
+        <v>0.0004947648567637996</v>
       </c>
       <c r="GF3">
-        <v>0.001843944477763465</v>
+        <v>0.001834746449889104</v>
       </c>
       <c r="GG3">
-        <v>0.002779972466475696</v>
+        <v>0.00277318612810992</v>
       </c>
       <c r="GH3">
-        <v>0.002745421966892348</v>
+        <v>0.002738546608669937</v>
       </c>
       <c r="GI3">
-        <v>0.0004090502550671723</v>
+        <v>0.0003961552016930012</v>
       </c>
       <c r="GJ3">
-        <v>0.002250689472858437</v>
+        <v>0.00224253942928494</v>
       </c>
       <c r="GK3">
-        <v>0.0001898330977107606</v>
+        <v>0.0001763732281934039</v>
       </c>
       <c r="GL3">
-        <v>0.0008825438893572077</v>
+        <v>0.0008708687991080388</v>
       </c>
       <c r="GM3">
-        <v>0.0006095512926492859</v>
+        <v>0.0005971728330678521</v>
       </c>
       <c r="GN3">
-        <v>0.0002029908175520888</v>
+        <v>0.0001895648490882058</v>
       </c>
       <c r="GO3">
-        <v>4.835157141691769E-05</v>
+        <v>3.452717272229701E-05</v>
       </c>
       <c r="GP3">
-        <v>0.0001976236476168126</v>
+        <v>0.0001841838505627809</v>
       </c>
       <c r="GQ3">
-        <v>0.0001090086986854399</v>
+        <v>9.534058394730183E-05</v>
       </c>
       <c r="GR3">
-        <v>7.783920506131978E-05</v>
+        <v>6.409078167678682E-05</v>
       </c>
       <c r="GS3">
-        <v>0.0007546092908999993</v>
+        <v>0.0007426045753270099</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0004203063797437081</v>
+        <v>0.0004096084014769583</v>
       </c>
       <c r="C4">
-        <v>0.0004707048109120645</v>
+        <v>0.0004601184945940748</v>
       </c>
       <c r="D4">
-        <v>0.0001367613731704561</v>
+        <v>0.0001254351771742805</v>
       </c>
       <c r="E4">
-        <v>0.0001303484630217894</v>
+        <v>0.0001190080586856353</v>
       </c>
       <c r="F4">
-        <v>0.0001667452338655537</v>
+        <v>0.0001554854696260609</v>
       </c>
       <c r="G4">
-        <v>4.919043114035196E-05</v>
+        <v>3.767021438172075E-05</v>
       </c>
       <c r="H4">
-        <v>1.160349376899677E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.622348607157107E-07</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.154520926764559E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.839935789018904E-05</v>
+        <v>2.685523260424073E-05</v>
       </c>
       <c r="L4">
-        <v>5.198575820515434E-05</v>
+        <v>4.047173472794562E-05</v>
       </c>
       <c r="M4">
-        <v>0.0001588310036820829</v>
+        <v>0.0001475537048022305</v>
       </c>
       <c r="N4">
-        <v>0.0001621935537600349</v>
+        <v>0.0001509237048917365</v>
       </c>
       <c r="O4">
-        <v>6.54610865175447E-05</v>
+        <v>5.397691875974359E-05</v>
       </c>
       <c r="P4">
-        <v>0.000125515462909749</v>
+        <v>0.000114164350656734</v>
       </c>
       <c r="Q4">
-        <v>0.0002368413154905487</v>
+        <v>0.000225736854995503</v>
       </c>
       <c r="R4">
-        <v>0.0001570117236399077</v>
+        <v>0.0001457303939926258</v>
       </c>
       <c r="S4">
-        <v>0.0002447033856728103</v>
+        <v>0.0002336163442532692</v>
       </c>
       <c r="T4">
-        <v>0.0003836895388948421</v>
+        <v>0.0003729104329478879</v>
       </c>
       <c r="U4">
-        <v>0.0001570117236399077</v>
+        <v>0.0001457303939926258</v>
       </c>
       <c r="V4">
-        <v>0.0001683975439038582</v>
+        <v>0.0001571414404957555</v>
       </c>
       <c r="W4">
-        <v>5.825295835044304E-05</v>
+        <v>4.675282038048664E-05</v>
       </c>
       <c r="X4">
-        <v>3.750749086951344E-05</v>
+        <v>2.596138957742257E-05</v>
       </c>
       <c r="Y4">
-        <v>1.882546943641945E-05</v>
+        <v>7.237976559875659E-06</v>
       </c>
       <c r="Z4">
-        <v>1.551069035957494E-07</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.06302429419063E-05</v>
+        <v>2.909106036878773E-05</v>
       </c>
       <c r="AB4">
-        <v>1.118026625918534E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.858649643087949E-05</v>
+        <v>6.998474089610681E-06</v>
       </c>
       <c r="AD4">
-        <v>1.060365724581816E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>7.977702184942236E-05</v>
+        <v>6.832457224634203E-05</v>
       </c>
       <c r="AF4">
-        <v>0.000143328293322693</v>
+        <v>0.0001320166468885683</v>
       </c>
       <c r="AG4">
-        <v>0.0001117784075912911</v>
+        <v>0.000100396859740748</v>
       </c>
       <c r="AH4">
-        <v>0.000331134867676499</v>
+        <v>0.0003202393224502131</v>
       </c>
       <c r="AI4">
-        <v>0.0004262633298818045</v>
+        <v>0.0004155785497374102</v>
       </c>
       <c r="AJ4">
-        <v>0.0003769653887389602</v>
+        <v>0.0003661713848737026</v>
       </c>
       <c r="AK4">
-        <v>0.0002650026661433962</v>
+        <v>0.0002539605994812679</v>
       </c>
       <c r="AL4">
-        <v>0.0002525826058554695</v>
+        <v>0.0002415130215086967</v>
       </c>
       <c r="AM4">
-        <v>7.489727573629816E-05</v>
+        <v>6.343401464667321E-05</v>
       </c>
       <c r="AN4">
-        <v>3.111350572128555E-05</v>
+        <v>1.955323801914096E-05</v>
       </c>
       <c r="AO4">
-        <v>2.050606047537958E-05</v>
+        <v>8.922291089153417E-06</v>
       </c>
       <c r="AP4">
-        <v>6.440260149300649E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>4.908581713792676E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>5.554524128767167E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>5.315963523236761E-05</v>
+        <v>4.164821257810963E-05</v>
       </c>
       <c r="AT4">
-        <v>3.975680092165783E-05</v>
+        <v>2.821568316452958E-05</v>
       </c>
       <c r="AU4">
-        <v>7.600598676200074E-05</v>
+        <v>6.454518211458781E-05</v>
       </c>
       <c r="AV4">
-        <v>8.289006692159018E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.000142258603297895</v>
+        <v>0.0001309445868758566</v>
       </c>
       <c r="AX4">
-        <v>0.0002702484862650069</v>
+        <v>0.0002592180421570741</v>
       </c>
       <c r="AY4">
-        <v>0.0002987273369252149</v>
+        <v>0.0002877599900980793</v>
       </c>
       <c r="AZ4">
-        <v>0.0002511619558225354</v>
+        <v>0.0002400892239065326</v>
       </c>
       <c r="BA4">
-        <v>0.0002349883154475917</v>
+        <v>0.0002238797494756283</v>
       </c>
       <c r="BB4">
-        <v>0.0001683975439038582</v>
+        <v>0.0001571414404957555</v>
       </c>
       <c r="BC4">
-        <v>9.260130214671988E-05</v>
+        <v>8.117726581159745E-05</v>
       </c>
       <c r="BD4">
-        <v>9.873655228894967E-05</v>
+        <v>8.732610911478743E-05</v>
       </c>
       <c r="BE4">
-        <v>3.884921590061784E-05</v>
+        <v>2.730608731279971E-05</v>
       </c>
       <c r="BF4">
-        <v>3.617080783852592E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>6.768253156904312E-06</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>9.12242621147968E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>8.282268592002815E-05</v>
+        <v>7.137698424099047E-05</v>
       </c>
       <c r="BJ4">
-        <v>9.346471216673579E-05</v>
+        <v>8.204258878888562E-05</v>
       </c>
       <c r="BK4">
-        <v>9.276622215054312E-05</v>
+        <v>8.134255120951311E-05</v>
       </c>
       <c r="BL4">
-        <v>4.249678898517732E-05</v>
+        <v>3.096174190127559E-05</v>
       </c>
       <c r="BM4">
-        <v>0.0001018073323601377</v>
+        <v>9.040369275662269E-05</v>
       </c>
       <c r="BN4">
-        <v>0.000185305924295835</v>
+        <v>0.0001740872828217881</v>
       </c>
       <c r="BO4">
-        <v>0.0001333963030924457</v>
+        <v>0.0001220626515014447</v>
       </c>
       <c r="BP4">
-        <v>0.0001232845128580302</v>
+        <v>0.0001119284577481725</v>
       </c>
       <c r="BQ4">
-        <v>0.0001303484630217894</v>
+        <v>0.0001190080586856353</v>
       </c>
       <c r="BR4">
-        <v>0.0001133142386268953</v>
+        <v>0.0001019360935387484</v>
       </c>
       <c r="BS4">
-        <v>0.0001270637329456415</v>
+        <v>0.0001157160510146704</v>
       </c>
       <c r="BT4">
-        <v>0.0001527210035404385</v>
+        <v>0.0001414301674431187</v>
       </c>
       <c r="BU4">
-        <v>0.0001587428136800385</v>
+        <v>0.0001474653194078443</v>
       </c>
       <c r="BV4">
-        <v>7.721186178995581E-05</v>
+        <v>6.575372885974641E-05</v>
       </c>
       <c r="BW4">
-        <v>3.261157375601436E-05</v>
+        <v>2.105462514917204E-05</v>
       </c>
       <c r="BX4">
-        <v>1.235500128641851E-05</v>
+        <v>7.531725453195951E-07</v>
       </c>
       <c r="BY4">
-        <v>1.278269229633341E-05</v>
+        <v>1.181811140516959E-06</v>
       </c>
       <c r="BZ4">
-        <v>1.280772029691362E-05</v>
+        <v>1.206894592730356E-06</v>
       </c>
       <c r="CA4">
-        <v>7.537623774740165E-05</v>
+        <v>6.391403783825995E-05</v>
       </c>
       <c r="CB4">
-        <v>4.429117402677545E-05</v>
+        <v>3.276010255334266E-05</v>
       </c>
       <c r="CC4">
-        <v>0.0001483662834394856</v>
+        <v>0.0001370657990947601</v>
       </c>
       <c r="CD4">
-        <v>4.285775599354539E-05</v>
+        <v>3.132350866230773E-05</v>
       </c>
       <c r="CE4">
-        <v>8.937921207202413E-05</v>
+        <v>7.794803692625857E-05</v>
       </c>
       <c r="CF4">
-        <v>0.000387954968993725</v>
+        <v>0.0003771853134646925</v>
       </c>
       <c r="CG4">
-        <v>0.0003387698778534968</v>
+        <v>0.0003278912486322412</v>
       </c>
       <c r="CH4">
-        <v>0.0003650173084619751</v>
+        <v>0.0003541968326233497</v>
       </c>
       <c r="CI4">
-        <v>0.0002786423764595974</v>
+        <v>0.0002676305297189849</v>
       </c>
       <c r="CJ4">
-        <v>0.0003058589070905417</v>
+        <v>0.0002949073608548913</v>
       </c>
       <c r="CK4">
-        <v>0.0001154534926764884</v>
+        <v>0.0001040800872850052</v>
       </c>
       <c r="CL4">
-        <v>4.706307109103466E-05</v>
+        <v>3.553814098789422E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0002272851752690145</v>
+        <v>0.0002161595423442914</v>
       </c>
       <c r="CN4">
-        <v>0.1558932436139786</v>
+        <v>0.156227008960236</v>
       </c>
       <c r="CO4">
-        <v>0.04493744104175747</v>
+        <v>0.04502537450685803</v>
       </c>
       <c r="CP4">
-        <v>0.08542283198030576</v>
+        <v>0.0856004642226047</v>
       </c>
       <c r="CQ4">
-        <v>0.01626519137706607</v>
+        <v>0.01628959906966381</v>
       </c>
       <c r="CR4">
-        <v>0.02744256063618426</v>
+        <v>0.02749173272728711</v>
       </c>
       <c r="CS4">
-        <v>0.0007259610168295145</v>
+        <v>0.0007159402420318686</v>
       </c>
       <c r="CT4">
-        <v>0.02906174867372091</v>
+        <v>0.02911450821164481</v>
       </c>
       <c r="CU4">
-        <v>0.02628113160925955</v>
+        <v>0.02632773045699973</v>
       </c>
       <c r="CV4">
-        <v>0.01040617774124011</v>
+        <v>0.01041760429801234</v>
       </c>
       <c r="CW4">
-        <v>0.0002308309953512151</v>
+        <v>0.0002197132184881025</v>
       </c>
       <c r="CX4">
-        <v>0.005559879528891319</v>
+        <v>0.00556056870574677</v>
       </c>
       <c r="CY4">
-        <v>0.001969579645659572</v>
+        <v>0.001962314212176933</v>
       </c>
       <c r="CZ4">
-        <v>0.005539586128420869</v>
+        <v>0.00554023034354654</v>
       </c>
       <c r="DA4">
-        <v>0.0002038111147248296</v>
+        <v>0.0001926334730513237</v>
       </c>
       <c r="DB4">
-        <v>2.3797067551673E-05</v>
+        <v>1.222058966748378E-05</v>
       </c>
       <c r="DC4">
-        <v>0.0004134096095838245</v>
+        <v>0.0004026963509446831</v>
       </c>
       <c r="DD4">
-        <v>0.0004393138601843471</v>
+        <v>0.0004286579945837621</v>
       </c>
       <c r="DE4">
-        <v>0.01753853340658519</v>
+        <v>0.01756576229518364</v>
       </c>
       <c r="DF4">
-        <v>0.00429985309968089</v>
+        <v>0.004297750582364254</v>
       </c>
       <c r="DG4">
-        <v>0.003750608886948093</v>
+        <v>0.003747289473039296</v>
       </c>
       <c r="DH4">
-        <v>0.003827841388738528</v>
+        <v>0.003824693089911244</v>
       </c>
       <c r="DI4">
-        <v>4.202622297426846E-05</v>
+        <v>3.049013331192569E-05</v>
       </c>
       <c r="DJ4">
-        <v>0.002729624763279237</v>
+        <v>0.002724043273463329</v>
       </c>
       <c r="DK4">
-        <v>0.0005744316133167001</v>
+        <v>0.0005640751124240455</v>
       </c>
       <c r="DL4">
-        <v>0.0007294041769093352</v>
+        <v>0.0007193910307214593</v>
       </c>
       <c r="DM4">
-        <v>0.00304587867061076</v>
+        <v>0.003040997867835639</v>
       </c>
       <c r="DN4">
-        <v>0.00122120432831044</v>
+        <v>0.001212280806581758</v>
       </c>
       <c r="DO4">
-        <v>0.002438690056534674</v>
+        <v>0.00243246397648919</v>
       </c>
       <c r="DP4">
-        <v>2.344526554351739E-05</v>
+        <v>1.186800821249029E-05</v>
       </c>
       <c r="DQ4">
-        <v>0.002603788060362041</v>
+        <v>0.002597927768782912</v>
       </c>
       <c r="DR4">
-        <v>0.004034001093517803</v>
+        <v>0.004031309558797215</v>
       </c>
       <c r="DS4">
-        <v>0.003771754487438299</v>
+        <v>0.003768481923379858</v>
       </c>
       <c r="DT4">
-        <v>0.004064708594229677</v>
+        <v>0.004062085094550886</v>
       </c>
       <c r="DU4">
-        <v>0.005302066522914596</v>
+        <v>0.005302184493444856</v>
       </c>
       <c r="DV4">
-        <v>0.009671377224205678</v>
+        <v>0.009681175768839829</v>
       </c>
       <c r="DW4">
-        <v>0.006043116740093914</v>
+        <v>0.006044876569496784</v>
       </c>
       <c r="DX4">
-        <v>0.003510754381387692</v>
+        <v>0.003506903549716696</v>
       </c>
       <c r="DY4">
-        <v>0.003949714491563838</v>
+        <v>0.003946836212811534</v>
       </c>
       <c r="DZ4">
-        <v>0.002712897062891449</v>
+        <v>0.002707278511453179</v>
       </c>
       <c r="EA4">
-        <v>0.02054957547638836</v>
+        <v>0.02058347558108459</v>
       </c>
       <c r="EB4">
-        <v>0.03615179083808507</v>
+        <v>0.03622025895872696</v>
       </c>
       <c r="EC4">
-        <v>0.01486281134455555</v>
+        <v>0.0148841119466407</v>
       </c>
       <c r="ED4">
-        <v>0.002932055467972065</v>
+        <v>0.002926922480350589</v>
       </c>
       <c r="EE4">
-        <v>4.027814693374388E-06</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>4.439255102912562E-06</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.001245779128880143</v>
+        <v>0.001236910054682036</v>
       </c>
       <c r="EH4">
-        <v>0.001390260132229558</v>
+        <v>0.001381711167805086</v>
       </c>
       <c r="EI4">
-        <v>0.006944769160996376</v>
+        <v>0.006948526676916234</v>
       </c>
       <c r="EJ4">
-        <v>0.007003203162351016</v>
+        <v>0.007007090143698941</v>
       </c>
       <c r="EK4">
-        <v>0.008236428190940125</v>
+        <v>0.00824304748571051</v>
       </c>
       <c r="EL4">
-        <v>0.00465051710781012</v>
+        <v>0.004649191515996918</v>
       </c>
       <c r="EM4">
-        <v>0.00652698115131105</v>
+        <v>0.006529813022875545</v>
       </c>
       <c r="EN4">
-        <v>0.008811077204261865</v>
+        <v>0.008818969682089601</v>
       </c>
       <c r="EO4">
-        <v>0.003740700086718384</v>
+        <v>0.0037373587190321</v>
       </c>
       <c r="EP4">
-        <v>4.17365609675534E-09</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.005696925432068371</v>
+        <v>0.005697918245609798</v>
       </c>
       <c r="ER4">
-        <v>0.01054375224442942</v>
+        <v>0.01055548360904526</v>
       </c>
       <c r="ES4">
-        <v>0.01756730340725215</v>
+        <v>0.01759459603819865</v>
       </c>
       <c r="ET4">
-        <v>0.02082024948266323</v>
+        <v>0.02085474928830885</v>
       </c>
       <c r="EU4">
-        <v>0.02050809247542668</v>
+        <v>0.02054190067105709</v>
       </c>
       <c r="EV4">
-        <v>0.01590410436869522</v>
+        <v>0.01592771204275881</v>
       </c>
       <c r="EW4">
-        <v>0.005046447416988733</v>
+        <v>0.005045999041963261</v>
       </c>
       <c r="EX4">
-        <v>0.0001949534545194878</v>
+        <v>0.0001837561879573286</v>
       </c>
       <c r="EY4">
-        <v>0.004741456109918304</v>
+        <v>0.004740332001086979</v>
       </c>
       <c r="EZ4">
-        <v>0.0177060144104678</v>
+        <v>0.01773361436726898</v>
       </c>
       <c r="FA4">
-        <v>0.03456971080140866</v>
+        <v>0.03463467369111589</v>
       </c>
       <c r="FB4">
-        <v>0.03543188082139583</v>
+        <v>0.03549875392105131</v>
       </c>
       <c r="FC4">
-        <v>0.02349215454460439</v>
+        <v>0.02353257417987967</v>
       </c>
       <c r="FD4">
-        <v>0.01425233333040321</v>
+        <v>0.0142722813672764</v>
       </c>
       <c r="FE4">
-        <v>0.006685831754993586</v>
+        <v>0.006689015573385746</v>
       </c>
       <c r="FF4">
-        <v>8.73380070247041E-05</v>
+        <v>7.590230941805793E-05</v>
       </c>
       <c r="FG4">
-        <v>0.001860527643131485</v>
+        <v>0.001853020595796268</v>
       </c>
       <c r="FH4">
-        <v>0.005759013533507721</v>
+        <v>0.005760143908442247</v>
       </c>
       <c r="FI4">
-        <v>0.007210080667146932</v>
+        <v>0.007214426002947657</v>
       </c>
       <c r="FJ4">
-        <v>0.009782532226782518</v>
+        <v>0.009792577044642134</v>
       </c>
       <c r="FK4">
-        <v>0.005899015136753293</v>
+        <v>0.005900455696975051</v>
       </c>
       <c r="FL4">
-        <v>0.01018026023600281</v>
+        <v>0.01019118625360528</v>
       </c>
       <c r="FM4">
-        <v>0.01468391834040838</v>
+        <v>0.01470482259004764</v>
       </c>
       <c r="FN4">
-        <v>0.01211985328096721</v>
+        <v>0.01213507662954174</v>
       </c>
       <c r="FO4">
-        <v>0.008262090191535031</v>
+        <v>0.008268766342618777</v>
       </c>
       <c r="FP4">
-        <v>0.003395907878725275</v>
+        <v>0.003391802595000945</v>
       </c>
       <c r="FQ4">
-        <v>0.0009033769809424412</v>
+        <v>0.0008937492860846818</v>
       </c>
       <c r="FR4">
-        <v>0.0001177986077308537</v>
+        <v>0.0001064303981383462</v>
       </c>
       <c r="FS4">
-        <v>0.004726514809571929</v>
+        <v>0.004725357597037274</v>
       </c>
       <c r="FT4">
-        <v>0.01221910728326816</v>
+        <v>0.01223455053740447</v>
       </c>
       <c r="FU4">
-        <v>0.01018583423613202</v>
+        <v>0.01019677260339901</v>
       </c>
       <c r="FV4">
-        <v>0.007431572172281635</v>
+        <v>0.007436408241077889</v>
       </c>
       <c r="FW4">
-        <v>0.005060667117318379</v>
+        <v>0.005060250247230914</v>
       </c>
       <c r="FX4">
-        <v>0.001758201340759316</v>
+        <v>0.001750467580923979</v>
       </c>
       <c r="FY4">
-        <v>0.0006416372148746868</v>
+        <v>0.0006314296136256044</v>
       </c>
       <c r="FZ4">
-        <v>0.0001683975439038582</v>
+        <v>0.0001571414404957555</v>
       </c>
       <c r="GA4">
-        <v>0.000343990227974517</v>
+        <v>0.0003331231648765358</v>
       </c>
       <c r="GB4">
-        <v>0.0002809469065130219</v>
+        <v>0.0002699401656519136</v>
       </c>
       <c r="GC4">
-        <v>0.0003648836384588763</v>
+        <v>0.0003540628664631545</v>
       </c>
       <c r="GD4">
-        <v>0.0001545153035820347</v>
+        <v>0.0001432284429068592</v>
       </c>
       <c r="GE4">
-        <v>0.0001705050439527151</v>
+        <v>0.0001592536098876259</v>
       </c>
       <c r="GF4">
-        <v>0.001808853941933565</v>
+        <v>0.001801232407181941</v>
       </c>
       <c r="GG4">
-        <v>0.001963919045528346</v>
+        <v>0.001956641070511632</v>
       </c>
       <c r="GH4">
-        <v>0.001067600924749545</v>
+        <v>0.001058337081804901</v>
       </c>
       <c r="GI4">
-        <v>8.130689188488841E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0003718298786199068</v>
+        <v>0.0003610244966015108</v>
       </c>
       <c r="GK4">
-        <v>0.000230570795345183</v>
+        <v>0.0002194524419871465</v>
       </c>
       <c r="GL4">
-        <v>0.002255538752288788</v>
+        <v>0.002248906885176604</v>
       </c>
       <c r="GM4">
-        <v>0.001859788843114358</v>
+        <v>0.001852280158905775</v>
       </c>
       <c r="GN4">
-        <v>0.001021817123688167</v>
+        <v>0.001012451842894573</v>
       </c>
       <c r="GO4">
-        <v>0.0001110881665752897</v>
+        <v>9.970508943791814E-05</v>
       </c>
       <c r="GP4">
-        <v>0.0002243844252017682</v>
+        <v>0.0002132523654221239</v>
       </c>
       <c r="GQ4">
-        <v>0.0001059881324570587</v>
+        <v>9.459375576660218E-05</v>
       </c>
       <c r="GR4">
-        <v>0.0001216823128208873</v>
+        <v>0.0001103227079025474</v>
       </c>
       <c r="GS4">
-        <v>0.0005640695130764817</v>
+        <v>0.0005536900540821711</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>7.165970600575939E-05</v>
+        <v>6.368210546893513E-05</v>
       </c>
       <c r="C5">
-        <v>3.870198484278992E-07</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>9.665377961261464E-06</v>
+        <v>1.592865328992052E-06</v>
       </c>
       <c r="E5">
-        <v>7.666976572650364E-09</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>8.074947549910469E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.06653042907465E-05</v>
+        <v>2.262494213215743E-05</v>
       </c>
       <c r="H5">
-        <v>6.126013258542126E-05</v>
+        <v>5.326661050647865E-05</v>
       </c>
       <c r="I5">
-        <v>0.0002061426085098164</v>
+        <v>0.0001983708986484914</v>
       </c>
       <c r="J5">
-        <v>0.0002394213266548938</v>
+        <v>0.0002317005658557252</v>
       </c>
       <c r="K5">
-        <v>0.0001368092123743908</v>
+        <v>0.0001289313544488943</v>
       </c>
       <c r="L5">
-        <v>0.0001632584809001349</v>
+        <v>0.0001554211162839129</v>
       </c>
       <c r="M5">
-        <v>0.000187242869563269</v>
+        <v>0.0001794422245737902</v>
       </c>
       <c r="N5">
-        <v>9.907129447786476E-05</v>
+        <v>9.113566054320289E-05</v>
       </c>
       <c r="O5">
-        <v>9.180700488276902E-05</v>
+        <v>8.38602494637853E-05</v>
       </c>
       <c r="P5">
-        <v>0.0001473342317877367</v>
+        <v>0.0001394724874597036</v>
       </c>
       <c r="Q5">
-        <v>9.768817455495849E-05</v>
+        <v>8.975042309093102E-05</v>
       </c>
       <c r="R5">
-        <v>0.0002242074675028992</v>
+        <v>0.0002164634145849598</v>
       </c>
       <c r="S5">
-        <v>0.0001156760135523343</v>
+        <v>0.0001077658011155956</v>
       </c>
       <c r="T5">
-        <v>5.873991172589584E-05</v>
+        <v>5.074253123844544E-05</v>
       </c>
       <c r="U5">
-        <v>4.288440460966601E-05</v>
+        <v>3.486274965304696E-05</v>
       </c>
       <c r="V5">
-        <v>2.33636306977345E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.483655217302536E-05</v>
+        <v>6.771956506643511E-06</v>
       </c>
       <c r="X5">
-        <v>5.962136167676471E-05</v>
+        <v>5.162533067183159E-05</v>
       </c>
       <c r="Y5">
-        <v>5.556529190284599E-05</v>
+        <v>4.756305113496104E-05</v>
       </c>
       <c r="Z5">
-        <v>3.130308125519744E-05</v>
+        <v>2.326369552058187E-05</v>
       </c>
       <c r="AA5">
-        <v>9.493526470840294E-05</v>
+        <v>8.699329859361064E-05</v>
       </c>
       <c r="AB5">
-        <v>0.0002499380360687029</v>
+        <v>0.000242233376144552</v>
       </c>
       <c r="AC5">
-        <v>0.0001900935894043727</v>
+        <v>0.0001822973088108343</v>
       </c>
       <c r="AD5">
-        <v>0.0001422806720694171</v>
+        <v>0.0001344111908409698</v>
       </c>
       <c r="AE5">
-        <v>0.0001464694118359409</v>
+        <v>0.0001386063434855916</v>
       </c>
       <c r="AF5">
-        <v>0.0002041220586224399</v>
+        <v>0.000196347255339026</v>
       </c>
       <c r="AG5">
-        <v>0.0001384260022842725</v>
+        <v>0.0001305506196322902</v>
       </c>
       <c r="AH5">
-        <v>0.000117666743441373</v>
+        <v>0.0001097595787728931</v>
       </c>
       <c r="AI5">
-        <v>0.0001016158803360321</v>
+        <v>9.368414211221114E-05</v>
       </c>
       <c r="AJ5">
-        <v>6.606776631744853E-05</v>
+        <v>5.808160463107784E-05</v>
       </c>
       <c r="AK5">
-        <v>2.165642479289246E-05</v>
+        <v>1.360227021719484E-05</v>
       </c>
       <c r="AL5">
-        <v>6.563521634155844E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>3.224863620249315E-06</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.41028180991429E-05</v>
+        <v>2.606771870650305E-05</v>
       </c>
       <c r="AO5">
-        <v>5.484772694284234E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>5.166377412031271E-05</v>
+        <v>4.36555602055313E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.000109998233868808</v>
+        <v>0.0001020793288631807</v>
       </c>
       <c r="AR5">
-        <v>7.996765154268278E-05</v>
+        <v>7.200277030687567E-05</v>
       </c>
       <c r="AS5">
-        <v>9.382212977044797E-05</v>
+        <v>8.587845946798549E-05</v>
       </c>
       <c r="AT5">
-        <v>0.0002280518572886167</v>
+        <v>0.0002203136900557356</v>
       </c>
       <c r="AU5">
-        <v>0.0003109818626661808</v>
+        <v>0.000303370659638477</v>
       </c>
       <c r="AV5">
-        <v>0.0003192329122062755</v>
+        <v>0.0003116343413729381</v>
       </c>
       <c r="AW5">
-        <v>0.0002740336847256354</v>
+        <v>0.0002663659147650873</v>
       </c>
       <c r="AX5">
-        <v>0.000117936643426329</v>
+        <v>0.0001100298919694112</v>
       </c>
       <c r="AY5">
-        <v>9.976649943911472E-05</v>
+        <v>9.183192984955857E-05</v>
       </c>
       <c r="AZ5">
-        <v>0.0002190178077921656</v>
+        <v>0.0002112658096074038</v>
       </c>
       <c r="BA5">
-        <v>6.126013258542126E-05</v>
+        <v>5.326661050647865E-05</v>
       </c>
       <c r="BB5">
-        <v>8.886912504652351E-06</v>
+        <v>8.132080570983956E-07</v>
       </c>
       <c r="BC5">
-        <v>1.058492141000703E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>4.397882254866425E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>9.425712474620177E-05</v>
+        <v>8.631412041248126E-05</v>
       </c>
       <c r="BF5">
-        <v>6.989997610384498E-05</v>
+        <v>6.191968145519346E-05</v>
       </c>
       <c r="BG5">
-        <v>0.0001487282817100338</v>
+        <v>0.00014086867164498</v>
       </c>
       <c r="BH5">
-        <v>0.0001487282817100338</v>
+        <v>0.00014086867164498</v>
       </c>
       <c r="BI5">
-        <v>0.0001881758295112668</v>
+        <v>0.0001803766128650964</v>
       </c>
       <c r="BJ5">
-        <v>0.0002539960858425113</v>
+        <v>0.0002462976387126531</v>
       </c>
       <c r="BK5">
-        <v>0.0001447866319297374</v>
+        <v>0.0001369209872764889</v>
       </c>
       <c r="BL5">
-        <v>9.561582067046943E-05</v>
+        <v>8.767489647345356E-05</v>
       </c>
       <c r="BM5">
-        <v>0.0002975757634134234</v>
+        <v>0.0002899440359117562</v>
       </c>
       <c r="BN5">
-        <v>0.0002573406556560882</v>
+        <v>0.0002496473289967534</v>
       </c>
       <c r="BO5">
-        <v>0.000379530428845352</v>
+        <v>0.0003720241723226116</v>
       </c>
       <c r="BP5">
-        <v>0.0001910561193507223</v>
+        <v>0.0001832613123715776</v>
       </c>
       <c r="BQ5">
-        <v>8.416342530881453E-05</v>
+        <v>7.620496772002029E-05</v>
       </c>
       <c r="BR5">
-        <v>4.19655456608823E-05</v>
+        <v>3.39424839493068E-05</v>
       </c>
       <c r="BS5">
-        <v>3.224863620249315E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>9.879736449313335E-07</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.172385734652387E-07</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>7.666976572650364E-09</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>3.105262126915783E-05</v>
+        <v>2.301285208523568E-05</v>
       </c>
       <c r="BX5">
-        <v>2.468317162418461E-05</v>
+        <v>1.663365093828306E-05</v>
       </c>
       <c r="BY5">
-        <v>6.608098631671167E-05</v>
+        <v>5.809484486989952E-05</v>
       </c>
       <c r="BZ5">
-        <v>0.0001695541805492189</v>
+        <v>0.0001617264545251848</v>
       </c>
       <c r="CA5">
-        <v>0.0002618604454041597</v>
+        <v>0.0002541740384539256</v>
       </c>
       <c r="CB5">
-        <v>0.0001701599905154517</v>
+        <v>0.0001623331919745463</v>
       </c>
       <c r="CC5">
-        <v>0.0004266718262177376</v>
+        <v>0.0004192377422460669</v>
       </c>
       <c r="CD5">
-        <v>0.0006491584038165574</v>
+        <v>0.0006420649424139896</v>
       </c>
       <c r="CE5">
-        <v>0.0002980049033895036</v>
+        <v>0.0002903738328926892</v>
       </c>
       <c r="CF5">
-        <v>0.0003036483030749462</v>
+        <v>0.0002960258725119205</v>
       </c>
       <c r="CG5">
-        <v>0.0003741480791453589</v>
+        <v>0.0003666335823512169</v>
       </c>
       <c r="CH5">
-        <v>0.0001434112420064003</v>
+        <v>0.0001355434916582633</v>
       </c>
       <c r="CI5">
-        <v>6.017355664598591E-05</v>
+        <v>5.217837104067685E-05</v>
       </c>
       <c r="CJ5">
-        <v>2.080723884022524E-05</v>
+        <v>1.275178417755624E-05</v>
       </c>
       <c r="CK5">
-        <v>2.89961533837833E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>1.335974425534117E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>3.065629229124881E-05</v>
+        <v>2.261591633546598E-05</v>
       </c>
       <c r="CN5">
-        <v>0.02458330262975121</v>
+        <v>0.0246128518718479</v>
       </c>
       <c r="CO5">
-        <v>0.06907891114961033</v>
+        <v>0.06917658229214436</v>
       </c>
       <c r="CP5">
-        <v>0.09438426473911513</v>
+        <v>0.09452067787968223</v>
       </c>
       <c r="CQ5">
-        <v>0.03990119477594716</v>
+        <v>0.03995419540928008</v>
       </c>
       <c r="CR5">
-        <v>0.01617825309824029</v>
+        <v>0.01619493437501629</v>
       </c>
       <c r="CS5">
-        <v>0.01180170634218465</v>
+        <v>0.01181168721205999</v>
       </c>
       <c r="CT5">
-        <v>0.005965393167494929</v>
+        <v>0.005966438756828374</v>
       </c>
       <c r="CU5">
-        <v>0.04238495763750469</v>
+        <v>0.04244176086286845</v>
       </c>
       <c r="CV5">
-        <v>0.02416602765300969</v>
+        <v>0.02419493805533396</v>
       </c>
       <c r="CW5">
-        <v>0.0116404933511705</v>
+        <v>0.0116502274071312</v>
       </c>
       <c r="CX5">
-        <v>0.0003398745110557334</v>
+        <v>0.0003323075421037605</v>
       </c>
       <c r="CY5">
-        <v>0.02112497482251495</v>
+        <v>0.02114922943284008</v>
       </c>
       <c r="CZ5">
-        <v>0.0003964679579012711</v>
+        <v>0.0003889876324019818</v>
       </c>
       <c r="DA5">
-        <v>0.001578111512037637</v>
+        <v>0.001572440259550831</v>
       </c>
       <c r="DB5">
-        <v>6.989997610384498E-05</v>
+        <v>6.191968145519346E-05</v>
       </c>
       <c r="DC5">
-        <v>0.0001245902330554645</v>
+        <v>0.0001166936681132466</v>
       </c>
       <c r="DD5">
-        <v>0.0005312970303860329</v>
+        <v>0.0005240231255416667</v>
       </c>
       <c r="DE5">
-        <v>0.004140860769192546</v>
+        <v>0.004139113035352842</v>
       </c>
       <c r="DF5">
-        <v>0.02206782676996133</v>
+        <v>0.02209352486805137</v>
       </c>
       <c r="DG5">
-        <v>0.003109388626685776</v>
+        <v>0.003106061729307621</v>
       </c>
       <c r="DH5">
-        <v>0.008390531532320132</v>
+        <v>0.008395289960734352</v>
       </c>
       <c r="DI5">
-        <v>0.00571509838144611</v>
+        <v>0.005715760774390913</v>
       </c>
       <c r="DJ5">
-        <v>0.0001136849336633151</v>
+        <v>0.0001057716729224747</v>
       </c>
       <c r="DK5">
-        <v>0.0005644389685387344</v>
+        <v>0.0005572158033490496</v>
       </c>
       <c r="DL5">
-        <v>4.152556168540657E-05</v>
+        <v>3.350182636702878E-05</v>
       </c>
       <c r="DM5">
-        <v>0.0001834239697761307</v>
+        <v>0.0001756174781262794</v>
       </c>
       <c r="DN5">
-        <v>0.001371121623575047</v>
+        <v>0.001365133473645045</v>
       </c>
       <c r="DO5">
-        <v>0.0002584865555922169</v>
+        <v>0.0002507949832831193</v>
       </c>
       <c r="DP5">
-        <v>0.004161825168024012</v>
+        <v>0.004160109530266088</v>
       </c>
       <c r="DQ5">
-        <v>0.0001872205895645109</v>
+        <v>0.0001794199104647927</v>
       </c>
       <c r="DR5">
-        <v>0.002274944073196884</v>
+        <v>0.002270339657639202</v>
       </c>
       <c r="DS5">
-        <v>0.004484088750061361</v>
+        <v>0.004482866491501529</v>
       </c>
       <c r="DT5">
-        <v>0.00443442515282956</v>
+        <v>0.004433126860280341</v>
       </c>
       <c r="DU5">
-        <v>0.005790774377228006</v>
+        <v>0.005791552628632141</v>
       </c>
       <c r="DV5">
-        <v>0.00558743498856194</v>
+        <v>0.005587901931366182</v>
       </c>
       <c r="DW5">
-        <v>0.01284095528425795</v>
+        <v>0.01285252722379874</v>
       </c>
       <c r="DX5">
-        <v>0.003199361321670788</v>
+        <v>0.003196172170716914</v>
       </c>
       <c r="DY5">
-        <v>0.00382124608700755</v>
+        <v>0.003819009029383267</v>
       </c>
       <c r="DZ5">
-        <v>0.001065924740586417</v>
+        <v>0.00105946934023849</v>
       </c>
       <c r="EA5">
-        <v>0.004622200742363136</v>
+        <v>0.00462118993054382</v>
       </c>
       <c r="EB5">
-        <v>0.02255033874306659</v>
+        <v>0.02257677555748584</v>
       </c>
       <c r="EC5">
-        <v>0.02503381760463995</v>
+        <v>0.02506405657629166</v>
       </c>
       <c r="ED5">
-        <v>0.006177391655678344</v>
+        <v>0.006178761810522528</v>
       </c>
       <c r="EE5">
-        <v>8.417835030798262E-05</v>
+        <v>7.62199155690682E-05</v>
       </c>
       <c r="EF5">
-        <v>0.001039480042060418</v>
+        <v>0.001032984155399797</v>
       </c>
       <c r="EG5">
-        <v>0.0007321449991909672</v>
+        <v>0.0007251785886317474</v>
       </c>
       <c r="EH5">
-        <v>0.001798523299752103</v>
+        <v>0.001793189493371944</v>
       </c>
       <c r="EI5">
-        <v>0.00177886460084786</v>
+        <v>0.001773500697386797</v>
       </c>
       <c r="EJ5">
-        <v>0.008972820499863926</v>
+        <v>0.008978470401221033</v>
       </c>
       <c r="EK5">
-        <v>0.008915671503049354</v>
+        <v>0.008921233910417716</v>
       </c>
       <c r="EL5">
-        <v>0.007487863782633934</v>
+        <v>0.007491240244498698</v>
       </c>
       <c r="EM5">
-        <v>0.004235510463916867</v>
+        <v>0.004233907636895946</v>
       </c>
       <c r="EN5">
-        <v>0.006113495659239843</v>
+        <v>0.006114767990571719</v>
       </c>
       <c r="EO5">
-        <v>0.007183323199608722</v>
+        <v>0.007186233415837881</v>
       </c>
       <c r="EP5">
-        <v>0.000449006374972832</v>
+        <v>0.000441606484755494</v>
       </c>
       <c r="EQ5">
-        <v>0.0008148985545783665</v>
+        <v>0.0008080588380828637</v>
       </c>
       <c r="ER5">
-        <v>0.01154807535632178</v>
+        <v>0.01155766792215227</v>
       </c>
       <c r="ES5">
-        <v>0.01831057397938685</v>
+        <v>0.01833051979744227</v>
       </c>
       <c r="ET5">
-        <v>0.03279363817211528</v>
+        <v>0.03283575727624958</v>
       </c>
       <c r="EU5">
-        <v>0.03429615808836632</v>
+        <v>0.03434057752090481</v>
       </c>
       <c r="EV5">
-        <v>0.02587177055793329</v>
+        <v>0.02590329241905554</v>
       </c>
       <c r="EW5">
-        <v>0.01769626601362776</v>
+        <v>0.01771527133828454</v>
       </c>
       <c r="EX5">
-        <v>0.006150022257203887</v>
+        <v>0.006151350510037964</v>
       </c>
       <c r="EY5">
-        <v>1.484282017267599E-05</v>
+        <v>6.778234102478178E-06</v>
       </c>
       <c r="EZ5">
-        <v>0.00590451727088809</v>
+        <v>0.005905469660422597</v>
       </c>
       <c r="FA5">
-        <v>0.02202617477228297</v>
+        <v>0.02205180910198478</v>
       </c>
       <c r="FB5">
-        <v>0.0395719307943</v>
+        <v>0.03962442733096087</v>
       </c>
       <c r="FC5">
-        <v>0.03812898787472821</v>
+        <v>0.03817927529419362</v>
       </c>
       <c r="FD5">
-        <v>0.02681831850517365</v>
+        <v>0.02685128951256372</v>
       </c>
       <c r="FE5">
-        <v>0.0153407621449212</v>
+        <v>0.01535616123953952</v>
       </c>
       <c r="FF5">
-        <v>0.008732286513271049</v>
+        <v>0.008737568161831273</v>
       </c>
       <c r="FG5">
-        <v>0.0001282301428525796</v>
+        <v>0.000120339150540584</v>
       </c>
       <c r="FH5">
-        <v>0.0005772491678247066</v>
+        <v>0.0005700456147978704</v>
       </c>
       <c r="FI5">
-        <v>0.002861808340485655</v>
+        <v>0.002858102402564673</v>
       </c>
       <c r="FJ5">
-        <v>0.004097603071603687</v>
+        <v>0.004095789111080804</v>
       </c>
       <c r="FK5">
-        <v>0.005613646687100927</v>
+        <v>0.005614153759499472</v>
       </c>
       <c r="FL5">
-        <v>0.002913011037631667</v>
+        <v>0.002909383490031734</v>
       </c>
       <c r="FM5">
-        <v>0.008775929510838432</v>
+        <v>0.008781277975968515</v>
       </c>
       <c r="FN5">
-        <v>0.01215526532247762</v>
+        <v>0.01216578748418952</v>
       </c>
       <c r="FO5">
-        <v>0.009543149468074358</v>
+        <v>0.00954967253185089</v>
       </c>
       <c r="FP5">
-        <v>0.005502754693281936</v>
+        <v>0.005503091992221627</v>
       </c>
       <c r="FQ5">
-        <v>0.00151957541530038</v>
+        <v>0.001513814545202161</v>
       </c>
       <c r="FR5">
-        <v>0.0002751890846612346</v>
+        <v>0.0002675230835952358</v>
       </c>
       <c r="FS5">
-        <v>0.0007103001304085785</v>
+        <v>0.0007033002757854216</v>
       </c>
       <c r="FT5">
-        <v>0.006422597642010807</v>
+        <v>0.006424343202391474</v>
       </c>
       <c r="FU5">
-        <v>0.009981560443637766</v>
+        <v>0.009988754705984705</v>
       </c>
       <c r="FV5">
-        <v>0.007286117893879048</v>
+        <v>0.007289185486760904</v>
       </c>
       <c r="FW5">
-        <v>0.005718489281257105</v>
+        <v>0.005719156865602746</v>
       </c>
       <c r="FX5">
-        <v>0.002988671033414454</v>
+        <v>0.002985159319778169</v>
       </c>
       <c r="FY5">
-        <v>0.0003212833820919844</v>
+        <v>0.0003136879504876642</v>
       </c>
       <c r="FZ5">
-        <v>2.740778747231724E-06</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0003109818626661808</v>
+        <v>0.000303370659638477</v>
       </c>
       <c r="GB5">
-        <v>0.001575342912191956</v>
+        <v>0.001569667421033306</v>
       </c>
       <c r="GC5">
-        <v>0.001589210111419012</v>
+        <v>0.001583555850669306</v>
       </c>
       <c r="GD5">
-        <v>0.001321720626328609</v>
+        <v>0.001315656844444627</v>
       </c>
       <c r="GE5">
-        <v>0.001062134140797701</v>
+        <v>0.001055672937116142</v>
       </c>
       <c r="GF5">
-        <v>0.00162086750965446</v>
+        <v>0.001615261715758055</v>
       </c>
       <c r="GG5">
-        <v>0.003649384296586955</v>
+        <v>0.003646884121945836</v>
       </c>
       <c r="GH5">
-        <v>0.004454676751700756</v>
+        <v>0.004453409463950614</v>
       </c>
       <c r="GI5">
-        <v>0.0007788170565895132</v>
+        <v>0.0007719221000311056</v>
       </c>
       <c r="GJ5">
-        <v>0.0003326592814579031</v>
+        <v>0.0003250812661314981</v>
       </c>
       <c r="GK5">
-        <v>4.152556168540657E-05</v>
+        <v>3.350182636702878E-05</v>
       </c>
       <c r="GL5">
-        <v>0.001185124833942323</v>
+        <v>0.001178851926590038</v>
       </c>
       <c r="GM5">
-        <v>0.004521518247975078</v>
+        <v>0.004520353293239491</v>
       </c>
       <c r="GN5">
-        <v>0.003985212477868227</v>
+        <v>0.003983226449559528</v>
       </c>
       <c r="GO5">
-        <v>0.002782703644894872</v>
+        <v>0.002778876599242668</v>
       </c>
       <c r="GP5">
-        <v>0.001206018632777723</v>
+        <v>0.001199777713420015</v>
       </c>
       <c r="GQ5">
-        <v>0.001441715419640219</v>
+        <v>0.001435835347421862</v>
       </c>
       <c r="GR5">
-        <v>0.0001042093291914758</v>
+        <v>9.628156148678242E-05</v>
       </c>
       <c r="GS5">
-        <v>0.0002999861132790729</v>
+        <v>0.0002923580759755855</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001989196050711769</v>
+        <v>0.0001896252605000746</v>
       </c>
       <c r="C6">
-        <v>9.614626745111452E-05</v>
+        <v>8.66595831640218E-05</v>
       </c>
       <c r="D6">
-        <v>0.0001618137541252152</v>
+        <v>0.0001524499661654111</v>
       </c>
       <c r="E6">
-        <v>0.0003126577679707721</v>
+        <v>0.0003035762837237186</v>
       </c>
       <c r="F6">
-        <v>0.0001998881950958698</v>
+        <v>0.0001905956632354819</v>
       </c>
       <c r="G6">
-        <v>0.000106028218703041</v>
+        <v>9.656002843143173E-05</v>
       </c>
       <c r="H6">
-        <v>0.0002342202559711176</v>
+        <v>0.0002249919763671128</v>
       </c>
       <c r="I6">
-        <v>7.763069197908584E-05</v>
+        <v>6.810935589795628E-05</v>
       </c>
       <c r="J6">
-        <v>3.020075076992587E-05</v>
+        <v>2.059064982396983E-05</v>
       </c>
       <c r="K6">
-        <v>1.844832547031424E-05</v>
+        <v>8.816229927348194E-06</v>
       </c>
       <c r="L6">
-        <v>9.648564245976639E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>6.170087857297754E-07</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.29200108392496E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.850532947176747E-05</v>
+        <v>8.873340611465475E-06</v>
       </c>
       <c r="P6">
-        <v>0.0001747370644546769</v>
+        <v>0.0001653974623965472</v>
       </c>
       <c r="Q6">
-        <v>8.349494812858684E-05</v>
+        <v>7.398458696944007E-05</v>
       </c>
       <c r="R6">
-        <v>0.000143893953668375</v>
+        <v>0.0001344966289040816</v>
       </c>
       <c r="S6">
-        <v>0.0001756449344778218</v>
+        <v>0.0001663070314932694</v>
       </c>
       <c r="T6">
-        <v>0.000154220823931644</v>
+        <v>0.0001448428258462297</v>
       </c>
       <c r="U6">
-        <v>0.0001222826431174248</v>
+        <v>0.0001128448729085268</v>
       </c>
       <c r="V6">
-        <v>0.0001150603229333019</v>
+        <v>0.0001056090361933154</v>
       </c>
       <c r="W6">
-        <v>0.0001054592166885351</v>
+        <v>9.598996153289652E-05</v>
       </c>
       <c r="X6">
-        <v>0.0001215253170981179</v>
+        <v>0.0001120861295578882</v>
       </c>
       <c r="Y6">
-        <v>0.0001172782129898439</v>
+        <v>0.0001078310770184658</v>
       </c>
       <c r="Z6">
-        <v>0.0001075830127426783</v>
+        <v>9.811773225925857E-05</v>
       </c>
       <c r="AA6">
-        <v>0.0002302412558696786</v>
+        <v>0.0002210055295896471</v>
       </c>
       <c r="AB6">
-        <v>5.697979145262003E-05</v>
+        <v>4.741980732877642E-05</v>
       </c>
       <c r="AC6">
-        <v>3.175185380946907E-07</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.198863556056949E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>7.463831190279928E-05</v>
+        <v>6.511137559940064E-05</v>
       </c>
       <c r="AF6">
-        <v>2.526877064419194E-05</v>
+        <v>1.564943952552164E-05</v>
       </c>
       <c r="AG6">
-        <v>9.614626745111452E-05</v>
+        <v>8.66595831640218E-05</v>
       </c>
       <c r="AH6">
-        <v>7.523208191793664E-05</v>
+        <v>6.570625685173939E-05</v>
       </c>
       <c r="AI6">
-        <v>3.395453386562331E-05</v>
+        <v>2.435145810335046E-05</v>
       </c>
       <c r="AJ6">
-        <v>0.0001216312131008175</v>
+        <v>0.0001121922237443538</v>
       </c>
       <c r="AK6">
-        <v>0.0002067342652704007</v>
+        <v>0.0001974545457913514</v>
       </c>
       <c r="AL6">
-        <v>0.0002391447360966603</v>
+        <v>0.0002299256726291622</v>
       </c>
       <c r="AM6">
-        <v>0.0002083812653123887</v>
+        <v>0.0001991046281845371</v>
       </c>
       <c r="AN6">
-        <v>0.0003552548090567241</v>
+        <v>0.0003462530449294432</v>
       </c>
       <c r="AO6">
-        <v>0.0002634211967155547</v>
+        <v>0.0002542475665058335</v>
       </c>
       <c r="AP6">
-        <v>0.0001650288642071799</v>
+        <v>0.000155671093307582</v>
       </c>
       <c r="AQ6">
-        <v>5.791908147656591E-05</v>
+        <v>4.83608552286522E-05</v>
       </c>
       <c r="AR6">
-        <v>5.398605737629897E-05</v>
+        <v>4.442047049618292E-05</v>
       </c>
       <c r="AS6">
-        <v>9.689801247027919E-06</v>
+        <v>4.13141758638739E-08</v>
       </c>
       <c r="AT6">
-        <v>4.931719125727276E-05</v>
+        <v>3.974286662080739E-05</v>
       </c>
       <c r="AU6">
-        <v>3.59248159158529E-05</v>
+        <v>2.632542752521493E-05</v>
       </c>
       <c r="AV6">
-        <v>0.0001836118646809275</v>
+        <v>0.0001742888717608731</v>
       </c>
       <c r="AW6">
-        <v>0.0001917554548885369</v>
+        <v>0.0001824477026511726</v>
       </c>
       <c r="AX6">
-        <v>0.0001336604334074857</v>
+        <v>0.0001242439566683111</v>
       </c>
       <c r="AY6">
-        <v>0.000123804363156219</v>
+        <v>0.0001143694408377063</v>
       </c>
       <c r="AZ6">
-        <v>0.0001373867735024835</v>
+        <v>0.0001279772705875726</v>
       </c>
       <c r="BA6">
-        <v>0.0001075830127426783</v>
+        <v>9.811773225925857E-05</v>
       </c>
       <c r="BB6">
-        <v>0.0002029970351751253</v>
+        <v>0.0001937103214912387</v>
       </c>
       <c r="BC6">
-        <v>0.0001080578327547832</v>
+        <v>9.859344089431167E-05</v>
       </c>
       <c r="BD6">
-        <v>9.360302238627804E-05</v>
+        <v>8.411157843053204E-05</v>
       </c>
       <c r="BE6">
-        <v>4.788267822070186E-05</v>
+        <v>3.830566890125909E-05</v>
       </c>
       <c r="BF6">
-        <v>6.42756876386187E-05</v>
+        <v>5.472935774293198E-05</v>
       </c>
       <c r="BG6">
-        <v>2.661723267856909E-05</v>
+        <v>1.70004251989157E-05</v>
       </c>
       <c r="BH6">
-        <v>1.970442850233683E-05</v>
+        <v>1.007468374904084E-05</v>
       </c>
       <c r="BI6">
-        <v>9.360302238627804E-05</v>
+        <v>8.411157843053204E-05</v>
       </c>
       <c r="BJ6">
-        <v>2.431029761975701E-05</v>
+        <v>1.468917272428065E-05</v>
       </c>
       <c r="BK6">
-        <v>1.299187533120968E-05</v>
+        <v>3.349568072886574E-06</v>
       </c>
       <c r="BL6">
-        <v>1.828721246620689E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.992511101783483E-05</v>
+        <v>3.033320915669576E-05</v>
       </c>
       <c r="BN6">
-        <v>5.067843129197568E-05</v>
+        <v>4.110665420848203E-05</v>
       </c>
       <c r="BO6">
-        <v>5.550859541511395E-05</v>
+        <v>4.594585795626562E-05</v>
       </c>
       <c r="BP6">
-        <v>0.0002262412557677042</v>
+        <v>0.0002169980435102646</v>
       </c>
       <c r="BQ6">
-        <v>0.0002473461863057448</v>
+        <v>0.0002381424718056</v>
       </c>
       <c r="BR6">
-        <v>0.0002896487073841884</v>
+        <v>0.0002805241618112996</v>
       </c>
       <c r="BS6">
-        <v>0.000360445009189041</v>
+        <v>0.000351452958491746</v>
       </c>
       <c r="BT6">
-        <v>0.0003766851096030596</v>
+        <v>0.0003677234521611908</v>
       </c>
       <c r="BU6">
-        <v>0.0002252107057414317</v>
+        <v>0.0002159655648154877</v>
       </c>
       <c r="BV6">
-        <v>0.0002241824857152187</v>
+        <v>0.0002149354204813521</v>
       </c>
       <c r="BW6">
-        <v>0.0001953882049811488</v>
+        <v>0.0001860872514148918</v>
       </c>
       <c r="BX6">
-        <v>0.0001275000532504354</v>
+        <v>0.0001180720473948845</v>
       </c>
       <c r="BY6">
-        <v>3.315985084536398E-05</v>
+        <v>2.355528783834499E-05</v>
       </c>
       <c r="BZ6">
-        <v>1.767104745049862E-05</v>
+        <v>8.037497236145631E-06</v>
       </c>
       <c r="CA6">
-        <v>5.802587147928838E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1.910017548693224E-05</v>
+        <v>9.469299877559559E-06</v>
       </c>
       <c r="CC6">
-        <v>9.096734231908506E-05</v>
+        <v>8.147096570310534E-05</v>
       </c>
       <c r="CD6">
-        <v>0.000221309305641971</v>
+        <v>0.0002120568632679621</v>
       </c>
       <c r="CE6">
-        <v>0.0004925295525563516</v>
+        <v>0.0004837846973296553</v>
       </c>
       <c r="CF6">
-        <v>0.0003355318085539138</v>
+        <v>0.0003264931329435282</v>
       </c>
       <c r="CG6">
-        <v>0.0002733771769693685</v>
+        <v>0.0002642221793199862</v>
       </c>
       <c r="CH6">
-        <v>0.0003165428680698174</v>
+        <v>0.0003074686547654709</v>
       </c>
       <c r="CI6">
-        <v>0.0002075833252920463</v>
+        <v>0.0001983051948239915</v>
       </c>
       <c r="CJ6">
-        <v>0.0002486352263386071</v>
+        <v>0.0002394339242695418</v>
       </c>
       <c r="CK6">
-        <v>0.0001116523628464207</v>
+        <v>0.0001021946981285423</v>
       </c>
       <c r="CL6">
-        <v>0.0001962136650021928</v>
+        <v>0.0001869142562796636</v>
       </c>
       <c r="CM6">
-        <v>6.630787669042651E-05</v>
+        <v>5.676535002497553E-05</v>
       </c>
       <c r="CN6">
-        <v>0.004394548112032853</v>
+        <v>0.004393105862315512</v>
       </c>
       <c r="CO6">
-        <v>0.1060264227029952</v>
+        <v>0.1062151839277108</v>
       </c>
       <c r="CP6">
-        <v>0.07563254192814579</v>
+        <v>0.07576442117810547</v>
       </c>
       <c r="CQ6">
-        <v>0.05978096452403202</v>
+        <v>0.05988317763716563</v>
       </c>
       <c r="CR6">
-        <v>0.01309880133393561</v>
+        <v>0.01311364904454629</v>
       </c>
       <c r="CS6">
-        <v>0.02154435454924317</v>
+        <v>0.02157500806459301</v>
       </c>
       <c r="CT6">
-        <v>0.0002018324451454357</v>
+        <v>0.0001925435519379417</v>
       </c>
       <c r="CU6">
-        <v>0.02853304772741011</v>
+        <v>0.02857678054223743</v>
       </c>
       <c r="CV6">
-        <v>0.03779113796343217</v>
+        <v>0.03785219724140495</v>
       </c>
       <c r="CW6">
-        <v>0.01747010844537596</v>
+        <v>0.01749313703234808</v>
       </c>
       <c r="CX6">
-        <v>0.0003563675690850924</v>
+        <v>0.0003473678874818667</v>
       </c>
       <c r="CY6">
-        <v>0.01587918440481758</v>
+        <v>0.01589923558650921</v>
       </c>
       <c r="CZ6">
-        <v>0.003615555492173527</v>
+        <v>0.003612655362205023</v>
       </c>
       <c r="DA6">
-        <v>0.003350557385417771</v>
+        <v>0.003347161313001822</v>
       </c>
       <c r="DB6">
-        <v>0.0005894430150270247</v>
+        <v>0.0005808795327933527</v>
       </c>
       <c r="DC6">
-        <v>0.001095119627918542</v>
+        <v>0.001087502516585717</v>
       </c>
       <c r="DD6">
-        <v>2.841604772442736E-05</v>
+        <v>1.880260671688679E-05</v>
       </c>
       <c r="DE6">
-        <v>0.0008480241716191893</v>
+        <v>0.0008399446225472803</v>
       </c>
       <c r="DF6">
-        <v>0.01421273436233377</v>
+        <v>0.01422966679226247</v>
       </c>
       <c r="DG6">
-        <v>0.003497720589169491</v>
+        <v>0.003494599931851166</v>
       </c>
       <c r="DH6">
-        <v>0.003393042186500861</v>
+        <v>0.003389725624148159</v>
       </c>
       <c r="DI6">
-        <v>0.003493665089066102</v>
+        <v>0.003490536841902433</v>
       </c>
       <c r="DJ6">
-        <v>5.949572851676032E-05</v>
+        <v>4.994045295480225E-05</v>
       </c>
       <c r="DK6">
-        <v>0.001176007229980658</v>
+        <v>0.001168541499334382</v>
       </c>
       <c r="DL6">
-        <v>3.570628291028171E-06</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>3.570628291028171E-06</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0008383441813724115</v>
+        <v>0.00083024651625389</v>
       </c>
       <c r="DO6">
-        <v>3.9246281000529E-06</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.00669684187072661</v>
+        <v>0.006699708350665502</v>
       </c>
       <c r="DQ6">
-        <v>0.0003272078083417051</v>
+        <v>0.0003181535544123332</v>
       </c>
       <c r="DR6">
-        <v>0.0008133764207358934</v>
+        <v>0.0008052320285955493</v>
       </c>
       <c r="DS6">
-        <v>0.001577933040227194</v>
+        <v>0.001571219511445547</v>
       </c>
       <c r="DT6">
-        <v>0.001685047342957923</v>
+        <v>0.001678534277983747</v>
       </c>
       <c r="DU6">
-        <v>0.002974524075831328</v>
+        <v>0.002970424259218259</v>
       </c>
       <c r="DV6">
-        <v>0.003720796094856489</v>
+        <v>0.003718092922076487</v>
       </c>
       <c r="DW6">
-        <v>0.01033986826360047</v>
+        <v>0.01034955264668406</v>
       </c>
       <c r="DX6">
-        <v>0.00301707287691605</v>
+        <v>0.003013052690141866</v>
       </c>
       <c r="DY6">
-        <v>0.004617973117728761</v>
+        <v>0.004616949006637019</v>
       </c>
       <c r="DZ6">
-        <v>0.001729049044079685</v>
+        <v>0.001722618328038538</v>
       </c>
       <c r="EA6">
-        <v>0.00299899027645506</v>
+        <v>0.002994936248197106</v>
       </c>
       <c r="EB6">
-        <v>0.01934813749325369</v>
+        <v>0.01937468080089222</v>
       </c>
       <c r="EC6">
-        <v>0.03080333878528801</v>
+        <v>0.03085132043689926</v>
       </c>
       <c r="ED6">
-        <v>0.009503279242272802</v>
+        <v>0.009511397953767932</v>
       </c>
       <c r="EE6">
-        <v>0.0005672192144604599</v>
+        <v>0.0005586141405106076</v>
       </c>
       <c r="EF6">
-        <v>0.0005861171149422355</v>
+        <v>0.0005775474083054981</v>
       </c>
       <c r="EG6">
-        <v>0.0004607957517473427</v>
+        <v>0.0004519915068931784</v>
       </c>
       <c r="EH6">
-        <v>0.005178487132018282</v>
+        <v>0.005178512019711766</v>
       </c>
       <c r="EI6">
-        <v>0.00592950185116435</v>
+        <v>0.005930932258627166</v>
       </c>
       <c r="EJ6">
-        <v>0.01240795231632338</v>
+        <v>0.01242150710693246</v>
       </c>
       <c r="EK6">
-        <v>0.01201382330627561</v>
+        <v>0.01202664048668723</v>
       </c>
       <c r="EL6">
-        <v>0.01272835332449155</v>
+        <v>0.01274250774376252</v>
       </c>
       <c r="EM6">
-        <v>0.006292292560413191</v>
+        <v>0.006294401928622021</v>
       </c>
       <c r="EN6">
-        <v>0.00830111621162534</v>
+        <v>0.008306985081855766</v>
       </c>
       <c r="EO6">
-        <v>0.01088629127753076</v>
+        <v>0.01089699828817266</v>
       </c>
       <c r="EP6">
-        <v>0.002157163654993868</v>
+        <v>0.002151534153008636</v>
       </c>
       <c r="EQ6">
-        <v>0.0007042231179531826</v>
+        <v>0.0006958744460283846</v>
       </c>
       <c r="ER6">
-        <v>0.009854170751218291</v>
+        <v>0.009862946154173843</v>
       </c>
       <c r="ES6">
-        <v>0.01742655644426567</v>
+        <v>0.01744950352391576</v>
       </c>
       <c r="ET6">
-        <v>0.02790920371150609</v>
+        <v>0.02795176900581087</v>
       </c>
       <c r="EU6">
-        <v>0.03046718077671813</v>
+        <v>0.030514533310531</v>
       </c>
       <c r="EV6">
-        <v>0.02778710670839339</v>
+        <v>0.02782944349885227</v>
       </c>
       <c r="EW6">
-        <v>0.02079257253007753</v>
+        <v>0.02082181908966042</v>
       </c>
       <c r="EX6">
-        <v>0.00813443320737599</v>
+        <v>0.00813999013131334</v>
       </c>
       <c r="EY6">
-        <v>0.0009452065840967189</v>
+        <v>0.0009373089113562402</v>
       </c>
       <c r="EZ6">
-        <v>0.003201923381628555</v>
+        <v>0.003198249141521088</v>
       </c>
       <c r="FA6">
-        <v>0.01465890687370831</v>
+        <v>0.0146766743129508</v>
       </c>
       <c r="FB6">
-        <v>0.02994827476348935</v>
+        <v>0.02999465616765399</v>
       </c>
       <c r="FC6">
-        <v>0.02855622472800098</v>
+        <v>0.02860000091845289</v>
       </c>
       <c r="FD6">
-        <v>0.01754877044738134</v>
+        <v>0.01757194624984217</v>
       </c>
       <c r="FE6">
-        <v>0.01148105529269344</v>
+        <v>0.01149287540080212</v>
       </c>
       <c r="FF6">
-        <v>0.006735103171702029</v>
+        <v>0.006738041257447772</v>
       </c>
       <c r="FG6">
-        <v>6.638610169242074E-05</v>
+        <v>5.684372142461544E-05</v>
       </c>
       <c r="FH6">
-        <v>0.0006594519168118036</v>
+        <v>0.0006510194558390725</v>
       </c>
       <c r="FI6">
-        <v>0.004119468105020074</v>
+        <v>0.00411751104463638</v>
       </c>
       <c r="FJ6">
-        <v>0.004418194412635683</v>
+        <v>0.004416796416835238</v>
       </c>
       <c r="FK6">
-        <v>0.006175998157448429</v>
+        <v>0.006177889881344488</v>
       </c>
       <c r="FL6">
-        <v>0.003545208490380128</v>
+        <v>0.003542176706398443</v>
       </c>
       <c r="FM6">
-        <v>0.006921350176450135</v>
+        <v>0.006924636822404458</v>
       </c>
       <c r="FN6">
-        <v>0.008681556221324124</v>
+        <v>0.008688137082865833</v>
       </c>
       <c r="FO6">
-        <v>0.00722321318414571</v>
+        <v>0.007227064764999616</v>
       </c>
       <c r="FP6">
-        <v>0.003411713386976857</v>
+        <v>0.0034084317676695</v>
       </c>
       <c r="FQ6">
-        <v>0.0005992423152768442</v>
+        <v>0.000590697172377776</v>
       </c>
       <c r="FR6">
-        <v>1.603640340882566E-05</v>
+        <v>6.399793967459111E-06</v>
       </c>
       <c r="FS6">
-        <v>0.001712375443654615</v>
+        <v>0.00170591352306524</v>
       </c>
       <c r="FT6">
-        <v>0.01044709326633402</v>
+        <v>0.0104569783203995</v>
       </c>
       <c r="FU6">
-        <v>0.01753968444714971</v>
+        <v>0.01756284324521286</v>
       </c>
       <c r="FV6">
-        <v>0.01215205280979958</v>
+        <v>0.01216512868593973</v>
       </c>
       <c r="FW6">
-        <v>0.008605923219395966</v>
+        <v>0.008612362534205349</v>
       </c>
       <c r="FX6">
-        <v>0.004020891702507006</v>
+        <v>0.00401875015694747</v>
       </c>
       <c r="FY6">
-        <v>0.0008792133524143138</v>
+        <v>0.0008711921737166188</v>
       </c>
       <c r="FZ6">
-        <v>9.084090831586182E-05</v>
+        <v>8.134429507936518E-05</v>
       </c>
       <c r="GA6">
-        <v>0.0001952540349777283</v>
+        <v>0.0001859528303130741</v>
       </c>
       <c r="GB6">
-        <v>0.001904415748550414</v>
+        <v>0.001898313230297848</v>
       </c>
       <c r="GC6">
-        <v>0.002368742860387784</v>
+        <v>0.002363509327680356</v>
       </c>
       <c r="GD6">
-        <v>0.002988981876199909</v>
+        <v>0.002984909117277883</v>
       </c>
       <c r="GE6">
-        <v>0.002751396570143005</v>
+        <v>0.002746879171673905</v>
       </c>
       <c r="GF6">
-        <v>0.002304640458753583</v>
+        <v>0.002299286958766605</v>
       </c>
       <c r="GG6">
-        <v>0.005612679443087407</v>
+        <v>0.005613516919218031</v>
       </c>
       <c r="GH6">
-        <v>0.005518863140695691</v>
+        <v>0.005519525040150737</v>
       </c>
       <c r="GI6">
-        <v>0.002433724562044401</v>
+        <v>0.002428612642221508</v>
       </c>
       <c r="GJ6">
-        <v>0.0005754167146694437</v>
+        <v>0.000566826982294542</v>
       </c>
       <c r="GK6">
-        <v>0.0008078951705961567</v>
+        <v>0.0007997405203273956</v>
       </c>
       <c r="GL6">
-        <v>0.0001834321946763471</v>
+        <v>0.0001741088655049024</v>
       </c>
       <c r="GM6">
-        <v>0.002273376857956561</v>
+        <v>0.002267964848318759</v>
       </c>
       <c r="GN6">
-        <v>0.002184862355700008</v>
+        <v>0.002179284691675385</v>
       </c>
       <c r="GO6">
-        <v>0.001666328442480711</v>
+        <v>0.001659780345190909</v>
       </c>
       <c r="GP6">
-        <v>0.0006503358165794014</v>
+        <v>0.0006418862948770078</v>
       </c>
       <c r="GQ6">
-        <v>0.00134726673434668</v>
+        <v>0.001340121514887382</v>
       </c>
       <c r="GR6">
-        <v>8.233324209897077E-05</v>
+        <v>7.282070681360628E-05</v>
       </c>
       <c r="GS6">
-        <v>0.0002527694564440035</v>
+        <v>0.0002435758915630331</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0003864244222495608</v>
+        <v>0.0003733971200431014</v>
       </c>
       <c r="C2">
-        <v>0.000903484852020887</v>
+        <v>0.0008777853944495571</v>
       </c>
       <c r="D2">
-        <v>0.001168568227283868</v>
+        <v>0.001129511589929369</v>
       </c>
       <c r="E2">
-        <v>0.001428870112271541</v>
+        <v>0.001376443296182039</v>
       </c>
       <c r="F2">
-        <v>0.001632840664015765</v>
+        <v>0.001566890526918595</v>
       </c>
       <c r="G2">
-        <v>0.001794761083338826</v>
+        <v>0.001715173307811088</v>
       </c>
       <c r="H2">
-        <v>0.00194121907177159</v>
+        <v>0.001847951621673339</v>
       </c>
       <c r="I2">
-        <v>0.002135934042982896</v>
+        <v>0.00202911810967051</v>
       </c>
       <c r="J2">
-        <v>0.002272259480832248</v>
+        <v>0.002151736326613502</v>
       </c>
       <c r="K2">
-        <v>0.002306761695818818</v>
+        <v>0.00217225450424252</v>
       </c>
       <c r="L2">
-        <v>0.002309632888484135</v>
+        <v>0.00217225450424252</v>
       </c>
       <c r="M2">
-        <v>0.002313397677400904</v>
+        <v>0.00217225450424252</v>
       </c>
       <c r="N2">
-        <v>0.00232743734420928</v>
+        <v>0.00217225450424252</v>
       </c>
       <c r="O2">
-        <v>0.002349968808506598</v>
+        <v>0.002180769387518564</v>
       </c>
       <c r="P2">
-        <v>0.002432299737247052</v>
+        <v>0.002249246305966355</v>
       </c>
       <c r="Q2">
-        <v>0.00255346778022367</v>
+        <v>0.0023566659211671</v>
       </c>
       <c r="R2">
-        <v>0.002681217727579262</v>
+        <v>0.00247068533430156</v>
       </c>
       <c r="S2">
-        <v>0.002912361840888087</v>
+        <v>0.002688380000603825</v>
       </c>
       <c r="T2">
-        <v>0.003168570675640089</v>
+        <v>0.002931207529260986</v>
       </c>
       <c r="U2">
-        <v>0.00355707921800965</v>
+        <v>0.003306694435309719</v>
       </c>
       <c r="V2">
-        <v>0.003939794540045648</v>
+        <v>0.003676372371585337</v>
       </c>
       <c r="W2">
-        <v>0.004182543104022635</v>
+        <v>0.003905703036396832</v>
       </c>
       <c r="X2">
-        <v>0.004449353119385033</v>
+        <v>0.004159160566017079</v>
       </c>
       <c r="Y2">
-        <v>0.004687526963098616</v>
+        <v>0.004383904073737963</v>
       </c>
       <c r="Z2">
-        <v>0.004939035357579976</v>
+        <v>0.004622018383515063</v>
       </c>
       <c r="AA2">
-        <v>0.00506128828461906</v>
+        <v>0.004730525832142354</v>
       </c>
       <c r="AB2">
-        <v>0.005113439670621834</v>
+        <v>0.004768741161795738</v>
       </c>
       <c r="AC2">
-        <v>0.005123199933183811</v>
+        <v>0.004768741161795738</v>
       </c>
       <c r="AD2">
-        <v>0.005124686272569391</v>
+        <v>0.004768741161795738</v>
       </c>
       <c r="AE2">
-        <v>0.005157103024435884</v>
+        <v>0.004787168206767969</v>
       </c>
       <c r="AF2">
-        <v>0.005236711559019588</v>
+        <v>0.004852915329962599</v>
       </c>
       <c r="AG2">
-        <v>0.00532136973889404</v>
+        <v>0.004923725826405608</v>
       </c>
       <c r="AH2">
-        <v>0.005440658015762425</v>
+        <v>0.005029260565168978</v>
       </c>
       <c r="AI2">
-        <v>0.005590708064402013</v>
+        <v>0.0051656407046072</v>
       </c>
       <c r="AJ2">
-        <v>0.005669441598935335</v>
+        <v>0.005230510448977709</v>
       </c>
       <c r="AK2">
-        <v>0.005777548435159915</v>
+        <v>0.005324833349250582</v>
       </c>
       <c r="AL2">
-        <v>0.005964565105927968</v>
+        <v>0.005498280608217199</v>
       </c>
       <c r="AM2">
-        <v>0.006309022525761151</v>
+        <v>0.005829596634418122</v>
       </c>
       <c r="AN2">
-        <v>0.006712382168985808</v>
+        <v>0.006219975015501039</v>
       </c>
       <c r="AO2">
-        <v>0.007072838949740203</v>
+        <v>0.006567333898460243</v>
       </c>
       <c r="AP2">
-        <v>0.007350339465718139</v>
+        <v>0.006831510991873942</v>
       </c>
       <c r="AQ2">
-        <v>0.007443020971054558</v>
+        <v>0.006910366625978716</v>
       </c>
       <c r="AR2">
-        <v>0.007490946211814</v>
+        <v>0.006944344321197052</v>
       </c>
       <c r="AS2">
-        <v>0.007499590307311709</v>
+        <v>0.006944344321197052</v>
       </c>
       <c r="AT2">
-        <v>0.007502997054107863</v>
+        <v>0.006944344321197052</v>
       </c>
       <c r="AU2">
-        <v>0.007535456739976828</v>
+        <v>0.006962814416892065</v>
       </c>
       <c r="AV2">
-        <v>0.007559732262374565</v>
+        <v>0.006973078099662098</v>
       </c>
       <c r="AW2">
-        <v>0.007651856027678871</v>
+        <v>0.007051374477463597</v>
       </c>
       <c r="AX2">
-        <v>0.007921888343226803</v>
+        <v>0.007308063067409521</v>
       </c>
       <c r="AY2">
-        <v>0.008193539028867916</v>
+        <v>0.007566374427146979</v>
       </c>
       <c r="AZ2">
-        <v>0.008567329210390023</v>
+        <v>0.007927102959035945</v>
       </c>
       <c r="BA2">
-        <v>0.0090182489663531</v>
+        <v>0.008365170749703877</v>
       </c>
       <c r="BB2">
-        <v>0.009575746798452732</v>
+        <v>0.008910106359496081</v>
       </c>
       <c r="BC2">
-        <v>0.01005493915604369</v>
+        <v>0.009376523613641566</v>
       </c>
       <c r="BD2">
-        <v>0.0104287293375658</v>
+        <v>0.009737252145530532</v>
       </c>
       <c r="BE2">
-        <v>0.01079495321865225</v>
+        <v>0.01009039380725156</v>
       </c>
       <c r="BF2">
-        <v>0.01110055978624848</v>
+        <v>0.01038275336135063</v>
       </c>
       <c r="BG2">
-        <v>0.01130604526807993</v>
+        <v>0.01057471964066093</v>
       </c>
       <c r="BH2">
-        <v>0.01144476552606717</v>
+        <v>0.01069973918829601</v>
       </c>
       <c r="BI2">
-        <v>0.01147892777803416</v>
+        <v>0.01071991647868254</v>
       </c>
       <c r="BJ2">
-        <v>0.01148232062272952</v>
+        <v>0.01071991647868254</v>
       </c>
       <c r="BK2">
-        <v>0.01151624762968297</v>
+        <v>0.01073985788451879</v>
       </c>
       <c r="BL2">
-        <v>0.01157593725711978</v>
+        <v>0.01078563194905735</v>
       </c>
       <c r="BM2">
-        <v>0.01166333164215178</v>
+        <v>0.01085918608930088</v>
       </c>
       <c r="BN2">
-        <v>0.01178988768943863</v>
+        <v>0.01097200835663177</v>
       </c>
       <c r="BO2">
-        <v>0.01200621182189415</v>
+        <v>0.01117484275250443</v>
       </c>
       <c r="BP2">
-        <v>0.01226545705682098</v>
+        <v>0.01142071493608909</v>
       </c>
       <c r="BQ2">
-        <v>0.01267476354038804</v>
+        <v>0.01181705632458508</v>
       </c>
       <c r="BR2">
-        <v>0.01306312350274905</v>
+        <v>0.01219239424669589</v>
       </c>
       <c r="BS2">
-        <v>0.01348176705685372</v>
+        <v>0.01259809808947455</v>
       </c>
       <c r="BT2">
-        <v>0.01395864455431139</v>
+        <v>0.01306219419031169</v>
       </c>
       <c r="BU2">
-        <v>0.01429946143393496</v>
+        <v>0.01338985977913619</v>
       </c>
       <c r="BV2">
-        <v>0.01471275662773169</v>
+        <v>0.01379020072156311</v>
       </c>
       <c r="BW2">
-        <v>0.01496258872211653</v>
+        <v>0.01402663417405692</v>
       </c>
       <c r="BX2">
-        <v>0.01505369907736249</v>
+        <v>0.0141039143867451</v>
       </c>
       <c r="BY2">
-        <v>0.01510579603536213</v>
+        <v>0.01414207514042747</v>
       </c>
       <c r="BZ2">
-        <v>0.01513354191895968</v>
+        <v>0.01415581861891574</v>
       </c>
       <c r="CA2">
-        <v>0.01513675604454475</v>
+        <v>0.01415581861891574</v>
       </c>
       <c r="CB2">
-        <v>0.01513722125253153</v>
+        <v>0.01415581861891574</v>
       </c>
       <c r="CC2">
-        <v>0.0151969691389717</v>
+        <v>0.01420165110084048</v>
       </c>
       <c r="CD2">
-        <v>0.01534114712727318</v>
+        <v>0.01433214321616674</v>
       </c>
       <c r="CE2">
-        <v>0.01562536607363796</v>
+        <v>0.0146030570046814</v>
       </c>
       <c r="CF2">
-        <v>0.01599158995472441</v>
+        <v>0.01495619866640242</v>
       </c>
       <c r="CG2">
-        <v>0.01639906147818582</v>
+        <v>0.01535070010627314</v>
       </c>
       <c r="CH2">
-        <v>0.01687825383577678</v>
+        <v>0.01581711736041863</v>
       </c>
       <c r="CI2">
-        <v>0.01737409221432618</v>
+        <v>0.01630022588936857</v>
       </c>
       <c r="CJ2">
-        <v>0.01786774324274964</v>
+        <v>0.01678114112166601</v>
       </c>
       <c r="CK2">
-        <v>0.01837017267167854</v>
+        <v>0.0172708586194145</v>
       </c>
       <c r="CL2">
-        <v>0.01879098539590811</v>
+        <v>0.0176787375294205</v>
       </c>
       <c r="CM2">
-        <v>0.01948350193578186</v>
+        <v>0.01835905890863032</v>
       </c>
       <c r="CN2">
-        <v>0.1563515998163787</v>
+        <v>0.1555851683466968</v>
       </c>
       <c r="CO2">
-        <v>0.227850773933161</v>
+        <v>0.2272646421691155</v>
       </c>
       <c r="CP2">
-        <v>0.2948987017936493</v>
+        <v>0.2944807685842707</v>
       </c>
       <c r="CQ2">
-        <v>0.2961446026653858</v>
+        <v>0.2957159787251049</v>
       </c>
       <c r="CR2">
-        <v>0.3346374708817297</v>
+        <v>0.3342994157565334</v>
       </c>
       <c r="CS2">
-        <v>0.3351636874120282</v>
+        <v>0.3348129850232274</v>
       </c>
       <c r="CT2">
-        <v>0.4152392220226206</v>
+        <v>0.415092135019409</v>
       </c>
       <c r="CU2">
-        <v>0.4241280235344204</v>
+        <v>0.4239910237777905</v>
       </c>
       <c r="CV2">
-        <v>0.4319072319823319</v>
+        <v>0.4317773029343508</v>
       </c>
       <c r="CW2">
-        <v>0.4431083321272694</v>
+        <v>0.4429947765372442</v>
       </c>
       <c r="CX2">
-        <v>0.4551683188216598</v>
+        <v>0.4550734716571933</v>
       </c>
       <c r="CY2">
-        <v>0.4566929727094464</v>
+        <v>0.4565881926315821</v>
       </c>
       <c r="CZ2">
-        <v>0.4568443224881608</v>
+        <v>0.4567258760345393</v>
       </c>
       <c r="DA2">
-        <v>0.4568550015287757</v>
+        <v>0.4567258760345393</v>
       </c>
       <c r="DB2">
-        <v>0.4573722334585569</v>
+        <v>0.4572304362751953</v>
       </c>
       <c r="DC2">
-        <v>0.457441115982523</v>
+        <v>0.457285428228057</v>
       </c>
       <c r="DD2">
-        <v>0.4575023937860513</v>
+        <v>0.4573327947863</v>
       </c>
       <c r="DE2">
-        <v>0.4700063975060073</v>
+        <v>0.4698567140357919</v>
       </c>
       <c r="DF2">
-        <v>0.4715648087957376</v>
+        <v>0.4714052841849434</v>
       </c>
       <c r="DG2">
-        <v>0.4771055516147627</v>
+        <v>0.4769470122235306</v>
       </c>
       <c r="DH2">
-        <v>0.480814140928296</v>
+        <v>0.4806516058670297</v>
       </c>
       <c r="DI2">
-        <v>0.4812748583148232</v>
+        <v>0.4810994979240845</v>
       </c>
       <c r="DJ2">
-        <v>0.4813789139408145</v>
+        <v>0.4811897586005104</v>
       </c>
       <c r="DK2">
-        <v>0.481396741405841</v>
+        <v>0.4811935566962307</v>
       </c>
       <c r="DL2">
-        <v>0.4822800803567019</v>
+        <v>0.4820652192559297</v>
       </c>
       <c r="DM2">
-        <v>0.4831722092080689</v>
+        <v>0.4829456956123443</v>
       </c>
       <c r="DN2">
-        <v>0.4832072914700889</v>
+        <v>0.4829667954139216</v>
       </c>
       <c r="DO2">
-        <v>0.4870854586933862</v>
+        <v>0.4868414279814195</v>
       </c>
       <c r="DP2">
-        <v>0.4879438697028118</v>
+        <v>0.4876880948306214</v>
       </c>
       <c r="DQ2">
-        <v>0.4884228970703932</v>
+        <v>0.4881543466462158</v>
       </c>
       <c r="DR2">
-        <v>0.4887283718879818</v>
+        <v>0.4884465740921319</v>
       </c>
       <c r="DS2">
-        <v>0.4901252666684123</v>
+        <v>0.4898331886334592</v>
       </c>
       <c r="DT2">
-        <v>0.4927812098213363</v>
+        <v>0.4924822743941764</v>
       </c>
       <c r="DU2">
-        <v>0.49495606024656</v>
+        <v>0.4946489595292714</v>
       </c>
       <c r="DV2">
-        <v>0.5000330170388811</v>
+        <v>0.4997256406932026</v>
       </c>
       <c r="DW2">
-        <v>0.5042356830808624</v>
+        <v>0.5039256542613552</v>
       </c>
       <c r="DX2">
-        <v>0.5090845710600519</v>
+        <v>0.5087736465846432</v>
       </c>
       <c r="DY2">
-        <v>0.5112429887843294</v>
+        <v>0.5109238543448774</v>
       </c>
       <c r="DZ2">
-        <v>0.5126291595641423</v>
+        <v>0.5122997157313363</v>
       </c>
       <c r="EA2">
-        <v>0.538304983042506</v>
+        <v>0.5380312636274123</v>
       </c>
       <c r="EB2">
-        <v>0.5625668944394593</v>
+        <v>0.5623450555829498</v>
       </c>
       <c r="EC2">
-        <v>0.5657026298200087</v>
+        <v>0.5654752379336769</v>
       </c>
       <c r="ED2">
-        <v>0.5659195473424984</v>
+        <v>0.5656786673327729</v>
       </c>
       <c r="EE2">
-        <v>0.5673054376222952</v>
+        <v>0.5670542474566488</v>
       </c>
       <c r="EF2">
-        <v>0.5706137718127826</v>
+        <v>0.5703574978441631</v>
       </c>
       <c r="EG2">
-        <v>0.5750862643703</v>
+        <v>0.5748280714777863</v>
       </c>
       <c r="EH2">
-        <v>0.5773382208999632</v>
+        <v>0.5770720723378534</v>
       </c>
       <c r="EI2">
-        <v>0.5899921106285494</v>
+        <v>0.5897462850758394</v>
       </c>
       <c r="EJ2">
-        <v>0.6032919523943282</v>
+        <v>0.6030682059351955</v>
       </c>
       <c r="EK2">
-        <v>0.6148673360608161</v>
+        <v>0.6146609805862238</v>
       </c>
       <c r="EL2">
-        <v>0.6222667724868611</v>
+        <v>0.622066455273305</v>
       </c>
       <c r="EM2">
-        <v>0.6296916079143686</v>
+        <v>0.6294973980115335</v>
       </c>
       <c r="EN2">
-        <v>0.6359463762745059</v>
+        <v>0.6357550927399296</v>
       </c>
       <c r="EO2">
-        <v>0.6365746964106833</v>
+        <v>0.6363710431912024</v>
       </c>
       <c r="EP2">
-        <v>0.6370859815401221</v>
+        <v>0.6368696404645541</v>
       </c>
       <c r="EQ2">
-        <v>0.6469528821082389</v>
+        <v>0.6467492873377862</v>
       </c>
       <c r="ER2">
-        <v>0.6589741308003988</v>
+        <v>0.6587891391424339</v>
       </c>
       <c r="ES2">
-        <v>0.6848604832908842</v>
+        <v>0.6847317883944681</v>
       </c>
       <c r="ET2">
-        <v>0.7150866350312468</v>
+        <v>0.7150260350676951</v>
       </c>
       <c r="EU2">
-        <v>0.7438436566870198</v>
+        <v>0.7438471576816289</v>
       </c>
       <c r="EV2">
-        <v>0.7706236212289577</v>
+        <v>0.7706858483574127</v>
       </c>
       <c r="EW2">
-        <v>0.7810451233290073</v>
+        <v>0.7811216045014175</v>
       </c>
       <c r="EX2">
-        <v>0.782478058411513</v>
+        <v>0.7825443573239277</v>
       </c>
       <c r="EY2">
-        <v>0.7844835975269879</v>
+        <v>0.7845412708598176</v>
       </c>
       <c r="EZ2">
-        <v>0.7964286662147616</v>
+        <v>0.7965047355572406</v>
       </c>
       <c r="FA2">
-        <v>0.822129547694568</v>
+        <v>0.8222614095774021</v>
       </c>
       <c r="FB2">
-        <v>0.8508408393477079</v>
+        <v>0.8510366778671906</v>
       </c>
       <c r="FC2">
-        <v>0.8693347924125535</v>
+        <v>0.8695668307283028</v>
       </c>
       <c r="FD2">
-        <v>0.8804044480499226</v>
+        <v>0.8806525024787992</v>
       </c>
       <c r="FE2">
-        <v>0.8865533776039659</v>
+        <v>0.886804070667892</v>
       </c>
       <c r="FF2">
-        <v>0.8865968717644702</v>
+        <v>0.8868336052365275</v>
       </c>
       <c r="FG2">
-        <v>0.8883595581659622</v>
+        <v>0.8885870058394337</v>
       </c>
       <c r="FH2">
-        <v>0.8904126892841775</v>
+        <v>0.8906316407616066</v>
       </c>
       <c r="FI2">
-        <v>0.8934284464578189</v>
+        <v>0.8936415187328638</v>
       </c>
       <c r="FJ2">
-        <v>0.896876290356339</v>
+        <v>0.8970846580992804</v>
       </c>
       <c r="FK2">
-        <v>0.8980945771264855</v>
+        <v>0.8982921790668721</v>
       </c>
       <c r="FL2">
-        <v>0.9012046671055585</v>
+        <v>0.901396646296575</v>
       </c>
       <c r="FM2">
-        <v>0.9076876194788341</v>
+        <v>0.9078831453788035</v>
       </c>
       <c r="FN2">
-        <v>0.9112695509850748</v>
+        <v>0.9114607368832971</v>
       </c>
       <c r="FO2">
-        <v>0.9140853246472015</v>
+        <v>0.9142700876681843</v>
       </c>
       <c r="FP2">
-        <v>0.9146206031780217</v>
+        <v>0.9147927435713401</v>
       </c>
       <c r="FQ2">
-        <v>0.9146306491716002</v>
+        <v>0.9147927435713401</v>
       </c>
       <c r="FR2">
-        <v>0.915995871950207</v>
+        <v>0.9161476000073902</v>
       </c>
       <c r="FS2">
-        <v>0.9220704852999714</v>
+        <v>0.9222246499562895</v>
       </c>
       <c r="FT2">
-        <v>0.9357817340894382</v>
+        <v>0.9359590962898118</v>
       </c>
       <c r="FU2">
-        <v>0.9446643546008821</v>
+        <v>0.9448517872441796</v>
       </c>
       <c r="FV2">
-        <v>0.9508802965587838</v>
+        <v>0.951070550016945</v>
       </c>
       <c r="FW2">
-        <v>0.95390464673292</v>
+        <v>0.9540890443496143</v>
       </c>
       <c r="FX2">
-        <v>0.9542930066952809</v>
+        <v>0.954464382271725</v>
       </c>
       <c r="FY2">
-        <v>0.9543652566294409</v>
+        <v>0.9545227507894166</v>
       </c>
       <c r="FZ2">
-        <v>0.9547840544535545</v>
+        <v>0.9549286093216024</v>
       </c>
       <c r="GA2">
-        <v>0.957919789834104</v>
+        <v>0.9580587916723295</v>
       </c>
       <c r="GB2">
-        <v>0.9603561766743863</v>
+        <v>0.960487724234964</v>
       </c>
       <c r="GC2">
-        <v>0.9624751805963945</v>
+        <v>0.9625984110426289</v>
       </c>
       <c r="GD2">
-        <v>0.9648970271358397</v>
+        <v>0.9650127637751874</v>
       </c>
       <c r="GE2">
-        <v>0.9674463344826238</v>
+        <v>0.9675549238298323</v>
       </c>
       <c r="GF2">
-        <v>0.9726791601839196</v>
+        <v>0.9727878976477053</v>
       </c>
       <c r="GG2">
-        <v>0.97862223052611</v>
+        <v>0.9787330469764203</v>
       </c>
       <c r="GH2">
-        <v>0.9819140499156465</v>
+        <v>0.9820197376658721</v>
       </c>
       <c r="GI2">
-        <v>0.9824447878062053</v>
+        <v>0.9825378405845892</v>
       </c>
       <c r="GJ2">
-        <v>0.9838628712878558</v>
+        <v>0.9839457014307058</v>
       </c>
       <c r="GK2">
-        <v>0.9838802545118567</v>
+        <v>0.9839490540776876</v>
       </c>
       <c r="GL2">
-        <v>0.9856633264145225</v>
+        <v>0.9857228956017585</v>
       </c>
       <c r="GM2">
-        <v>0.9876600672294908</v>
+        <v>0.9877109869180961</v>
       </c>
       <c r="GN2">
-        <v>0.9894751170339978</v>
+        <v>0.9895168932790812</v>
       </c>
       <c r="GO2">
-        <v>0.9909628785196603</v>
+        <v>0.9909946215557203</v>
       </c>
       <c r="GP2">
-        <v>0.9930845541418222</v>
+        <v>0.9931079873268188</v>
       </c>
       <c r="GQ2">
-        <v>0.9936173859325016</v>
+        <v>0.9936281898381299</v>
       </c>
       <c r="GR2">
-        <v>0.9945036499835309</v>
+        <v>0.99450278545017</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.745217242776374E-05</v>
+        <v>3.362545641877603E-05</v>
       </c>
       <c r="C3">
-        <v>4.90845446080786E-05</v>
+        <v>3.362545641877603E-05</v>
       </c>
       <c r="D3">
-        <v>5.989279047773957E-05</v>
+        <v>3.362545641877603E-05</v>
       </c>
       <c r="E3">
-        <v>0.0001364303695547559</v>
+        <v>9.641125845328308E-05</v>
       </c>
       <c r="F3">
-        <v>0.0003673358067702161</v>
+        <v>0.0003139626496219142</v>
       </c>
       <c r="G3">
-        <v>0.0006017118039438239</v>
+        <v>0.000534993542696093</v>
       </c>
       <c r="H3">
-        <v>0.0007076123466667458</v>
+        <v>0.0006272179624725579</v>
       </c>
       <c r="I3">
-        <v>0.001166757401129814</v>
+        <v>0.001073597033529014</v>
       </c>
       <c r="J3">
-        <v>0.001591885546003099</v>
+        <v>0.001485871549941307</v>
       </c>
       <c r="K3">
-        <v>0.001752347044068059</v>
+        <v>0.00163279750214208</v>
       </c>
       <c r="L3">
-        <v>0.002143266259353877</v>
+        <v>0.002010774949170254</v>
       </c>
       <c r="M3">
-        <v>0.002235340538243533</v>
+        <v>0.002089137481546817</v>
       </c>
       <c r="N3">
-        <v>0.00225722533197962</v>
+        <v>0.002097129684556817</v>
       </c>
       <c r="O3">
-        <v>0.002354963894800969</v>
+        <v>0.002181171094973685</v>
       </c>
       <c r="P3">
-        <v>0.002378290984519662</v>
+        <v>0.002190609310062533</v>
       </c>
       <c r="Q3">
-        <v>0.002380633312791416</v>
+        <v>0.002190609310062533</v>
       </c>
       <c r="R3">
-        <v>0.002450256621951813</v>
+        <v>0.002246463027465029</v>
       </c>
       <c r="S3">
-        <v>0.002464169751784031</v>
+        <v>0.002246463027465029</v>
       </c>
       <c r="T3">
-        <v>0.002467907069438962</v>
+        <v>0.002246463027465029</v>
       </c>
       <c r="U3">
-        <v>0.00248468940223658</v>
+        <v>0.002249339622972931</v>
       </c>
       <c r="V3">
-        <v>0.002486039885420294</v>
+        <v>0.002249339622972931</v>
       </c>
       <c r="W3">
-        <v>0.002614882523866552</v>
+        <v>0.002364565249110691</v>
       </c>
       <c r="X3">
-        <v>0.002654981083382994</v>
+        <v>0.002390818145929241</v>
       </c>
       <c r="Y3">
-        <v>0.002703308042800209</v>
+        <v>0.002425320643238665</v>
       </c>
       <c r="Z3">
-        <v>0.002837368051183549</v>
+        <v>0.002545777081941818</v>
       </c>
       <c r="AA3">
-        <v>0.003027898468885901</v>
+        <v>0.002722849426781751</v>
       </c>
       <c r="AB3">
-        <v>0.00318576362698217</v>
+        <v>0.002867172349506748</v>
       </c>
       <c r="AC3">
-        <v>0.003706353120704266</v>
+        <v>0.003375154172299325</v>
       </c>
       <c r="AD3">
-        <v>0.004283793253740787</v>
+        <v>0.003940133110892122</v>
       </c>
       <c r="AE3">
-        <v>0.004563887870363064</v>
+        <v>0.004207000418092267</v>
       </c>
       <c r="AF3">
-        <v>0.004960758115577117</v>
+        <v>0.004590944227962453</v>
       </c>
       <c r="AG3">
-        <v>0.005189693122816339</v>
+        <v>0.004806520112313814</v>
       </c>
       <c r="AH3">
-        <v>0.005200572966685137</v>
+        <v>0.004806520112313814</v>
       </c>
       <c r="AI3">
-        <v>0.005201865327669552</v>
+        <v>0.004806520112313814</v>
       </c>
       <c r="AJ3">
-        <v>0.005202839291957807</v>
+        <v>0.004806520112313814</v>
       </c>
       <c r="AK3">
-        <v>0.005214151998821384</v>
+        <v>0.004806520112313814</v>
       </c>
       <c r="AL3">
-        <v>0.005214162405729259</v>
+        <v>0.004806520112313814</v>
       </c>
       <c r="AM3">
-        <v>0.005246675822337172</v>
+        <v>0.004825168322994578</v>
       </c>
       <c r="AN3">
-        <v>0.005484548269468616</v>
+        <v>0.005049704674679948</v>
       </c>
       <c r="AO3">
-        <v>0.005713154386711804</v>
+        <v>0.005264950821645492</v>
       </c>
       <c r="AP3">
-        <v>0.005965673103666625</v>
+        <v>0.005504171179478044</v>
       </c>
       <c r="AQ3">
-        <v>0.006481164197450204</v>
+        <v>0.006007041466231699</v>
       </c>
       <c r="AR3">
-        <v>0.006862149832855814</v>
+        <v>0.006375059739368942</v>
       </c>
       <c r="AS3">
-        <v>0.007150830989374544</v>
+        <v>0.006650535709808466</v>
       </c>
       <c r="AT3">
-        <v>0.007351666316952626</v>
+        <v>0.0068379395152719</v>
       </c>
       <c r="AU3">
-        <v>0.007476279775449885</v>
+        <v>0.006948925064917999</v>
       </c>
       <c r="AV3">
-        <v>0.00756145311442276</v>
+        <v>0.007020368877007325</v>
       </c>
       <c r="AW3">
-        <v>0.00758369416815455</v>
+        <v>0.007028718257922006</v>
       </c>
       <c r="AX3">
-        <v>0.007592675234546245</v>
+        <v>0.007028718257922006</v>
       </c>
       <c r="AY3">
-        <v>0.007601207450443353</v>
+        <v>0.007028718257922006</v>
       </c>
       <c r="AZ3">
-        <v>0.007604166140607674</v>
+        <v>0.007028718257922006</v>
       </c>
       <c r="BA3">
-        <v>0.007604217513650055</v>
+        <v>0.007028718257922006</v>
       </c>
       <c r="BB3">
-        <v>0.007627527509368954</v>
+        <v>0.007038139334968125</v>
       </c>
       <c r="BC3">
-        <v>0.007815276317104851</v>
+        <v>0.007212422902983715</v>
       </c>
       <c r="BD3">
-        <v>0.008064535344098981</v>
+        <v>0.007448375172217743</v>
       </c>
       <c r="BE3">
-        <v>0.008213322782304721</v>
+        <v>0.007583596986176999</v>
       </c>
       <c r="BF3">
-        <v>0.008462581809298852</v>
+        <v>0.007819549255411026</v>
       </c>
       <c r="BG3">
-        <v>0.008810212045106703</v>
+        <v>0.008154126188286089</v>
       </c>
       <c r="BH3">
-        <v>0.009018590912593816</v>
+        <v>0.008349092969697085</v>
       </c>
       <c r="BI3">
-        <v>0.009200155900404284</v>
+        <v>0.008517176785086712</v>
       </c>
       <c r="BJ3">
-        <v>0.009471851917127842</v>
+        <v>0.008775623853275304</v>
       </c>
       <c r="BK3">
-        <v>0.009725923844063932</v>
+        <v>0.009016401422956871</v>
       </c>
       <c r="BL3">
-        <v>0.009877499742236045</v>
+        <v>0.009154418881389511</v>
       </c>
       <c r="BM3">
-        <v>0.009989431400886236</v>
+        <v>0.009252689956349744</v>
       </c>
       <c r="BN3">
-        <v>0.01008514596973199</v>
+        <v>0.009334702157941577</v>
       </c>
       <c r="BO3">
-        <v>0.01011070489742377</v>
+        <v>0.009346377961365988</v>
       </c>
       <c r="BP3">
-        <v>0.01011459028197692</v>
+        <v>0.009346377961365988</v>
       </c>
       <c r="BQ3">
-        <v>0.01011477577131468</v>
+        <v>0.009346377961365988</v>
       </c>
       <c r="BR3">
-        <v>0.01017661345056897</v>
+        <v>0.009394425989075498</v>
       </c>
       <c r="BS3">
-        <v>0.01027063873943509</v>
+        <v>0.009474744558233659</v>
       </c>
       <c r="BT3">
-        <v>0.01034585496852804</v>
+        <v>0.009536205605806957</v>
       </c>
       <c r="BU3">
-        <v>0.01061387120529598</v>
+        <v>0.009790963413034207</v>
       </c>
       <c r="BV3">
-        <v>0.01082413015276042</v>
+        <v>0.009987815118475499</v>
       </c>
       <c r="BW3">
-        <v>0.01108393226962741</v>
+        <v>0.01023433764200433</v>
       </c>
       <c r="BX3">
-        <v>0.01142319446553617</v>
+        <v>0.01056052497460575</v>
       </c>
       <c r="BY3">
-        <v>0.01175874149148973</v>
+        <v>0.01088298756506341</v>
       </c>
       <c r="BZ3">
-        <v>0.01187448730009393</v>
+        <v>0.01098508261718959</v>
       </c>
       <c r="CA3">
-        <v>0.01212580215706327</v>
+        <v>0.01122309601327418</v>
       </c>
       <c r="CB3">
-        <v>0.01230334924492219</v>
+        <v>0.01138715157653553</v>
       </c>
       <c r="CC3">
-        <v>0.01237297255408258</v>
+        <v>0.01144300529393802</v>
       </c>
       <c r="CD3">
-        <v>0.01250013900254906</v>
+        <v>0.01155655041136853</v>
       </c>
       <c r="CE3">
-        <v>0.01256157969780813</v>
+        <v>0.01160420043224788</v>
       </c>
       <c r="CF3">
-        <v>0.01256741360743778</v>
+        <v>0.01160420043224788</v>
       </c>
       <c r="CG3">
-        <v>0.01256742401434565</v>
+        <v>0.01160420043224788</v>
       </c>
       <c r="CH3">
-        <v>0.01257976771819679</v>
+        <v>0.01160420043224788</v>
       </c>
       <c r="CI3">
-        <v>0.01264582216740023</v>
+        <v>0.01165647609447466</v>
       </c>
       <c r="CJ3">
-        <v>0.01269327433982799</v>
+        <v>0.01169010155089343</v>
       </c>
       <c r="CK3">
-        <v>0.01282821396820072</v>
+        <v>0.01181143987593947</v>
       </c>
       <c r="CL3">
-        <v>0.01305371910548131</v>
+        <v>0.01202357705322316</v>
       </c>
       <c r="CM3">
-        <v>0.01373773509723261</v>
+        <v>0.01269540644475594</v>
       </c>
       <c r="CN3">
-        <v>0.1461074335009571</v>
+        <v>0.1453922082935742</v>
       </c>
       <c r="CO3">
-        <v>0.1889923729837981</v>
+        <v>0.1883736924595166</v>
       </c>
       <c r="CP3">
-        <v>0.2720108919826594</v>
+        <v>0.2715921608834613</v>
       </c>
       <c r="CQ3">
-        <v>0.2757449012376301</v>
+        <v>0.2753218418895053</v>
       </c>
       <c r="CR3">
-        <v>0.3138248667784154</v>
+        <v>0.3134859720292653</v>
       </c>
       <c r="CS3">
-        <v>0.3221547836779631</v>
+        <v>0.3218234021017053</v>
       </c>
       <c r="CT3">
-        <v>0.3420823004376528</v>
+        <v>0.3417883134163023</v>
       </c>
       <c r="CU3">
-        <v>0.373969574053117</v>
+        <v>0.3737437960713711</v>
       </c>
       <c r="CV3">
-        <v>0.3870606258952491</v>
+        <v>0.3868546282187125</v>
       </c>
       <c r="CW3">
-        <v>0.3870858028109455</v>
+        <v>0.3868659210258822</v>
       </c>
       <c r="CX3">
-        <v>0.3937298717308232</v>
+        <v>0.3935131595072061</v>
       </c>
       <c r="CY3">
-        <v>0.3995751911603332</v>
+        <v>0.3993595905086693</v>
       </c>
       <c r="CZ3">
-        <v>0.4073204155669318</v>
+        <v>0.4071108216195845</v>
       </c>
       <c r="DA3">
-        <v>0.4075661505839684</v>
+        <v>0.4073432407991989</v>
       </c>
       <c r="DB3">
-        <v>0.4096257395591314</v>
+        <v>0.4093941873576212</v>
       </c>
       <c r="DC3">
-        <v>0.409659689938722</v>
+        <v>0.4094142762336403</v>
       </c>
       <c r="DD3">
-        <v>0.4096812213484624</v>
+        <v>0.4094219141421556</v>
       </c>
       <c r="DE3">
-        <v>0.4149277655851931</v>
+        <v>0.4146680271979862</v>
       </c>
       <c r="DF3">
-        <v>0.4190482485355033</v>
+        <v>0.4187851776543765</v>
       </c>
       <c r="DG3">
-        <v>0.4222268114971723</v>
+        <v>0.4219579812517949</v>
       </c>
       <c r="DH3">
-        <v>0.4239229376767184</v>
+        <v>0.4236445285475058</v>
       </c>
       <c r="DI3">
-        <v>0.423922941784341</v>
+        <v>0.4236445285475058</v>
       </c>
       <c r="DJ3">
-        <v>0.4253051880676722</v>
+        <v>0.4250163872309572</v>
       </c>
       <c r="DK3">
-        <v>0.4264581351537686</v>
+        <v>0.4261583559245106</v>
       </c>
       <c r="DL3">
-        <v>0.4268911185685471</v>
+        <v>0.4265785059500435</v>
       </c>
       <c r="DM3">
-        <v>0.4282166217525626</v>
+        <v>0.4278934753347717</v>
       </c>
       <c r="DN3">
-        <v>0.429179006190957</v>
+        <v>0.4288443903932342</v>
       </c>
       <c r="DO3">
-        <v>0.4340092951327075</v>
+        <v>0.4336731756663599</v>
       </c>
       <c r="DP3">
-        <v>0.434891733722066</v>
+        <v>0.4345439388941622</v>
       </c>
       <c r="DQ3">
-        <v>0.4354796338149763</v>
+        <v>0.4351194047428652</v>
       </c>
       <c r="DR3">
-        <v>0.4357017876622973</v>
+        <v>0.4353281819955427</v>
       </c>
       <c r="DS3">
-        <v>0.4375231551403331</v>
+        <v>0.4371402932757412</v>
       </c>
       <c r="DT3">
-        <v>0.4413569125941009</v>
+        <v>0.440969979483244</v>
       </c>
       <c r="DU3">
-        <v>0.4459103898391895</v>
+        <v>0.4455212398504098</v>
       </c>
       <c r="DV3">
-        <v>0.4559367282182797</v>
+        <v>0.4555594622566121</v>
       </c>
       <c r="DW3">
-        <v>0.4616819661489966</v>
+        <v>0.4613055538978683</v>
       </c>
       <c r="DX3">
-        <v>0.4659069690980464</v>
+        <v>0.4655274936502707</v>
       </c>
       <c r="DY3">
-        <v>0.4700323224482978</v>
+        <v>0.4696495270552575</v>
       </c>
       <c r="DZ3">
-        <v>0.4729362858132782</v>
+        <v>0.4725470235461966</v>
       </c>
       <c r="EA3">
-        <v>0.4985034315049583</v>
+        <v>0.4981660943774371</v>
       </c>
       <c r="EB3">
-        <v>0.5389781770168645</v>
+        <v>0.5387311746731858</v>
       </c>
       <c r="EC3">
-        <v>0.5523158528560225</v>
+        <v>0.552089266247811</v>
       </c>
       <c r="ED3">
-        <v>0.5551655748216571</v>
+        <v>0.5549323815856625</v>
       </c>
       <c r="EE3">
-        <v>0.5553533236293929</v>
+        <v>0.5551066651536781</v>
       </c>
       <c r="EF3">
-        <v>0.5553535432230903</v>
+        <v>0.5551066651536781</v>
       </c>
       <c r="EG3">
-        <v>0.5591544973772538</v>
+        <v>0.5589034635434056</v>
       </c>
       <c r="EH3">
-        <v>0.5633028433272279</v>
+        <v>0.5630485487888772</v>
       </c>
       <c r="EI3">
-        <v>0.573826319200323</v>
+        <v>0.5735851895709524</v>
       </c>
       <c r="EJ3">
-        <v>0.5886119840220194</v>
+        <v>0.5883950008924519</v>
       </c>
       <c r="EK3">
-        <v>0.6045410368299274</v>
+        <v>0.6043511461556728</v>
       </c>
       <c r="EL3">
-        <v>0.6125853327329195</v>
+        <v>0.612402219324972</v>
       </c>
       <c r="EM3">
-        <v>0.6242181135926372</v>
+        <v>0.6240510232338432</v>
       </c>
       <c r="EN3">
-        <v>0.6392631434112059</v>
+        <v>0.6391208678098412</v>
       </c>
       <c r="EO3">
-        <v>0.6438268628561711</v>
+        <v>0.6436823967660582</v>
       </c>
       <c r="EP3">
-        <v>0.6439930951541665</v>
+        <v>0.643835108386738</v>
       </c>
       <c r="EQ3">
-        <v>0.6489828200939943</v>
+        <v>0.6488237404470718</v>
       </c>
       <c r="ER3">
-        <v>0.6606097649537824</v>
+        <v>0.6604666933194762</v>
       </c>
       <c r="ES3">
-        <v>0.6827921146862805</v>
+        <v>0.6826922472163054</v>
       </c>
       <c r="ET3">
-        <v>0.7073150313905533</v>
+        <v>0.7072643985892083</v>
       </c>
       <c r="EU3">
-        <v>0.7295501281224154</v>
+        <v>0.7295428353888002</v>
       </c>
       <c r="EV3">
-        <v>0.7481267888983953</v>
+        <v>0.748153410219913</v>
       </c>
       <c r="EW3">
-        <v>0.7577319897825641</v>
+        <v>0.7577694100644112</v>
       </c>
       <c r="EX3">
-        <v>0.7594490045618582</v>
+        <v>0.7594768997796464</v>
       </c>
       <c r="EY3">
-        <v>0.7611141821417774</v>
+        <v>0.7611324187362206</v>
       </c>
       <c r="EZ3">
-        <v>0.771880242011947</v>
+        <v>0.7719122685365105</v>
       </c>
       <c r="FA3">
-        <v>0.7980211436967082</v>
+        <v>0.7981065736513593</v>
       </c>
       <c r="FB3">
-        <v>0.8247953373738323</v>
+        <v>0.8249358024444525</v>
       </c>
       <c r="FC3">
-        <v>0.8401583391885664</v>
+        <v>0.8403244382760148</v>
       </c>
       <c r="FD3">
-        <v>0.8511379350561611</v>
+        <v>0.851318374252283</v>
       </c>
       <c r="FE3">
-        <v>0.8561780409953813</v>
+        <v>0.8563575171193751</v>
       </c>
       <c r="FF3">
-        <v>0.8565025651714678</v>
+        <v>0.8566689284594353</v>
       </c>
       <c r="FG3">
-        <v>0.8579044883545617</v>
+        <v>0.8580605147404633</v>
       </c>
       <c r="FH3">
-        <v>0.8628674606947121</v>
+        <v>0.8630223252726638</v>
       </c>
       <c r="FI3">
-        <v>0.8681985820304229</v>
+        <v>0.8683532333415803</v>
       </c>
       <c r="FJ3">
-        <v>0.8764870169304708</v>
+        <v>0.8766490745355552</v>
       </c>
       <c r="FK3">
-        <v>0.8830609174511947</v>
+        <v>0.8832259638278407</v>
       </c>
       <c r="FL3">
-        <v>0.8921431813416697</v>
+        <v>0.8923176793239971</v>
       </c>
       <c r="FM3">
-        <v>0.9039123171997431</v>
+        <v>0.9041031895518287</v>
       </c>
       <c r="FN3">
-        <v>0.9123952240974458</v>
+        <v>0.9125940038033434</v>
       </c>
       <c r="FO3">
-        <v>0.9177263454331566</v>
+        <v>0.91792491187226</v>
       </c>
       <c r="FP3">
-        <v>0.9191396512161132</v>
+        <v>0.9193279100805821</v>
       </c>
       <c r="FQ3">
-        <v>0.9191456610800407</v>
+        <v>0.9193279100805821</v>
       </c>
       <c r="FR3">
-        <v>0.9202544000666701</v>
+        <v>0.9204255567718677</v>
       </c>
       <c r="FS3">
-        <v>0.9284421879679318</v>
+        <v>0.9286204916486235</v>
       </c>
       <c r="FT3">
-        <v>0.947743002735179</v>
+        <v>0.9479570862641257</v>
       </c>
       <c r="FU3">
-        <v>0.9639508725397247</v>
+        <v>0.9641927668999662</v>
       </c>
       <c r="FV3">
-        <v>0.9752318644036847</v>
+        <v>0.9754888754236978</v>
       </c>
       <c r="FW3">
-        <v>0.9806169123387453</v>
+        <v>0.980873849034619</v>
       </c>
       <c r="FX3">
-        <v>0.9824664415164414</v>
+        <v>0.9827141945735001</v>
       </c>
       <c r="FY3">
-        <v>0.9830385113495427</v>
+        <v>0.983273789375503</v>
       </c>
       <c r="FZ3">
-        <v>0.9830710247661506</v>
+        <v>0.9832924375861838</v>
       </c>
       <c r="GA3">
-        <v>0.9835442861904434</v>
+        <v>0.9837529693980989</v>
       </c>
       <c r="GB3">
-        <v>0.9841431857832211</v>
+        <v>0.984339463087038</v>
       </c>
       <c r="GC3">
-        <v>0.9852400528699937</v>
+        <v>0.9854252072903469</v>
       </c>
       <c r="GD3">
-        <v>0.9863911633561122</v>
+        <v>0.9865653346518963</v>
       </c>
       <c r="GE3">
-        <v>0.9868985698499932</v>
+        <v>0.9870600995086601</v>
       </c>
       <c r="GF3">
-        <v>0.9887425143277567</v>
+        <v>0.9888948459585493</v>
       </c>
       <c r="GG3">
-        <v>0.9915224867942324</v>
+        <v>0.9916680320866592</v>
       </c>
       <c r="GH3">
-        <v>0.9942679087611247</v>
+        <v>0.9944065786953291</v>
       </c>
       <c r="GI3">
-        <v>0.9946769590161919</v>
+        <v>0.9948027338970221</v>
       </c>
       <c r="GJ3">
-        <v>0.9969276484890504</v>
+        <v>0.9970452733263071</v>
       </c>
       <c r="GK3">
-        <v>0.9971174815867612</v>
+        <v>0.9972216465545005</v>
       </c>
       <c r="GL3">
-        <v>0.9980000254761183</v>
+        <v>0.9980925153536085</v>
       </c>
       <c r="GM3">
-        <v>0.9986095767687676</v>
+        <v>0.9986896881866764</v>
       </c>
       <c r="GN3">
-        <v>0.9988125675863196</v>
+        <v>0.9988792530357645</v>
       </c>
       <c r="GO3">
-        <v>0.9988609191577366</v>
+        <v>0.9989137802084869</v>
       </c>
       <c r="GP3">
-        <v>0.9990585428053533</v>
+        <v>0.9990979640590496</v>
       </c>
       <c r="GQ3">
-        <v>0.9991675515040388</v>
+        <v>0.9991933046429969</v>
       </c>
       <c r="GR3">
-        <v>0.9992453907091001</v>
+        <v>0.9992573954246737</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0004203063797437081</v>
+        <v>0.0004096084014769583</v>
       </c>
       <c r="C4">
-        <v>0.0008910111906557726</v>
+        <v>0.000869726896071033</v>
       </c>
       <c r="D4">
-        <v>0.001027772563826229</v>
+        <v>0.0009951620732453134</v>
       </c>
       <c r="E4">
-        <v>0.001158121026848018</v>
+        <v>0.001114170131930949</v>
       </c>
       <c r="F4">
-        <v>0.001324866260713572</v>
+        <v>0.001269655601557009</v>
       </c>
       <c r="G4">
-        <v>0.001374056691853924</v>
+        <v>0.00130732581593873</v>
       </c>
       <c r="H4">
-        <v>0.001385660185622921</v>
+        <v>0.00130732581593873</v>
       </c>
       <c r="I4">
-        <v>0.001386122420483636</v>
+        <v>0.00130732581593873</v>
       </c>
       <c r="J4">
-        <v>0.001397667629751282</v>
+        <v>0.00130732581593873</v>
       </c>
       <c r="K4">
-        <v>0.001436066987641471</v>
+        <v>0.001334181048542971</v>
       </c>
       <c r="L4">
-        <v>0.001488052745846625</v>
+        <v>0.001374652783270917</v>
       </c>
       <c r="M4">
-        <v>0.001646883749528708</v>
+        <v>0.001522206488073147</v>
       </c>
       <c r="N4">
-        <v>0.001809077303288743</v>
+        <v>0.001673130192964884</v>
       </c>
       <c r="O4">
-        <v>0.001874538389806288</v>
+        <v>0.001727107111724627</v>
       </c>
       <c r="P4">
-        <v>0.002000053852716037</v>
+        <v>0.001841271462381361</v>
       </c>
       <c r="Q4">
-        <v>0.002236895168206585</v>
+        <v>0.002067008317376864</v>
       </c>
       <c r="R4">
-        <v>0.002393906891846493</v>
+        <v>0.00221273871136949</v>
       </c>
       <c r="S4">
-        <v>0.002638610277519304</v>
+        <v>0.002446355055622759</v>
       </c>
       <c r="T4">
-        <v>0.003022299816414145</v>
+        <v>0.002819265488570647</v>
       </c>
       <c r="U4">
-        <v>0.003179311540054053</v>
+        <v>0.002964995882563273</v>
       </c>
       <c r="V4">
-        <v>0.003347709083957912</v>
+        <v>0.003122137323059029</v>
       </c>
       <c r="W4">
-        <v>0.003405962042308355</v>
+        <v>0.003168890143439516</v>
       </c>
       <c r="X4">
-        <v>0.003443469533177868</v>
+        <v>0.003194851533016938</v>
       </c>
       <c r="Y4">
-        <v>0.003462295002614288</v>
+        <v>0.003202089509576814</v>
       </c>
       <c r="Z4">
-        <v>0.003462450109517884</v>
+        <v>0.003202089509576814</v>
       </c>
       <c r="AA4">
-        <v>0.00350308035245979</v>
+        <v>0.003231180569945602</v>
       </c>
       <c r="AB4">
-        <v>0.003504198379085709</v>
+        <v>0.003231180569945602</v>
       </c>
       <c r="AC4">
-        <v>0.003522784875516588</v>
+        <v>0.003238179044035212</v>
       </c>
       <c r="AD4">
-        <v>0.00352384524124117</v>
+        <v>0.003238179044035212</v>
       </c>
       <c r="AE4">
-        <v>0.003603622263090593</v>
+        <v>0.003306503616281555</v>
       </c>
       <c r="AF4">
-        <v>0.003746950556413285</v>
+        <v>0.003438520263170123</v>
       </c>
       <c r="AG4">
-        <v>0.003858728964004576</v>
+        <v>0.003538917122910871</v>
       </c>
       <c r="AH4">
-        <v>0.004189863831681075</v>
+        <v>0.003859156445361084</v>
       </c>
       <c r="AI4">
-        <v>0.00461612716156288</v>
+        <v>0.004274734995098495</v>
       </c>
       <c r="AJ4">
-        <v>0.00499309255030184</v>
+        <v>0.004640906379972197</v>
       </c>
       <c r="AK4">
-        <v>0.005258095216445236</v>
+        <v>0.004894866979453465</v>
       </c>
       <c r="AL4">
-        <v>0.005510677822300705</v>
+        <v>0.005136380000962161</v>
       </c>
       <c r="AM4">
-        <v>0.005585575098037004</v>
+        <v>0.005199814015608834</v>
       </c>
       <c r="AN4">
-        <v>0.005616688603758289</v>
+        <v>0.005219367253627975</v>
       </c>
       <c r="AO4">
-        <v>0.005637194664233669</v>
+        <v>0.005228289544717129</v>
       </c>
       <c r="AP4">
-        <v>0.005643634924382969</v>
+        <v>0.005228289544717129</v>
       </c>
       <c r="AQ4">
-        <v>0.005648543506096762</v>
+        <v>0.005228289544717129</v>
       </c>
       <c r="AR4">
-        <v>0.005654098030225529</v>
+        <v>0.005228289544717129</v>
       </c>
       <c r="AS4">
-        <v>0.005707257665457897</v>
+        <v>0.005269937757295238</v>
       </c>
       <c r="AT4">
-        <v>0.005747014466379555</v>
+        <v>0.005298153440459768</v>
       </c>
       <c r="AU4">
-        <v>0.005823020453141555</v>
+        <v>0.005362698622574357</v>
       </c>
       <c r="AV4">
-        <v>0.005831309459833714</v>
+        <v>0.005362698622574357</v>
       </c>
       <c r="AW4">
-        <v>0.00597356806313161</v>
+        <v>0.005493643209450214</v>
       </c>
       <c r="AX4">
-        <v>0.006243816549396617</v>
+        <v>0.005752861251607288</v>
       </c>
       <c r="AY4">
-        <v>0.006542543886321832</v>
+        <v>0.006040621241705367</v>
       </c>
       <c r="AZ4">
-        <v>0.006793705842144367</v>
+        <v>0.0062807104656119</v>
       </c>
       <c r="BA4">
-        <v>0.007028694157591959</v>
+        <v>0.006504590215087528</v>
       </c>
       <c r="BB4">
-        <v>0.007197091701495817</v>
+        <v>0.006661731655583284</v>
       </c>
       <c r="BC4">
-        <v>0.007289693003642538</v>
+        <v>0.006742908921394881</v>
       </c>
       <c r="BD4">
-        <v>0.007388429555931487</v>
+        <v>0.006830235030509668</v>
       </c>
       <c r="BE4">
-        <v>0.007427278771832105</v>
+        <v>0.006857541117822468</v>
       </c>
       <c r="BF4">
-        <v>0.007430895852615958</v>
+        <v>0.006857541117822468</v>
       </c>
       <c r="BG4">
-        <v>0.007437664105772862</v>
+        <v>0.006857541117822468</v>
       </c>
       <c r="BH4">
-        <v>0.007446786531984342</v>
+        <v>0.006857541117822468</v>
       </c>
       <c r="BI4">
-        <v>0.00752960921790437</v>
+        <v>0.006928918102063458</v>
       </c>
       <c r="BJ4">
-        <v>0.007623073930071105</v>
+        <v>0.007010960690852344</v>
       </c>
       <c r="BK4">
-        <v>0.007715840152221648</v>
+        <v>0.007092303242061857</v>
       </c>
       <c r="BL4">
-        <v>0.007758336941206825</v>
+        <v>0.007123264983963133</v>
       </c>
       <c r="BM4">
-        <v>0.007860144273566964</v>
+        <v>0.007213668676719756</v>
       </c>
       <c r="BN4">
-        <v>0.008045450197862798</v>
+        <v>0.007387755959541545</v>
       </c>
       <c r="BO4">
-        <v>0.008178846500955244</v>
+        <v>0.007509818611042989</v>
       </c>
       <c r="BP4">
-        <v>0.008302131013813274</v>
+        <v>0.007621747068791162</v>
       </c>
       <c r="BQ4">
-        <v>0.008432479476835064</v>
+        <v>0.007740755127476798</v>
       </c>
       <c r="BR4">
-        <v>0.00854579371546196</v>
+        <v>0.007842691221015547</v>
       </c>
       <c r="BS4">
-        <v>0.008672857448407602</v>
+        <v>0.007958407272030217</v>
       </c>
       <c r="BT4">
-        <v>0.00882557845194804</v>
+        <v>0.008099837439473335</v>
       </c>
       <c r="BU4">
-        <v>0.008984321265628079</v>
+        <v>0.00824730275888118</v>
       </c>
       <c r="BV4">
-        <v>0.009061533127418035</v>
+        <v>0.008313056487740927</v>
       </c>
       <c r="BW4">
-        <v>0.00909414470117405</v>
+        <v>0.008334111112890098</v>
       </c>
       <c r="BX4">
-        <v>0.009106499702460469</v>
+        <v>0.008334864285435417</v>
       </c>
       <c r="BY4">
-        <v>0.009119282394756803</v>
+        <v>0.008336046096575934</v>
       </c>
       <c r="BZ4">
-        <v>0.009132090115053717</v>
+        <v>0.008337252991168664</v>
       </c>
       <c r="CA4">
-        <v>0.009207466352801119</v>
+        <v>0.008401167029006925</v>
       </c>
       <c r="CB4">
-        <v>0.009251757526827895</v>
+        <v>0.008433927131560267</v>
       </c>
       <c r="CC4">
-        <v>0.009400123810267381</v>
+        <v>0.008570992930655027</v>
       </c>
       <c r="CD4">
-        <v>0.009442981566260927</v>
+        <v>0.008602316439317335</v>
       </c>
       <c r="CE4">
-        <v>0.00953236077833295</v>
+        <v>0.008680264476243593</v>
       </c>
       <c r="CF4">
-        <v>0.009920315747326675</v>
+        <v>0.009057449789708285</v>
       </c>
       <c r="CG4">
-        <v>0.01025908562518017</v>
+        <v>0.009385341038340527</v>
       </c>
       <c r="CH4">
-        <v>0.01062410293364215</v>
+        <v>0.009739537870963877</v>
       </c>
       <c r="CI4">
-        <v>0.01090274531010174</v>
+        <v>0.01000716840068286</v>
       </c>
       <c r="CJ4">
-        <v>0.01120860421719229</v>
+        <v>0.01030207576153775</v>
       </c>
       <c r="CK4">
-        <v>0.01132405770986878</v>
+        <v>0.01040615584882276</v>
       </c>
       <c r="CL4">
-        <v>0.01137112078095981</v>
+        <v>0.01044169398981065</v>
       </c>
       <c r="CM4">
-        <v>0.01159840595622882</v>
+        <v>0.01065785353215495</v>
       </c>
       <c r="CN4">
-        <v>0.1674916495702074</v>
+        <v>0.166884862492391</v>
       </c>
       <c r="CO4">
-        <v>0.2124290906119649</v>
+        <v>0.211910236999249</v>
       </c>
       <c r="CP4">
-        <v>0.2978519225922707</v>
+        <v>0.2975107012218537</v>
       </c>
       <c r="CQ4">
-        <v>0.3141171139693367</v>
+        <v>0.3138003002915175</v>
       </c>
       <c r="CR4">
-        <v>0.341559674605521</v>
+        <v>0.3412920330188046</v>
       </c>
       <c r="CS4">
-        <v>0.3422856356223505</v>
+        <v>0.3420079732608365</v>
       </c>
       <c r="CT4">
-        <v>0.3713473842960714</v>
+        <v>0.3711224814724813</v>
       </c>
       <c r="CU4">
-        <v>0.397628515905331</v>
+        <v>0.397450211929481</v>
       </c>
       <c r="CV4">
-        <v>0.4080346936465711</v>
+        <v>0.4078678162274934</v>
       </c>
       <c r="CW4">
-        <v>0.4082655246419223</v>
+        <v>0.4080875294459815</v>
       </c>
       <c r="CX4">
-        <v>0.4138254041708136</v>
+        <v>0.4136480981517283</v>
       </c>
       <c r="CY4">
-        <v>0.4157949838164732</v>
+        <v>0.4156104123639052</v>
       </c>
       <c r="CZ4">
-        <v>0.421334569944894</v>
+        <v>0.4211506427074517</v>
       </c>
       <c r="DA4">
-        <v>0.4215383810596189</v>
+        <v>0.421343276180503</v>
       </c>
       <c r="DB4">
-        <v>0.4215621781271706</v>
+        <v>0.4213554967701705</v>
       </c>
       <c r="DC4">
-        <v>0.4219755877367544</v>
+        <v>0.4217581931211152</v>
       </c>
       <c r="DD4">
-        <v>0.4224149015969387</v>
+        <v>0.422186851115699</v>
       </c>
       <c r="DE4">
-        <v>0.4399534350035239</v>
+        <v>0.4397526134108826</v>
       </c>
       <c r="DF4">
-        <v>0.4442532881032048</v>
+        <v>0.4440503639932469</v>
       </c>
       <c r="DG4">
-        <v>0.4480038969901529</v>
+        <v>0.4477976534662862</v>
       </c>
       <c r="DH4">
-        <v>0.4518317383788915</v>
+        <v>0.4516223465561974</v>
       </c>
       <c r="DI4">
-        <v>0.4518737646018657</v>
+        <v>0.4516528366895093</v>
       </c>
       <c r="DJ4">
-        <v>0.454603389365145</v>
+        <v>0.4543768799629727</v>
       </c>
       <c r="DK4">
-        <v>0.4551778209784617</v>
+        <v>0.4549409550753967</v>
       </c>
       <c r="DL4">
-        <v>0.455907225155371</v>
+        <v>0.4556603461061182</v>
       </c>
       <c r="DM4">
-        <v>0.4589531038259818</v>
+        <v>0.4587013439739538</v>
       </c>
       <c r="DN4">
-        <v>0.4601743081542922</v>
+        <v>0.4599136247805355</v>
       </c>
       <c r="DO4">
-        <v>0.4626129982108269</v>
+        <v>0.4623460887570247</v>
       </c>
       <c r="DP4">
-        <v>0.4626364434763705</v>
+        <v>0.4623579567652372</v>
       </c>
       <c r="DQ4">
-        <v>0.4652402315367325</v>
+        <v>0.4649558845340201</v>
       </c>
       <c r="DR4">
-        <v>0.4692742326302503</v>
+        <v>0.4689871940928174</v>
       </c>
       <c r="DS4">
-        <v>0.4730459871176886</v>
+        <v>0.4727556760161972</v>
       </c>
       <c r="DT4">
-        <v>0.4771106957119183</v>
+        <v>0.4768177611107481</v>
       </c>
       <c r="DU4">
-        <v>0.4824127622348329</v>
+        <v>0.4821199456041929</v>
       </c>
       <c r="DV4">
-        <v>0.4920841394590386</v>
+        <v>0.4918011213730327</v>
       </c>
       <c r="DW4">
-        <v>0.4981272561991325</v>
+        <v>0.4978459979425295</v>
       </c>
       <c r="DX4">
-        <v>0.5016380105805202</v>
+        <v>0.5013529014922462</v>
       </c>
       <c r="DY4">
-        <v>0.5055877250720839</v>
+        <v>0.5052997377050578</v>
       </c>
       <c r="DZ4">
-        <v>0.5083006221349754</v>
+        <v>0.5080070162165109</v>
       </c>
       <c r="EA4">
-        <v>0.5288501976113638</v>
+        <v>0.5285904917975955</v>
       </c>
       <c r="EB4">
-        <v>0.5650019884494488</v>
+        <v>0.5648107507563225</v>
       </c>
       <c r="EC4">
-        <v>0.5798647997940044</v>
+        <v>0.5796948627029632</v>
       </c>
       <c r="ED4">
-        <v>0.5827968552619764</v>
+        <v>0.5826217851833138</v>
       </c>
       <c r="EE4">
-        <v>0.5828008830766698</v>
+        <v>0.5826217851833138</v>
       </c>
       <c r="EF4">
-        <v>0.5828053223317727</v>
+        <v>0.5826217851833138</v>
       </c>
       <c r="EG4">
-        <v>0.5840511014606529</v>
+        <v>0.5838586952379958</v>
       </c>
       <c r="EH4">
-        <v>0.5854413615928824</v>
+        <v>0.5852404064058009</v>
       </c>
       <c r="EI4">
-        <v>0.5923861307538788</v>
+        <v>0.5921889330827171</v>
       </c>
       <c r="EJ4">
-        <v>0.5993893339162298</v>
+        <v>0.5991960232264161</v>
       </c>
       <c r="EK4">
-        <v>0.60762576210717</v>
+        <v>0.6074390707121265</v>
       </c>
       <c r="EL4">
-        <v>0.6122762792149802</v>
+        <v>0.6120882622281235</v>
       </c>
       <c r="EM4">
-        <v>0.6188032603662912</v>
+        <v>0.6186180752509991</v>
       </c>
       <c r="EN4">
-        <v>0.6276143375705531</v>
+        <v>0.6274370449330887</v>
       </c>
       <c r="EO4">
-        <v>0.6313550376572714</v>
+        <v>0.6311744036521209</v>
       </c>
       <c r="EP4">
-        <v>0.6313550418309275</v>
+        <v>0.6311744036521209</v>
       </c>
       <c r="EQ4">
-        <v>0.6370519672629958</v>
+        <v>0.6368723218977307</v>
       </c>
       <c r="ER4">
-        <v>0.6475957195074252</v>
+        <v>0.6474278055067759</v>
       </c>
       <c r="ES4">
-        <v>0.6651630229146773</v>
+        <v>0.6650224015449746</v>
       </c>
       <c r="ET4">
-        <v>0.6859832723973406</v>
+        <v>0.6858771508332835</v>
       </c>
       <c r="EU4">
-        <v>0.7064913648727673</v>
+        <v>0.7064190515043406</v>
       </c>
       <c r="EV4">
-        <v>0.7223954692414625</v>
+        <v>0.7223467635470994</v>
       </c>
       <c r="EW4">
-        <v>0.7274419166584513</v>
+        <v>0.7273927625890626</v>
       </c>
       <c r="EX4">
-        <v>0.7276368701129707</v>
+        <v>0.7275765187770199</v>
       </c>
       <c r="EY4">
-        <v>0.732378326222889</v>
+        <v>0.7323168507781069</v>
       </c>
       <c r="EZ4">
-        <v>0.7500843406333568</v>
+        <v>0.7500504651453759</v>
       </c>
       <c r="FA4">
-        <v>0.7846540514347655</v>
+        <v>0.7846851388364917</v>
       </c>
       <c r="FB4">
-        <v>0.8200859322561613</v>
+        <v>0.820183892757543</v>
       </c>
       <c r="FC4">
-        <v>0.8435780868007657</v>
+        <v>0.8437164669374226</v>
       </c>
       <c r="FD4">
-        <v>0.8578304201311689</v>
+        <v>0.8579887483046991</v>
       </c>
       <c r="FE4">
-        <v>0.8645162518861625</v>
+        <v>0.8646777638780848</v>
       </c>
       <c r="FF4">
-        <v>0.8646035898931872</v>
+        <v>0.8647536661875028</v>
       </c>
       <c r="FG4">
-        <v>0.8664641175363187</v>
+        <v>0.8666066867832991</v>
       </c>
       <c r="FH4">
-        <v>0.8722231310698264</v>
+        <v>0.8723668306917414</v>
       </c>
       <c r="FI4">
-        <v>0.8794332117369733</v>
+        <v>0.879581256694689</v>
       </c>
       <c r="FJ4">
-        <v>0.8892157439637558</v>
+        <v>0.8893738337393311</v>
       </c>
       <c r="FK4">
-        <v>0.8951147591005091</v>
+        <v>0.8952742894363062</v>
       </c>
       <c r="FL4">
-        <v>0.9052950193365119</v>
+        <v>0.9054654756899114</v>
       </c>
       <c r="FM4">
-        <v>0.9199789376769203</v>
+        <v>0.9201702982799591</v>
       </c>
       <c r="FN4">
-        <v>0.9320987909578875</v>
+        <v>0.9323053749095008</v>
       </c>
       <c r="FO4">
-        <v>0.9403608811494225</v>
+        <v>0.9405741412521196</v>
       </c>
       <c r="FP4">
-        <v>0.9437567890281477</v>
+        <v>0.9439659438471205</v>
       </c>
       <c r="FQ4">
-        <v>0.9446601660090902</v>
+        <v>0.9448596931332052</v>
       </c>
       <c r="FR4">
-        <v>0.9447779646168211</v>
+        <v>0.9449661235313435</v>
       </c>
       <c r="FS4">
-        <v>0.949504479426393</v>
+        <v>0.9496914811283808</v>
       </c>
       <c r="FT4">
-        <v>0.9617235867096612</v>
+        <v>0.9619260316657853</v>
       </c>
       <c r="FU4">
-        <v>0.9719094209457932</v>
+        <v>0.9721228042691843</v>
       </c>
       <c r="FV4">
-        <v>0.9793409931180749</v>
+        <v>0.9795592125102622</v>
       </c>
       <c r="FW4">
-        <v>0.9844016602353932</v>
+        <v>0.9846194627574931</v>
       </c>
       <c r="FX4">
-        <v>0.9861598615761525</v>
+        <v>0.9863699303384171</v>
       </c>
       <c r="FY4">
-        <v>0.9868014987910272</v>
+        <v>0.9870013599520427</v>
       </c>
       <c r="FZ4">
-        <v>0.986969896334931</v>
+        <v>0.9871585013925385</v>
       </c>
       <c r="GA4">
-        <v>0.9873138865629055</v>
+        <v>0.987491624557415</v>
       </c>
       <c r="GB4">
-        <v>0.9875948334694186</v>
+        <v>0.987761564723067</v>
       </c>
       <c r="GC4">
-        <v>0.9879597171078774</v>
+        <v>0.9881156275895301</v>
       </c>
       <c r="GD4">
-        <v>0.9881142324114595</v>
+        <v>0.9882588560324369</v>
       </c>
       <c r="GE4">
-        <v>0.9882847374554121</v>
+        <v>0.9884181096423246</v>
       </c>
       <c r="GF4">
-        <v>0.9900935913973457</v>
+        <v>0.9902193420495065</v>
       </c>
       <c r="GG4">
-        <v>0.992057510442874</v>
+        <v>0.9921759831200181</v>
       </c>
       <c r="GH4">
-        <v>0.9931251113676236</v>
+        <v>0.993234320201823</v>
       </c>
       <c r="GI4">
-        <v>0.9931332420568121</v>
+        <v>0.993234320201823</v>
       </c>
       <c r="GJ4">
-        <v>0.993505071935432</v>
+        <v>0.9935953446984245</v>
       </c>
       <c r="GK4">
-        <v>0.9937356427307772</v>
+        <v>0.9938147971404117</v>
       </c>
       <c r="GL4">
-        <v>0.995991181483066</v>
+        <v>0.9960637040255883</v>
       </c>
       <c r="GM4">
-        <v>0.9978509703261803</v>
+        <v>0.9979159841844941</v>
       </c>
       <c r="GN4">
-        <v>0.9988727874498685</v>
+        <v>0.9989284360273887</v>
       </c>
       <c r="GO4">
-        <v>0.9989838756164438</v>
+        <v>0.9990281411168266</v>
       </c>
       <c r="GP4">
-        <v>0.9992082600416455</v>
+        <v>0.9992413934822487</v>
       </c>
       <c r="GQ4">
-        <v>0.9993142481741026</v>
+        <v>0.9993359872380153</v>
       </c>
       <c r="GR4">
-        <v>0.9994359304869235</v>
+        <v>0.9994463099459179</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>7.165970600575939E-05</v>
+        <v>6.368210546893513E-05</v>
       </c>
       <c r="C5">
-        <v>7.204672585418728E-05</v>
+        <v>6.368210546893513E-05</v>
       </c>
       <c r="D5">
-        <v>8.171210381544874E-05</v>
+        <v>6.527497079792718E-05</v>
       </c>
       <c r="E5">
-        <v>8.171977079202139E-05</v>
+        <v>6.527497079792718E-05</v>
       </c>
       <c r="F5">
-        <v>8.979471834193186E-05</v>
+        <v>6.527497079792718E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001204600226326784</v>
+        <v>8.789991293008462E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001817201552180996</v>
+        <v>0.0001411665234365633</v>
       </c>
       <c r="I5">
-        <v>0.000387862763727916</v>
+        <v>0.0003395374220850547</v>
       </c>
       <c r="J5">
-        <v>0.0006272840903828098</v>
+        <v>0.0005712379879407799</v>
       </c>
       <c r="K5">
-        <v>0.0007640933027572007</v>
+        <v>0.0007001693423896742</v>
       </c>
       <c r="L5">
-        <v>0.0009273517836573356</v>
+        <v>0.000855590458673587</v>
       </c>
       <c r="M5">
-        <v>0.001114594653220605</v>
+        <v>0.001035032683247377</v>
       </c>
       <c r="N5">
-        <v>0.001213665947698469</v>
+        <v>0.00112616834379058</v>
       </c>
       <c r="O5">
-        <v>0.001305472952581238</v>
+        <v>0.001210028593254365</v>
       </c>
       <c r="P5">
-        <v>0.001452807184368975</v>
+        <v>0.001349501080714069</v>
       </c>
       <c r="Q5">
-        <v>0.001550495358923933</v>
+        <v>0.001439251503805</v>
       </c>
       <c r="R5">
-        <v>0.001774702826426833</v>
+        <v>0.001655714918389959</v>
       </c>
       <c r="S5">
-        <v>0.001890378839979167</v>
+        <v>0.001763480719505555</v>
       </c>
       <c r="T5">
-        <v>0.001949118751705063</v>
+        <v>0.001814223250744</v>
       </c>
       <c r="U5">
-        <v>0.001992003156314729</v>
+        <v>0.001849086000397047</v>
       </c>
       <c r="V5">
-        <v>0.001994339519384502</v>
+        <v>0.001849086000397047</v>
       </c>
       <c r="W5">
-        <v>0.002009176071557527</v>
+        <v>0.001855857956903691</v>
       </c>
       <c r="X5">
-        <v>0.002068797433234292</v>
+        <v>0.001907483287575522</v>
       </c>
       <c r="Y5">
-        <v>0.002124362725137138</v>
+        <v>0.001955046338710483</v>
       </c>
       <c r="Z5">
-        <v>0.002155665806392335</v>
+        <v>0.001978310034231066</v>
       </c>
       <c r="AA5">
-        <v>0.002250601071100738</v>
+        <v>0.002065303332824676</v>
       </c>
       <c r="AB5">
-        <v>0.002500539107169441</v>
+        <v>0.002307536708969229</v>
       </c>
       <c r="AC5">
-        <v>0.002690632696573814</v>
+        <v>0.002489834017780063</v>
       </c>
       <c r="AD5">
-        <v>0.002832913368643231</v>
+        <v>0.002624245208621033</v>
       </c>
       <c r="AE5">
-        <v>0.002979382780479172</v>
+        <v>0.002762851552106624</v>
       </c>
       <c r="AF5">
-        <v>0.003183504839101612</v>
+        <v>0.00295919880744565</v>
       </c>
       <c r="AG5">
-        <v>0.003321930841385884</v>
+        <v>0.00308974942707794</v>
       </c>
       <c r="AH5">
-        <v>0.003439597584827257</v>
+        <v>0.003199509005850833</v>
       </c>
       <c r="AI5">
-        <v>0.003541213465163289</v>
+        <v>0.003293193147963044</v>
       </c>
       <c r="AJ5">
-        <v>0.003607281231480738</v>
+        <v>0.003351274752594122</v>
       </c>
       <c r="AK5">
-        <v>0.003628937656273631</v>
+        <v>0.003364877022811317</v>
       </c>
       <c r="AL5">
-        <v>0.003635501177907786</v>
+        <v>0.003364877022811317</v>
       </c>
       <c r="AM5">
-        <v>0.003638726041528035</v>
+        <v>0.003364877022811317</v>
       </c>
       <c r="AN5">
-        <v>0.003672828859627178</v>
+        <v>0.00339094474151782</v>
       </c>
       <c r="AO5">
-        <v>0.003678313632321462</v>
+        <v>0.00339094474151782</v>
       </c>
       <c r="AP5">
-        <v>0.003729977406441775</v>
+        <v>0.003434600301723351</v>
       </c>
       <c r="AQ5">
-        <v>0.003839975640310583</v>
+        <v>0.003536679630586532</v>
       </c>
       <c r="AR5">
-        <v>0.003919943291853266</v>
+        <v>0.003608682400893408</v>
       </c>
       <c r="AS5">
-        <v>0.004013765421623714</v>
+        <v>0.003694560860361393</v>
       </c>
       <c r="AT5">
-        <v>0.004241817278912331</v>
+        <v>0.003914874550417129</v>
       </c>
       <c r="AU5">
-        <v>0.004552799141578512</v>
+        <v>0.004218245210055606</v>
       </c>
       <c r="AV5">
-        <v>0.004872032053784787</v>
+        <v>0.004529879551428545</v>
       </c>
       <c r="AW5">
-        <v>0.005146065738510423</v>
+        <v>0.004796245466193633</v>
       </c>
       <c r="AX5">
-        <v>0.005264002381936752</v>
+        <v>0.004906275358163043</v>
       </c>
       <c r="AY5">
-        <v>0.005363768881375866</v>
+        <v>0.004998107288012602</v>
       </c>
       <c r="AZ5">
-        <v>0.005582786689168032</v>
+        <v>0.005209373097620006</v>
       </c>
       <c r="BA5">
-        <v>0.005644046821753453</v>
+        <v>0.005262639708126484</v>
       </c>
       <c r="BB5">
-        <v>0.005652933734258105</v>
+        <v>0.005263452916183582</v>
       </c>
       <c r="BC5">
-        <v>0.005653992226399106</v>
+        <v>0.005263452916183582</v>
       </c>
       <c r="BD5">
-        <v>0.005658390108653972</v>
+        <v>0.005263452916183582</v>
       </c>
       <c r="BE5">
-        <v>0.005752647233400174</v>
+        <v>0.005349767036596063</v>
       </c>
       <c r="BF5">
-        <v>0.005822547209504019</v>
+        <v>0.005411686718051256</v>
       </c>
       <c r="BG5">
-        <v>0.005971275491214053</v>
+        <v>0.005552555389696236</v>
       </c>
       <c r="BH5">
-        <v>0.006120003772924086</v>
+        <v>0.005693424061341216</v>
       </c>
       <c r="BI5">
-        <v>0.006308179602435353</v>
+        <v>0.005873800674206313</v>
       </c>
       <c r="BJ5">
-        <v>0.006562175688277864</v>
+        <v>0.006120098312918966</v>
       </c>
       <c r="BK5">
-        <v>0.006706962320207602</v>
+        <v>0.006257019300195455</v>
       </c>
       <c r="BL5">
-        <v>0.006802578140878071</v>
+        <v>0.006344694196668909</v>
       </c>
       <c r="BM5">
-        <v>0.007100153904291495</v>
+        <v>0.006634638232580666</v>
       </c>
       <c r="BN5">
-        <v>0.007357494559947583</v>
+        <v>0.006884285561577419</v>
       </c>
       <c r="BO5">
-        <v>0.007737024988792935</v>
+        <v>0.00725630973390003</v>
       </c>
       <c r="BP5">
-        <v>0.007928081108143657</v>
+        <v>0.007439571046271608</v>
       </c>
       <c r="BQ5">
-        <v>0.008012244533452471</v>
+        <v>0.007515776013991628</v>
       </c>
       <c r="BR5">
-        <v>0.008054210079113354</v>
+        <v>0.007549718497940935</v>
       </c>
       <c r="BS5">
-        <v>0.008057434942733603</v>
+        <v>0.007549718497940935</v>
       </c>
       <c r="BT5">
-        <v>0.008058422916378535</v>
+        <v>0.007549718497940935</v>
       </c>
       <c r="BU5">
-        <v>0.008058540154952</v>
+        <v>0.007549718497940935</v>
       </c>
       <c r="BV5">
-        <v>0.008058547821928573</v>
+        <v>0.007549718497940935</v>
       </c>
       <c r="BW5">
-        <v>0.008089600443197731</v>
+        <v>0.007572731350026171</v>
       </c>
       <c r="BX5">
-        <v>0.008114283614821916</v>
+        <v>0.007589365000964454</v>
       </c>
       <c r="BY5">
-        <v>0.008180364601138627</v>
+        <v>0.007647459845834354</v>
       </c>
       <c r="BZ5">
-        <v>0.008349918781687846</v>
+        <v>0.007809186300359539</v>
       </c>
       <c r="CA5">
-        <v>0.008611779227092005</v>
+        <v>0.008063360338813464</v>
       </c>
       <c r="CB5">
-        <v>0.008781939217607457</v>
+        <v>0.00822569353078801</v>
       </c>
       <c r="CC5">
-        <v>0.009208611043825195</v>
+        <v>0.008644931273034076</v>
       </c>
       <c r="CD5">
-        <v>0.009857769447641752</v>
+        <v>0.009286996215448066</v>
       </c>
       <c r="CE5">
-        <v>0.01015577435103126</v>
+        <v>0.009577370048340755</v>
       </c>
       <c r="CF5">
-        <v>0.0104594226541062</v>
+        <v>0.009873395920852675</v>
       </c>
       <c r="CG5">
-        <v>0.01083357073325156</v>
+        <v>0.01024002950320389</v>
       </c>
       <c r="CH5">
-        <v>0.01097698197525796</v>
+        <v>0.01037557299486216</v>
       </c>
       <c r="CI5">
-        <v>0.01103715553190395</v>
+        <v>0.01042775136590283</v>
       </c>
       <c r="CJ5">
-        <v>0.01105796277074417</v>
+        <v>0.01044050315008039</v>
       </c>
       <c r="CK5">
-        <v>0.01106086238608255</v>
+        <v>0.01044050315008039</v>
       </c>
       <c r="CL5">
-        <v>0.01106219836050808</v>
+        <v>0.01044050315008039</v>
       </c>
       <c r="CM5">
-        <v>0.01109285465279933</v>
+        <v>0.01046311906641586</v>
       </c>
       <c r="CN5">
-        <v>0.03567615728255054</v>
+        <v>0.03507597093826376</v>
       </c>
       <c r="CO5">
-        <v>0.1047550684321609</v>
+        <v>0.1042525532304081</v>
       </c>
       <c r="CP5">
-        <v>0.199139333171276</v>
+        <v>0.1987732311100903</v>
       </c>
       <c r="CQ5">
-        <v>0.2390405279472232</v>
+        <v>0.2387274265193704</v>
       </c>
       <c r="CR5">
-        <v>0.2552187810454635</v>
+        <v>0.2549223608943867</v>
       </c>
       <c r="CS5">
-        <v>0.2670204873876481</v>
+        <v>0.2667340481064467</v>
       </c>
       <c r="CT5">
-        <v>0.2729858805551431</v>
+        <v>0.2727004868632751</v>
       </c>
       <c r="CU5">
-        <v>0.3153708381926478</v>
+        <v>0.3151422477261435</v>
       </c>
       <c r="CV5">
-        <v>0.3395368658456575</v>
+        <v>0.3393371857814775</v>
       </c>
       <c r="CW5">
-        <v>0.351177359196828</v>
+        <v>0.3509874131886087</v>
       </c>
       <c r="CX5">
-        <v>0.3515172337078837</v>
+        <v>0.3513197207307124</v>
       </c>
       <c r="CY5">
-        <v>0.3726422085303986</v>
+        <v>0.3724689501635525</v>
       </c>
       <c r="CZ5">
-        <v>0.3730386764882999</v>
+        <v>0.3728579377959545</v>
       </c>
       <c r="DA5">
-        <v>0.3746167880003375</v>
+        <v>0.3744303780555053</v>
       </c>
       <c r="DB5">
-        <v>0.3746866879764414</v>
+        <v>0.3744922977369605</v>
       </c>
       <c r="DC5">
-        <v>0.3748112782094968</v>
+        <v>0.3746089914050738</v>
       </c>
       <c r="DD5">
-        <v>0.3753425752398828</v>
+        <v>0.3751330145306154</v>
       </c>
       <c r="DE5">
-        <v>0.3794834360090754</v>
+        <v>0.3792721275659683</v>
       </c>
       <c r="DF5">
-        <v>0.4015512627790367</v>
+        <v>0.4013656524340197</v>
       </c>
       <c r="DG5">
-        <v>0.4046606514057225</v>
+        <v>0.4044717141633273</v>
       </c>
       <c r="DH5">
-        <v>0.4130511829380426</v>
+        <v>0.4128670041240616</v>
       </c>
       <c r="DI5">
-        <v>0.4187662813194887</v>
+        <v>0.4185827648984525</v>
       </c>
       <c r="DJ5">
-        <v>0.418879966253152</v>
+        <v>0.418688536571375</v>
       </c>
       <c r="DK5">
-        <v>0.4194444052216908</v>
+        <v>0.4192457523747241</v>
       </c>
       <c r="DL5">
-        <v>0.4194859307833762</v>
+        <v>0.4192792542010911</v>
       </c>
       <c r="DM5">
-        <v>0.4196693547531523</v>
+        <v>0.4194548716792174</v>
       </c>
       <c r="DN5">
-        <v>0.4210404763767274</v>
+        <v>0.4208200051528624</v>
       </c>
       <c r="DO5">
-        <v>0.4212989629323196</v>
+        <v>0.4210708001361455</v>
       </c>
       <c r="DP5">
-        <v>0.4254607881003436</v>
+        <v>0.4252309096664116</v>
       </c>
       <c r="DQ5">
-        <v>0.4256480086899081</v>
+        <v>0.4254103295768764</v>
       </c>
       <c r="DR5">
-        <v>0.427922952763105</v>
+        <v>0.4276806692345155</v>
       </c>
       <c r="DS5">
-        <v>0.4324070415131663</v>
+        <v>0.4321635357260171</v>
       </c>
       <c r="DT5">
-        <v>0.4368414666659959</v>
+        <v>0.4365966625862974</v>
       </c>
       <c r="DU5">
-        <v>0.4426322410432239</v>
+        <v>0.4423882152149295</v>
       </c>
       <c r="DV5">
-        <v>0.4482196760317859</v>
+        <v>0.4479761171462957</v>
       </c>
       <c r="DW5">
-        <v>0.4610606313160438</v>
+        <v>0.4608286443700945</v>
       </c>
       <c r="DX5">
-        <v>0.4642599926377146</v>
+        <v>0.4640248165408114</v>
       </c>
       <c r="DY5">
-        <v>0.4680812387247222</v>
+        <v>0.4678438255701947</v>
       </c>
       <c r="DZ5">
-        <v>0.4691471634653086</v>
+        <v>0.4689032949104331</v>
       </c>
       <c r="EA5">
-        <v>0.4737693642076717</v>
+        <v>0.473524484840977</v>
       </c>
       <c r="EB5">
-        <v>0.4963197029507384</v>
+        <v>0.4961012603984628</v>
       </c>
       <c r="EC5">
-        <v>0.5213535205553783</v>
+        <v>0.5211653169747544</v>
       </c>
       <c r="ED5">
-        <v>0.5275309122110566</v>
+        <v>0.527344078785277</v>
       </c>
       <c r="EE5">
-        <v>0.5276150905613646</v>
+        <v>0.5274202987008461</v>
       </c>
       <c r="EF5">
-        <v>0.528654570603425</v>
+        <v>0.5284532828562458</v>
       </c>
       <c r="EG5">
-        <v>0.529386715602616</v>
+        <v>0.5291784614448776</v>
       </c>
       <c r="EH5">
-        <v>0.531185238902368</v>
+        <v>0.5309716509382495</v>
       </c>
       <c r="EI5">
-        <v>0.5329641035032159</v>
+        <v>0.5327451516356363</v>
       </c>
       <c r="EJ5">
-        <v>0.5419369240030798</v>
+        <v>0.5417236220368573</v>
       </c>
       <c r="EK5">
-        <v>0.5508525955061292</v>
+        <v>0.5506448559472751</v>
       </c>
       <c r="EL5">
-        <v>0.5583404592887631</v>
+        <v>0.5581360961917737</v>
       </c>
       <c r="EM5">
-        <v>0.56257596975268</v>
+        <v>0.5623700038286696</v>
       </c>
       <c r="EN5">
-        <v>0.5686894654119198</v>
+        <v>0.5684847718192414</v>
       </c>
       <c r="EO5">
-        <v>0.5758727886115285</v>
+        <v>0.5756710052350793</v>
       </c>
       <c r="EP5">
-        <v>0.5763217949865013</v>
+        <v>0.5761126117198347</v>
       </c>
       <c r="EQ5">
-        <v>0.5771366935410797</v>
+        <v>0.5769206705579176</v>
       </c>
       <c r="ER5">
-        <v>0.5886847688974014</v>
+        <v>0.5884783384800699</v>
       </c>
       <c r="ES5">
-        <v>0.6069953428767882</v>
+        <v>0.6068088582775122</v>
       </c>
       <c r="ET5">
-        <v>0.6397889810489035</v>
+        <v>0.6396446155537617</v>
       </c>
       <c r="EU5">
-        <v>0.6740851391372698</v>
+        <v>0.6739851930746665</v>
       </c>
       <c r="EV5">
-        <v>0.6999569096952031</v>
+        <v>0.6998884854937221</v>
       </c>
       <c r="EW5">
-        <v>0.7176531757088308</v>
+        <v>0.7176037568320066</v>
       </c>
       <c r="EX5">
-        <v>0.7238031979660347</v>
+        <v>0.7237551073420446</v>
       </c>
       <c r="EY5">
-        <v>0.7238180407862074</v>
+        <v>0.7237618855761471</v>
       </c>
       <c r="EZ5">
-        <v>0.7297225580570955</v>
+        <v>0.7296673552365697</v>
       </c>
       <c r="FA5">
-        <v>0.7517487328293785</v>
+        <v>0.7517191643385545</v>
       </c>
       <c r="FB5">
-        <v>0.7913206636236785</v>
+        <v>0.7913435916695153</v>
       </c>
       <c r="FC5">
-        <v>0.8294496514984067</v>
+        <v>0.8295228669637089</v>
       </c>
       <c r="FD5">
-        <v>0.8562679700035803</v>
+        <v>0.8563741564762727</v>
       </c>
       <c r="FE5">
-        <v>0.8716087321485015</v>
+        <v>0.8717303177158122</v>
       </c>
       <c r="FF5">
-        <v>0.8803410186617726</v>
+        <v>0.8804678858776435</v>
       </c>
       <c r="FG5">
-        <v>0.8804692488046252</v>
+        <v>0.880588225028184</v>
       </c>
       <c r="FH5">
-        <v>0.8810464979724499</v>
+        <v>0.8811582706429819</v>
       </c>
       <c r="FI5">
-        <v>0.8839083063129356</v>
+        <v>0.8840163730455466</v>
       </c>
       <c r="FJ5">
-        <v>0.8880059093845393</v>
+        <v>0.8881121621566274</v>
       </c>
       <c r="FK5">
-        <v>0.8936195560716402</v>
+        <v>0.8937263159161268</v>
       </c>
       <c r="FL5">
-        <v>0.8965325671092719</v>
+        <v>0.8966356994061586</v>
       </c>
       <c r="FM5">
-        <v>0.9053084966201103</v>
+        <v>0.9054169773821271</v>
       </c>
       <c r="FN5">
-        <v>0.9174637619425878</v>
+        <v>0.9175827648663166</v>
       </c>
       <c r="FO5">
-        <v>0.9270069114106622</v>
+        <v>0.9271324373981675</v>
       </c>
       <c r="FP5">
-        <v>0.9325096661039441</v>
+        <v>0.9326355293903892</v>
       </c>
       <c r="FQ5">
-        <v>0.9340292415192445</v>
+        <v>0.9341493439355913</v>
       </c>
       <c r="FR5">
-        <v>0.9343044306039058</v>
+        <v>0.9344168670191866</v>
       </c>
       <c r="FS5">
-        <v>0.9350147307343144</v>
+        <v>0.935120167294972</v>
       </c>
       <c r="FT5">
-        <v>0.9414373283763252</v>
+        <v>0.9415445104973635</v>
       </c>
       <c r="FU5">
-        <v>0.9514188888199629</v>
+        <v>0.9515332652033482</v>
       </c>
       <c r="FV5">
-        <v>0.958705006713842</v>
+        <v>0.9588224506901092</v>
       </c>
       <c r="FW5">
-        <v>0.964423495995099</v>
+        <v>0.9645416075557119</v>
       </c>
       <c r="FX5">
-        <v>0.9674121670285135</v>
+        <v>0.9675267668754901</v>
       </c>
       <c r="FY5">
-        <v>0.9677334504106055</v>
+        <v>0.9678404548259778</v>
       </c>
       <c r="FZ5">
-        <v>0.9677361911893527</v>
+        <v>0.9678404548259778</v>
       </c>
       <c r="GA5">
-        <v>0.9680471730520189</v>
+        <v>0.9681438254856163</v>
       </c>
       <c r="GB5">
-        <v>0.9696225159642109</v>
+        <v>0.9697134929066495</v>
       </c>
       <c r="GC5">
-        <v>0.9712117260756299</v>
+        <v>0.9712970487573188</v>
       </c>
       <c r="GD5">
-        <v>0.9725334467019585</v>
+        <v>0.9726127056017635</v>
       </c>
       <c r="GE5">
-        <v>0.9735955808427562</v>
+        <v>0.9736683785388797</v>
       </c>
       <c r="GF5">
-        <v>0.9752164483524107</v>
+        <v>0.9752836402546378</v>
       </c>
       <c r="GG5">
-        <v>0.9788658326489977</v>
+        <v>0.9789305243765836</v>
       </c>
       <c r="GH5">
-        <v>0.9833205094006985</v>
+        <v>0.9833839338405341</v>
       </c>
       <c r="GI5">
-        <v>0.984099326457288</v>
+        <v>0.9841558559405652</v>
       </c>
       <c r="GJ5">
-        <v>0.9844319857387459</v>
+        <v>0.9844809372066967</v>
       </c>
       <c r="GK5">
-        <v>0.9844735113004313</v>
+        <v>0.9845144390330638</v>
       </c>
       <c r="GL5">
-        <v>0.9856586361343735</v>
+        <v>0.9856932909596539</v>
       </c>
       <c r="GM5">
-        <v>0.9901801543823486</v>
+        <v>0.9902136442528934</v>
       </c>
       <c r="GN5">
-        <v>0.9941653668602168</v>
+        <v>0.9941968707024529</v>
       </c>
       <c r="GO5">
-        <v>0.9969480705051117</v>
+        <v>0.9969757473016956</v>
       </c>
       <c r="GP5">
-        <v>0.9981540891378894</v>
+        <v>0.9981755250151156</v>
       </c>
       <c r="GQ5">
-        <v>0.9995958045575296</v>
+        <v>0.9996113603625375</v>
       </c>
       <c r="GR5">
-        <v>0.9997000138867211</v>
+        <v>0.9997076419240243</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001989196050711769</v>
+        <v>0.0001896252605000746</v>
       </c>
       <c r="C6">
-        <v>0.0002950658725222914</v>
+        <v>0.0002762848436640964</v>
       </c>
       <c r="D6">
-        <v>0.0004568796266475066</v>
+        <v>0.0004287348098295075</v>
       </c>
       <c r="E6">
-        <v>0.0007695373946182786</v>
+        <v>0.0007323110935532262</v>
       </c>
       <c r="F6">
-        <v>0.0009694255897141484</v>
+        <v>0.0009229067567887081</v>
       </c>
       <c r="G6">
-        <v>0.001075453808417189</v>
+        <v>0.00101946678522014</v>
       </c>
       <c r="H6">
-        <v>0.001309674064388307</v>
+        <v>0.001244458761587253</v>
       </c>
       <c r="I6">
-        <v>0.001387304756367393</v>
+        <v>0.001312568117485209</v>
       </c>
       <c r="J6">
-        <v>0.001417505507137319</v>
+        <v>0.001333158767309179</v>
       </c>
       <c r="K6">
-        <v>0.001435953832607633</v>
+        <v>0.001341974997236527</v>
       </c>
       <c r="L6">
-        <v>0.001445602396853609</v>
+        <v>0.001341974997236527</v>
       </c>
       <c r="M6">
-        <v>0.001446219405639339</v>
+        <v>0.001341974997236527</v>
       </c>
       <c r="N6">
-        <v>0.001449511406723264</v>
+        <v>0.001341974997236527</v>
       </c>
       <c r="O6">
-        <v>0.001468016736195032</v>
+        <v>0.001350848337847992</v>
       </c>
       <c r="P6">
-        <v>0.001642753800649709</v>
+        <v>0.00151624580024454</v>
       </c>
       <c r="Q6">
-        <v>0.001726248748778296</v>
+        <v>0.00159023038721398</v>
       </c>
       <c r="R6">
-        <v>0.00187014270244667</v>
+        <v>0.001724727016118061</v>
       </c>
       <c r="S6">
-        <v>0.002045787636924492</v>
+        <v>0.001891034047611331</v>
       </c>
       <c r="T6">
-        <v>0.002200008460856136</v>
+        <v>0.00203587687345756</v>
       </c>
       <c r="U6">
-        <v>0.002322291103973561</v>
+        <v>0.002148721746366087</v>
       </c>
       <c r="V6">
-        <v>0.002437351426906863</v>
+        <v>0.002254330782559402</v>
       </c>
       <c r="W6">
-        <v>0.002542810643595398</v>
+        <v>0.002350320744092299</v>
       </c>
       <c r="X6">
-        <v>0.002664335960693516</v>
+        <v>0.002462406873650187</v>
       </c>
       <c r="Y6">
-        <v>0.002781614173683359</v>
+        <v>0.002570237950668653</v>
       </c>
       <c r="Z6">
-        <v>0.002889197186426038</v>
+        <v>0.002668355682927912</v>
       </c>
       <c r="AA6">
-        <v>0.003119438442295717</v>
+        <v>0.002889361212517559</v>
       </c>
       <c r="AB6">
-        <v>0.003176418233748337</v>
+        <v>0.002936781019846335</v>
       </c>
       <c r="AC6">
-        <v>0.003176735752286431</v>
+        <v>0.002936781019846335</v>
       </c>
       <c r="AD6">
-        <v>0.003178934615842488</v>
+        <v>0.002936781019846335</v>
       </c>
       <c r="AE6">
-        <v>0.003253572927745287</v>
+        <v>0.003001892395445736</v>
       </c>
       <c r="AF6">
-        <v>0.003278841698389479</v>
+        <v>0.003017541834971257</v>
       </c>
       <c r="AG6">
-        <v>0.003374987965840594</v>
+        <v>0.003104201418135279</v>
       </c>
       <c r="AH6">
-        <v>0.003450220047758531</v>
+        <v>0.003169907674987019</v>
       </c>
       <c r="AI6">
-        <v>0.003484174581624154</v>
+        <v>0.003194259133090369</v>
       </c>
       <c r="AJ6">
-        <v>0.003605805794724971</v>
+        <v>0.003306451356834723</v>
       </c>
       <c r="AK6">
-        <v>0.003812540059995372</v>
+        <v>0.003503905902626074</v>
       </c>
       <c r="AL6">
-        <v>0.004051684796092032</v>
+        <v>0.003733831575255237</v>
       </c>
       <c r="AM6">
-        <v>0.004260066061404421</v>
+        <v>0.003932936203439773</v>
       </c>
       <c r="AN6">
-        <v>0.004615320870461145</v>
+        <v>0.004279189248369217</v>
       </c>
       <c r="AO6">
-        <v>0.0048787420671767</v>
+        <v>0.00453343681487505</v>
       </c>
       <c r="AP6">
-        <v>0.00504377093138388</v>
+        <v>0.004689107908182632</v>
       </c>
       <c r="AQ6">
-        <v>0.005101690012860446</v>
+        <v>0.004737468763411285</v>
       </c>
       <c r="AR6">
-        <v>0.005155676070236745</v>
+        <v>0.004781889233907467</v>
       </c>
       <c r="AS6">
-        <v>0.005165365871483773</v>
+        <v>0.004781930548083332</v>
       </c>
       <c r="AT6">
-        <v>0.005214683062741046</v>
+        <v>0.004821673414704138</v>
       </c>
       <c r="AU6">
-        <v>0.005250607878656899</v>
+        <v>0.004847998842229353</v>
       </c>
       <c r="AV6">
-        <v>0.005434219743337827</v>
+        <v>0.005022287713990227</v>
       </c>
       <c r="AW6">
-        <v>0.005625975198226363</v>
+        <v>0.0052047354166414</v>
       </c>
       <c r="AX6">
-        <v>0.005759635631633849</v>
+        <v>0.005328979373309711</v>
       </c>
       <c r="AY6">
-        <v>0.005883439994790068</v>
+        <v>0.005443348814147417</v>
       </c>
       <c r="AZ6">
-        <v>0.006020826768292551</v>
+        <v>0.00557132608473499</v>
       </c>
       <c r="BA6">
-        <v>0.006128409781035229</v>
+        <v>0.005669443816994248</v>
       </c>
       <c r="BB6">
-        <v>0.006331406816210354</v>
+        <v>0.005863154138485487</v>
       </c>
       <c r="BC6">
-        <v>0.006439464648965137</v>
+        <v>0.005961747579379798</v>
       </c>
       <c r="BD6">
-        <v>0.006533067671351415</v>
+        <v>0.006045859157810331</v>
       </c>
       <c r="BE6">
-        <v>0.006580950349572117</v>
+        <v>0.006084164826711589</v>
       </c>
       <c r="BF6">
-        <v>0.006645226037210736</v>
+        <v>0.006138894184454522</v>
       </c>
       <c r="BG6">
-        <v>0.006671843269889305</v>
+        <v>0.006155894609653437</v>
       </c>
       <c r="BH6">
-        <v>0.006691547698391641</v>
+        <v>0.006165969293402478</v>
       </c>
       <c r="BI6">
-        <v>0.006785150720777919</v>
+        <v>0.00625008087183301</v>
       </c>
       <c r="BJ6">
-        <v>0.006809461018397677</v>
+        <v>0.006264770044557291</v>
       </c>
       <c r="BK6">
-        <v>0.006822452893728887</v>
+        <v>0.006268119612630177</v>
       </c>
       <c r="BL6">
-        <v>0.006824281614975507</v>
+        <v>0.006268119612630177</v>
       </c>
       <c r="BM6">
-        <v>0.006864206725993342</v>
+        <v>0.006298452821786873</v>
       </c>
       <c r="BN6">
-        <v>0.006914885157285318</v>
+        <v>0.006339559475995355</v>
       </c>
       <c r="BO6">
-        <v>0.006970393752700432</v>
+        <v>0.00638550533395162</v>
       </c>
       <c r="BP6">
-        <v>0.007196635008468136</v>
+        <v>0.006602503377461885</v>
       </c>
       <c r="BQ6">
-        <v>0.007443981194773881</v>
+        <v>0.006840645849267485</v>
       </c>
       <c r="BR6">
-        <v>0.007733629902158069</v>
+        <v>0.007121170011078784</v>
       </c>
       <c r="BS6">
-        <v>0.00809407491134711</v>
+        <v>0.00747262296957053</v>
       </c>
       <c r="BT6">
-        <v>0.008470760020950169</v>
+        <v>0.00784034642173172</v>
       </c>
       <c r="BU6">
-        <v>0.008695970726691602</v>
+        <v>0.008056311986547209</v>
       </c>
       <c r="BV6">
-        <v>0.00892015321240682</v>
+        <v>0.008271247407028561</v>
       </c>
       <c r="BW6">
-        <v>0.009115541417387969</v>
+        <v>0.008457334658443453</v>
       </c>
       <c r="BX6">
-        <v>0.009243041470638405</v>
+        <v>0.008575406705838338</v>
       </c>
       <c r="BY6">
-        <v>0.00927620132148377</v>
+        <v>0.008598961993676683</v>
       </c>
       <c r="BZ6">
-        <v>0.009293872368934268</v>
+        <v>0.008606999490912828</v>
       </c>
       <c r="CA6">
-        <v>0.009299674956082197</v>
+        <v>0.008606999490912828</v>
       </c>
       <c r="CB6">
-        <v>0.009318775131569128</v>
+        <v>0.008616468790790388</v>
       </c>
       <c r="CC6">
-        <v>0.009409742473888214</v>
+        <v>0.008697939756493495</v>
       </c>
       <c r="CD6">
-        <v>0.009631051779530185</v>
+        <v>0.008909996619761457</v>
       </c>
       <c r="CE6">
-        <v>0.01012358133208654</v>
+        <v>0.009393781317091112</v>
       </c>
       <c r="CF6">
-        <v>0.01045911314064045</v>
+        <v>0.009720274450034641</v>
       </c>
       <c r="CG6">
-        <v>0.01073249031760982</v>
+        <v>0.009984496629354626</v>
       </c>
       <c r="CH6">
-        <v>0.01104903318567963</v>
+        <v>0.0102919652841201</v>
       </c>
       <c r="CI6">
-        <v>0.01125661651097168</v>
+        <v>0.01049027047894409</v>
       </c>
       <c r="CJ6">
-        <v>0.01150525173731029</v>
+        <v>0.01072970440321363</v>
       </c>
       <c r="CK6">
-        <v>0.01161690410015671</v>
+        <v>0.01083189910134217</v>
       </c>
       <c r="CL6">
-        <v>0.0118131177651589</v>
+        <v>0.01101881335762184</v>
       </c>
       <c r="CM6">
-        <v>0.01187942564184933</v>
+        <v>0.01107557870764681</v>
       </c>
       <c r="CN6">
-        <v>0.01627397375388218</v>
+        <v>0.01546868456996233</v>
       </c>
       <c r="CO6">
-        <v>0.1223003964568774</v>
+        <v>0.1216838684976731</v>
       </c>
       <c r="CP6">
-        <v>0.1979329383850232</v>
+        <v>0.1974482896757786</v>
       </c>
       <c r="CQ6">
-        <v>0.2577139029090552</v>
+        <v>0.2573314673129442</v>
       </c>
       <c r="CR6">
-        <v>0.2708127042429908</v>
+        <v>0.2704451163574905</v>
       </c>
       <c r="CS6">
-        <v>0.2923570587922339</v>
+        <v>0.2920201244220835</v>
       </c>
       <c r="CT6">
-        <v>0.2925588912373794</v>
+        <v>0.2922126679740214</v>
       </c>
       <c r="CU6">
-        <v>0.3210919389647895</v>
+        <v>0.3207894485162588</v>
       </c>
       <c r="CV6">
-        <v>0.3588830769282216</v>
+        <v>0.3586416457576638</v>
       </c>
       <c r="CW6">
-        <v>0.3763531853735976</v>
+        <v>0.3761347827900118</v>
       </c>
       <c r="CX6">
-        <v>0.3767095529426827</v>
+        <v>0.3764821506774937</v>
       </c>
       <c r="CY6">
-        <v>0.3925887373475002</v>
+        <v>0.3923813862640029</v>
       </c>
       <c r="CZ6">
-        <v>0.3962042928396737</v>
+        <v>0.3959940416262079</v>
       </c>
       <c r="DA6">
-        <v>0.3995548502250915</v>
+        <v>0.3993412029392097</v>
       </c>
       <c r="DB6">
-        <v>0.4001442932401185</v>
+        <v>0.3999220824720031</v>
       </c>
       <c r="DC6">
-        <v>0.401239412868037</v>
+        <v>0.4010095849885888</v>
       </c>
       <c r="DD6">
-        <v>0.4012678289157615</v>
+        <v>0.4010283875953057</v>
       </c>
       <c r="DE6">
-        <v>0.4021158530873806</v>
+        <v>0.401868332217853</v>
       </c>
       <c r="DF6">
-        <v>0.4163285874497144</v>
+        <v>0.4160979990101154</v>
       </c>
       <c r="DG6">
-        <v>0.4198263080388839</v>
+        <v>0.4195925989419665</v>
       </c>
       <c r="DH6">
-        <v>0.4232193502253848</v>
+        <v>0.4229823245661147</v>
       </c>
       <c r="DI6">
-        <v>0.4267130153144509</v>
+        <v>0.4264728614080171</v>
       </c>
       <c r="DJ6">
-        <v>0.4267725110429677</v>
+        <v>0.4265228018609719</v>
       </c>
       <c r="DK6">
-        <v>0.4279485182729483</v>
+        <v>0.4276913433603063</v>
       </c>
       <c r="DL6">
-        <v>0.4279520889012394</v>
+        <v>0.4276913433603063</v>
       </c>
       <c r="DM6">
-        <v>0.4279556595295304</v>
+        <v>0.4276913433603063</v>
       </c>
       <c r="DN6">
-        <v>0.4287940037109028</v>
+        <v>0.4285215898765602</v>
       </c>
       <c r="DO6">
-        <v>0.4287979283390029</v>
+        <v>0.4285215898765602</v>
       </c>
       <c r="DP6">
-        <v>0.4354947702097295</v>
+        <v>0.4352212982272257</v>
       </c>
       <c r="DQ6">
-        <v>0.4358219780180712</v>
+        <v>0.4355394517816381</v>
       </c>
       <c r="DR6">
-        <v>0.4366353544388071</v>
+        <v>0.4363446838102336</v>
       </c>
       <c r="DS6">
-        <v>0.4382132874790343</v>
+        <v>0.4379159033216792</v>
       </c>
       <c r="DT6">
-        <v>0.4398983348219922</v>
+        <v>0.4395944375996629</v>
       </c>
       <c r="DU6">
-        <v>0.4428728588978235</v>
+        <v>0.4425648618588812</v>
       </c>
       <c r="DV6">
-        <v>0.44659365499268</v>
+        <v>0.4462829547809577</v>
       </c>
       <c r="DW6">
-        <v>0.4569335232562804</v>
+        <v>0.4566325074276418</v>
       </c>
       <c r="DX6">
-        <v>0.4599505961331965</v>
+        <v>0.4596455601177836</v>
       </c>
       <c r="DY6">
-        <v>0.4645685692509253</v>
+        <v>0.4642625091244206</v>
       </c>
       <c r="DZ6">
-        <v>0.4662976182950049</v>
+        <v>0.4659851274524592</v>
       </c>
       <c r="EA6">
-        <v>0.46929660857146</v>
+        <v>0.4689800637006563</v>
       </c>
       <c r="EB6">
-        <v>0.4886447460647137</v>
+        <v>0.4883547445015485</v>
       </c>
       <c r="EC6">
-        <v>0.5194480848500017</v>
+        <v>0.5192060649384478</v>
       </c>
       <c r="ED6">
-        <v>0.5289513640922745</v>
+        <v>0.5287174628922158</v>
       </c>
       <c r="EE6">
-        <v>0.529518583306735</v>
+        <v>0.5292760770327264</v>
       </c>
       <c r="EF6">
-        <v>0.5301047004216772</v>
+        <v>0.5298536244410319</v>
       </c>
       <c r="EG6">
-        <v>0.5305654961734245</v>
+        <v>0.530305615947925</v>
       </c>
       <c r="EH6">
-        <v>0.5357439833054428</v>
+        <v>0.5354841279676368</v>
       </c>
       <c r="EI6">
-        <v>0.5416734851566072</v>
+        <v>0.541415060226264</v>
       </c>
       <c r="EJ6">
-        <v>0.5540814374729306</v>
+        <v>0.5538365673331964</v>
       </c>
       <c r="EK6">
-        <v>0.5660952607792062</v>
+        <v>0.5658632078198836</v>
       </c>
       <c r="EL6">
-        <v>0.5788236141036978</v>
+        <v>0.5786057155636462</v>
       </c>
       <c r="EM6">
-        <v>0.585115906664111</v>
+        <v>0.5849001174922682</v>
       </c>
       <c r="EN6">
-        <v>0.5934170228757363</v>
+        <v>0.593207102574124</v>
       </c>
       <c r="EO6">
-        <v>0.604303314153267</v>
+        <v>0.6041041008622967</v>
       </c>
       <c r="EP6">
-        <v>0.6064604778082608</v>
+        <v>0.6062556350153053</v>
       </c>
       <c r="EQ6">
-        <v>0.607164700926214</v>
+        <v>0.6069515094613337</v>
       </c>
       <c r="ER6">
-        <v>0.6170188716774323</v>
+        <v>0.6168144556155075</v>
       </c>
       <c r="ES6">
-        <v>0.634445428121698</v>
+        <v>0.6342639591394232</v>
       </c>
       <c r="ET6">
-        <v>0.6623546318332041</v>
+        <v>0.6622157281452341</v>
       </c>
       <c r="EU6">
-        <v>0.6928218126099223</v>
+        <v>0.6927302614557651</v>
       </c>
       <c r="EV6">
-        <v>0.7206089193183156</v>
+        <v>0.7205597049546174</v>
       </c>
       <c r="EW6">
-        <v>0.7414014918483931</v>
+        <v>0.7413815240442778</v>
       </c>
       <c r="EX6">
-        <v>0.749535925055769</v>
+        <v>0.7495215141755912</v>
       </c>
       <c r="EY6">
-        <v>0.7504811316398657</v>
+        <v>0.7504588230869474</v>
       </c>
       <c r="EZ6">
-        <v>0.7536830550214942</v>
+        <v>0.7536570722284686</v>
       </c>
       <c r="FA6">
-        <v>0.7683419618952025</v>
+        <v>0.7683337465414194</v>
       </c>
       <c r="FB6">
-        <v>0.7982902366586919</v>
+        <v>0.7983284027090733</v>
       </c>
       <c r="FC6">
-        <v>0.8268464613866929</v>
+        <v>0.8269284036275263</v>
       </c>
       <c r="FD6">
-        <v>0.8443952318340743</v>
+        <v>0.8445003498773684</v>
       </c>
       <c r="FE6">
-        <v>0.8558762871267677</v>
+        <v>0.8559932252781706</v>
       </c>
       <c r="FF6">
-        <v>0.8626113902984697</v>
+        <v>0.8627312665356184</v>
       </c>
       <c r="FG6">
-        <v>0.8626777764001621</v>
+        <v>0.8627881102570431</v>
       </c>
       <c r="FH6">
-        <v>0.8633372283169739</v>
+        <v>0.8634391297128822</v>
       </c>
       <c r="FI6">
-        <v>0.867456696421994</v>
+        <v>0.8675566407575186</v>
       </c>
       <c r="FJ6">
-        <v>0.8718748908346297</v>
+        <v>0.8719734371743538</v>
       </c>
       <c r="FK6">
-        <v>0.8780508889920781</v>
+        <v>0.8781513270556983</v>
       </c>
       <c r="FL6">
-        <v>0.8815960974824582</v>
+        <v>0.8816935037620968</v>
       </c>
       <c r="FM6">
-        <v>0.8885174476589083</v>
+        <v>0.8886181405845012</v>
       </c>
       <c r="FN6">
-        <v>0.8971990038802324</v>
+        <v>0.897306277667367</v>
       </c>
       <c r="FO6">
-        <v>0.9044222170643782</v>
+        <v>0.9045333424323666</v>
       </c>
       <c r="FP6">
-        <v>0.9078339304513551</v>
+        <v>0.9079417742000361</v>
       </c>
       <c r="FQ6">
-        <v>0.9084331727666319</v>
+        <v>0.9085324713724139</v>
       </c>
       <c r="FR6">
-        <v>0.9084492091700408</v>
+        <v>0.9085388711663813</v>
       </c>
       <c r="FS6">
-        <v>0.9101615846136955</v>
+        <v>0.9102447846894466</v>
       </c>
       <c r="FT6">
-        <v>0.9206086778800294</v>
+        <v>0.9207017630098461</v>
       </c>
       <c r="FU6">
-        <v>0.9381483623271791</v>
+        <v>0.9382646062550589</v>
       </c>
       <c r="FV6">
-        <v>0.9503004151369787</v>
+        <v>0.9504297349409987</v>
       </c>
       <c r="FW6">
-        <v>0.9589063383563747</v>
+        <v>0.9590420974752041</v>
       </c>
       <c r="FX6">
-        <v>0.9629272300588817</v>
+        <v>0.9630608476321515</v>
       </c>
       <c r="FY6">
-        <v>0.9638064434112961</v>
+        <v>0.9639320398058682</v>
       </c>
       <c r="FZ6">
-        <v>0.963897284319612</v>
+        <v>0.9640133841009475</v>
       </c>
       <c r="GA6">
-        <v>0.9640925383545897</v>
+        <v>0.9641993369312606</v>
       </c>
       <c r="GB6">
-        <v>0.9659969541031401</v>
+        <v>0.9660976501615585</v>
       </c>
       <c r="GC6">
-        <v>0.9683656969635279</v>
+        <v>0.9684611594892388</v>
       </c>
       <c r="GD6">
-        <v>0.9713546788397278</v>
+        <v>0.9714460686065167</v>
       </c>
       <c r="GE6">
-        <v>0.9741060754098708</v>
+        <v>0.9741929477781907</v>
       </c>
       <c r="GF6">
-        <v>0.9764107158686244</v>
+        <v>0.9764922347369572</v>
       </c>
       <c r="GG6">
-        <v>0.9820233953117118</v>
+        <v>0.9821057516561753</v>
       </c>
       <c r="GH6">
-        <v>0.9875422584524075</v>
+        <v>0.987625276696326</v>
       </c>
       <c r="GI6">
-        <v>0.9899759830144519</v>
+        <v>0.9900538893385475</v>
       </c>
       <c r="GJ6">
-        <v>0.9905513997291213</v>
+        <v>0.990620716320842</v>
       </c>
       <c r="GK6">
-        <v>0.9913592948997175</v>
+        <v>0.9914204568411694</v>
       </c>
       <c r="GL6">
-        <v>0.9915427270943938</v>
+        <v>0.9915945657066744</v>
       </c>
       <c r="GM6">
-        <v>0.9938161039523504</v>
+        <v>0.9938625305549931</v>
       </c>
       <c r="GN6">
-        <v>0.9960009663080505</v>
+        <v>0.9960418152466685</v>
       </c>
       <c r="GO6">
-        <v>0.9976672947505312</v>
+        <v>0.9977015955918593</v>
       </c>
       <c r="GP6">
-        <v>0.9983176305671105</v>
+        <v>0.9983434818867364</v>
       </c>
       <c r="GQ6">
-        <v>0.9996648973014572</v>
+        <v>0.9996836034016238</v>
       </c>
       <c r="GR6">
-        <v>0.9997472305435562</v>
+        <v>0.9997564241084373</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2">
-        <v>0.01786774324274964</v>
+        <v>0.0176787375294205</v>
       </c>
       <c r="F2">
-        <v>0.5000330170388811</v>
+        <v>0.5039256542613552</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>131</v>
       </c>
       <c r="E3">
-        <v>0.01269327433982799</v>
+        <v>0.01202357705322316</v>
       </c>
       <c r="F3">
-        <v>0.5389781770168645</v>
+        <v>0.5387311746731858</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.01120860421719229</v>
+        <v>0.01044169398981065</v>
       </c>
       <c r="F4">
-        <v>0.5016380105805202</v>
+        <v>0.5013529014922462</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.01106086238608255</v>
+        <v>0.01046311906641586</v>
       </c>
       <c r="F5">
-        <v>0.5213535205553783</v>
+        <v>0.5211653169747544</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>132</v>
       </c>
       <c r="E6">
-        <v>0.01161690410015671</v>
+        <v>0.01107557870764681</v>
       </c>
       <c r="F6">
-        <v>0.5194480848500017</v>
+        <v>0.5192060649384478</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>149</v>
       </c>
       <c r="E2">
-        <v>0.01786774324274964</v>
+        <v>0.0176787375294205</v>
       </c>
       <c r="F2">
-        <v>0.7150866350312468</v>
+        <v>0.7150260350676951</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>0.01269327433982799</v>
+        <v>0.01202357705322316</v>
       </c>
       <c r="F3">
-        <v>0.7073150313905533</v>
+        <v>0.7072643985892083</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.01120860421719229</v>
+        <v>0.01044169398981065</v>
       </c>
       <c r="F4">
-        <v>0.7064913648727673</v>
+        <v>0.7064190515043406</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>152</v>
       </c>
       <c r="E5">
-        <v>0.01106086238608255</v>
+        <v>0.01046311906641586</v>
       </c>
       <c r="F5">
-        <v>0.7176531757088308</v>
+        <v>0.7176037568320066</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.01161690410015671</v>
+        <v>0.01107557870764681</v>
       </c>
       <c r="F6">
-        <v>0.7206089193183156</v>
+        <v>0.7205597049546174</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>156</v>
       </c>
       <c r="E2">
-        <v>0.01786774324274964</v>
+        <v>0.0176787375294205</v>
       </c>
       <c r="F2">
-        <v>0.822129547694568</v>
+        <v>0.8222614095774021</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>157</v>
       </c>
       <c r="E3">
-        <v>0.01269327433982799</v>
+        <v>0.01202357705322316</v>
       </c>
       <c r="F3">
-        <v>0.8247953373738323</v>
+        <v>0.8249358024444525</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.01120860421719229</v>
+        <v>0.01044169398981065</v>
       </c>
       <c r="F4">
-        <v>0.8200859322561613</v>
+        <v>0.820183892757543</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>158</v>
       </c>
       <c r="E5">
-        <v>0.01106086238608255</v>
+        <v>0.01046311906641586</v>
       </c>
       <c r="F5">
-        <v>0.8294496514984067</v>
+        <v>0.8295228669637089</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.01161690410015671</v>
+        <v>0.01107557870764681</v>
       </c>
       <c r="F6">
-        <v>0.8268464613866929</v>
+        <v>0.8269284036275263</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.01786774324274964</v>
+        <v>0.0176787375294205</v>
       </c>
       <c r="F2">
-        <v>0.9012046671055585</v>
+        <v>0.901396646296575</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>168</v>
       </c>
       <c r="E3">
-        <v>0.01269327433982799</v>
+        <v>0.01202357705322316</v>
       </c>
       <c r="F3">
-        <v>0.9039123171997431</v>
+        <v>0.9041031895518287</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.01120860421719229</v>
+        <v>0.01044169398981065</v>
       </c>
       <c r="F4">
-        <v>0.9052950193365119</v>
+        <v>0.9054654756899114</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>168</v>
       </c>
       <c r="E5">
-        <v>0.01106086238608255</v>
+        <v>0.01046311906641586</v>
       </c>
       <c r="F5">
-        <v>0.9053084966201103</v>
+        <v>0.9054169773821271</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>170</v>
       </c>
       <c r="E6">
-        <v>0.01161690410015671</v>
+        <v>0.01107557870764681</v>
       </c>
       <c r="F6">
-        <v>0.9044222170643782</v>
+        <v>0.9045333424323666</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>23</v>

--- a/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
@@ -1994,34 +1994,34 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0003733971200431014</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0005043882744064557</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002517261954798116</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0002469317062526703</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001904472307365564</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001482827808924926</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001327783138622517</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001811664879971709</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.000122618216942992</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.051817762901797E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2033,46 +2033,46 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.514883276043883E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.84769184477912E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.000107419615200745</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001140194131344599</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0002176946663022647</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002428275286571611</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0003754869060487336</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0003696779362756169</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002293306648114951</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002534575296202471</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0002247435077208836</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0002381143097770999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001085074486272916</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.8215329653384E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2081,46 +2081,46 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.842704497223068E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.574712319463072E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.081049644300896E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001055347387633695</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001363801394382218</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.486974437050925E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>9.43229002728724E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001734472589666171</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003313160262009225</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0003903783810829172</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0003473588829592042</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0002641770934136995</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.885563410477417E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.397769521833609E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -2129,100 +2129,100 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.847009569501334E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1.026368277003208E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>7.829637780149928E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0002566885899459234</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0002583113597374587</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0003607285318889659</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0004380677906679329</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0005449356097922046</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.000466417254145484</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0003607285318889659</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0003531416617210225</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0002923595540990707</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001919662793103008</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0001250195476350865</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>2.017729038652104E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.994140583625765E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>4.577406453855474E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>7.355414024352936E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0001128222673308957</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0002028343958726601</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0002458721835846612</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0003963413884959899</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0003753379221108045</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0004057038427786642</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0004640961008371344</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0003276655888245028</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0004003409424269175</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0002364334524938143</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>7.728021268818162E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>3.816075368236768E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>1.374347848826874E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -2231,367 +2231,367 @@
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>4.583248192474273E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001304921153262551</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0002709137885146624</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0003531416617210225</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0003945014398707214</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.000466417254145484</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0004831085289499443</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.000480915232297439</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0004897174977484882</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0004078789100060009</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0006803213792098186</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1372261094380664</v>
+        <v>0.437607818459785</v>
       </c>
       <c r="CO2">
-        <v>0.07167947382241871</v>
+        <v>0.1699325000938855</v>
       </c>
       <c r="CP2">
-        <v>0.06721612641515529</v>
+        <v>0.151705356519004</v>
       </c>
       <c r="CQ2">
-        <v>0.001235210140834154</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.0385834370314285</v>
+        <v>0.0347769409798346</v>
       </c>
       <c r="CS2">
-        <v>0.0005135692666939286</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.08027914999618165</v>
+        <v>0.2050513286353478</v>
       </c>
       <c r="CU2">
-        <v>0.008898888758381468</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.007786279156560398</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01121747360289334</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.01207869511994913</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.001514720974388826</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0001376834029571651</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.0005045602406559836</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>5.499195286169892E-05</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>4.736655824298671E-05</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01252391924949193</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.001548570149151567</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.005541728038587229</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.003704593643499013</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0004478920570548785</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>9.026067642593613E-05</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>3.798095720285408E-06</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0008716625596990078</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0008804763564146026</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>2.109980157735534E-05</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.00387463256749786</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.000846666849201898</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0004662518155944076</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0002922274459161244</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001386614541327318</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.002649085760717216</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.002166685135095007</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.005076681163931219</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.004200013568152527</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.00484799232328802</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.002150207760234274</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.001375861386458885</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.02573154789607605</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.02431379195553746</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.003130182350727116</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0002034293990960263</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001375580123875838</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.003303250387514294</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.004470573633623177</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.002244000860067114</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.01267421273798596</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.01332192085935616</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.01159277465102828</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.007405474687081237</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.007430942738228508</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.006257694728396097</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0006159504512728668</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0004985972733516571</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.009879646873232216</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01203985180464763</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0259426492520343</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.03029424667322701</v>
+        <v>0.000926055312143061</v>
       </c>
       <c r="EU2">
-        <v>0.02882112261393375</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.02683869067578385</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01043575614400481</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.001422752822510159</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001996913535889886</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.01196346469742297</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.02575667402016157</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.02877526828978852</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.01853015286111216</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01108567175049649</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.006151568189092749</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>2.953456863549238E-05</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.001753400602906196</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.002044634922172846</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.003009877971257159</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.003443139366416628</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.001207520967591671</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.003104467229702973</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.006486499082228483</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.00357759150449351</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.002809350784887216</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0005226559031558588</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
         <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.001354856436050088</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.006077049948899404</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.01373444633352228</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.008892690954367875</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.006218762772765387</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.00301849433266936</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0003753379221108045</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>5.836851769156742E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0004058585321857468</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.003130182350727116</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002428932562634398</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.002110686807664949</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.002414352732558543</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.002542160054644925</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.005232973817873059</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.005945149328714931</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.003286690689451892</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0005181029187170485</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001407860846116647</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>3.35264698176363E-06</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.001773841524070914</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.00198809131633758</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.001805906360985057</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001477728276639089</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.002113365771098556</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0005202025113111376</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0008745956120400796</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.005497214549828989</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.362545641877603E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2776,46 +2776,46 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.278580203450703E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002175513911686311</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0002210308930741789</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.222441977646495E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004463790710564562</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0004122745164122934</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001469259522007728</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0003779774470281741</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.836253237656234E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.992203010000192E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>8.404141041686808E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>9.438215088847376E-06</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>5.58537174024962E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2824,43 +2824,43 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.876595507901687E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001152256261377608</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2.625289681854997E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>3.450249730942434E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.000120456438703153</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001770723448399326</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001443229227249966</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0005079818227925776</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0005649789385927966</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0002668673072001449</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0003839438098701858</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.00021557588435136</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2878,37 +2878,37 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.86482106807647E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0002245363516853691</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0002152461469655445</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0002392203578325518</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0005028702867536547</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0003680182731372428</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0002754759704395246</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0001874038054634337</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001109855496460983</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>7.14438120893261E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>8.349380914681408E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -2923,46 +2923,46 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>9.421077046118412E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.00017428356801559</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0002359522692340274</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.000135221813959256</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0002359522692340274</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0003345769328750641</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001949667814109971</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001680838153896264</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0002584470681885925</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0002407775696815663</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001380174584326389</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>9.827107496023341E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>8.201220159183204E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.167580342441104E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -2971,46 +2971,46 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>4.804802770951017E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>8.031856915816033E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>6.146104757329745E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0002547578072272501</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0001968517054412925</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0002465225235288274</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0003261873326014196</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0003224625904576636</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0001020950521261792</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0002380133960845882</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001640555632613531</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>5.58537174024962E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0001135451174305032</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>4.765002087935251E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -3022,349 +3022,349 @@
         <v>0</v>
       </c>
       <c r="CI3">
-        <v>5.227566222678015E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>3.362545641877603E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001213383250460366</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0002121371772836876</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0006718293915327799</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1326968018488183</v>
+        <v>0.5424561991209293</v>
       </c>
       <c r="CO3">
-        <v>0.04298148416594241</v>
+        <v>0.06827718950777756</v>
       </c>
       <c r="CP3">
-        <v>0.08321846842394469</v>
+        <v>0.2809447008988814</v>
       </c>
       <c r="CQ3">
-        <v>0.003729681006043931</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.03816413013976008</v>
+        <v>0.04281567167460747</v>
       </c>
       <c r="CS3">
-        <v>0.008337430072439986</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01996491131459698</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.03195548265506879</v>
+        <v>0.01000064753642696</v>
       </c>
       <c r="CV3">
-        <v>0.01311083214734145</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>1.129280716964463E-05</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.006647238481323903</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.005846431001463218</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.007751231110915199</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.000232419179614436</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.002050946558422277</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>2.008887601912553E-05</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>7.637908515339365E-06</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.005246113055830605</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.004117150456390296</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.003172803597418396</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.001686547295710866</v>
+        <v>0</v>
       </c>
       <c r="DI3">
         <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.001371858683451423</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001141968693553374</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0004201500255328942</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001314969384728253</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0009509150584624307</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.004828785273125697</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0008707632278023548</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.000575465848702967</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0002087772526775598</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001812111280198463</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.00382968620750276</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.004551260367165878</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0100382224062023</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.005746091641256198</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.004221939752402423</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004122033404986713</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.00289749649093914</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.02561907083124048</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.04056508029574862</v>
+        <v>0.05550559126137714</v>
       </c>
       <c r="EC3">
-        <v>0.01335809157462517</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.002843115337851575</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.00017428356801559</v>
+        <v>0</v>
       </c>
       <c r="EF3">
         <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.003796798389727458</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.004145085245471677</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.01053664078207514</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01480981132149949</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01595614526322083</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.008051073169299153</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.01164880390887128</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.01506984457599802</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.004561528956216925</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0001527116206797892</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.004988632060333787</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01164295287240432</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.02222555389682922</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.02457215137290287</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.02227843679959186</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01861057483111288</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.009615999844498254</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.001707489715235157</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.001655518956574232</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.01077984980028989</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.02619430511484873</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.02682922879309321</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.0153886358315622</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01099393597626813</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.005039142867092177</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0003114113400601581</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.001391586281027973</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.004961810532200472</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.005330908068916591</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.00829584119397486</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.006576889292285467</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.009091715496156366</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01178551022783161</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.008490814251514761</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.005330908068916591</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.001402998208322153</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
         <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.001097646691285543</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.008194934876755834</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.01933659461550214</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.01623568063584055</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0112961085237315</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.005384973610921257</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.001840345538881057</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0005595948020029198</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>1.86482106807647E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0004605318119151122</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0005864936889391456</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.001085744203308827</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001140127361549396</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0004947648567637996</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001834746449889104</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.00277318612810992</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.002738546608669937</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0003961552016930012</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.00224253942928494</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0001763732281934039</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0008708687991080388</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0005971728330678521</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0001895648490882058</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>3.452717272229701E-05</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0001841838505627809</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>9.534058394730183E-05</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>6.409078167678682E-05</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0007426045753270099</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,22 +3540,22 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0004096084014769583</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0004601184945940748</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001254351771742805</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001190080586856353</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001554854696260609</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.767021438172075E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3567,97 +3567,97 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.685523260424073E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.047173472794562E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001475537048022305</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001509237048917365</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>5.397691875974359E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.000114164350656734</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.000225736854995503</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001457303939926258</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0002336163442532692</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0003729104329478879</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0001457303939926258</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0001571414404957555</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4.675282038048664E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2.596138957742257E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>7.237976559875659E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.909106036878773E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.998474089610681E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>6.832457224634203E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001320166468885683</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.000100396859740748</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0003202393224502131</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0004155785497374102</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0003661713848737026</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0002539605994812679</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0002415130215086967</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>6.343401464667321E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.955323801914096E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>8.922291089153417E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -3669,43 +3669,43 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>4.164821257810963E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.821568316452958E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>6.454518211458781E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001309445868758566</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0002592180421570741</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0002877599900980793</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0002400892239065326</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0002238797494756283</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0001571414404957555</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>8.117726581159745E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>8.732610911478743E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>2.730608731279971E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -3717,226 +3717,226 @@
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>7.137698424099047E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>8.204258878888562E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>8.134255120951311E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>3.096174190127559E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>9.040369275662269E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0001740872828217881</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0001220626515014447</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0001119284577481725</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001190080586856353</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0001019360935387484</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0001157160510146704</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0001414301674431187</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001474653194078443</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>6.575372885974641E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>2.105462514917204E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>7.531725453195951E-07</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.181811140516959E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1.206894592730356E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>6.391403783825995E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>3.276010255334266E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001370657990947601</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>3.132350866230773E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>7.794803692625857E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0003771853134646925</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0003278912486322412</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0003541968326233497</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0002676305297189849</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0002949073608548913</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001040800872850052</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>3.553814098789422E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0002161595423442914</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.156227008960236</v>
+        <v>0.5926984676544217</v>
       </c>
       <c r="CO4">
-        <v>0.04502537450685803</v>
+        <v>0.07032465096597831</v>
       </c>
       <c r="CP4">
-        <v>0.0856004642226047</v>
+        <v>0.2609276450809335</v>
       </c>
       <c r="CQ4">
-        <v>0.01628959906966381</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.02749173272728711</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.0007159402420318686</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.02911450821164481</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.02632773045699973</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01041760429801234</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.0002197132184881025</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.00556056870574677</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.001962314212176933</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.00554023034354654</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0001926334730513237</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>1.222058966748378E-05</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.0004026963509446831</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.0004286579945837621</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.01756576229518364</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.004297750582364254</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.003747289473039296</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.003824693089911244</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>3.049013331192569E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.002724043273463329</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0005640751124240455</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0007193910307214593</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.003040997867835639</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.001212280806581758</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.00243246397648919</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>1.186800821249029E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.002597927768782912</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.004031309558797215</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.003768481923379858</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.004062085094550886</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.005302184493444856</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.009681175768839829</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.006044876569496784</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.003506903549716696</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.003946836212811534</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.002707278511453179</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.02058347558108459</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.03622025895872696</v>
+        <v>0.02896229295865628</v>
       </c>
       <c r="EC4">
-        <v>0.0148841119466407</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.002926922480350589</v>
+        <v>0</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -3945,199 +3945,199 @@
         <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.001236910054682036</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.001381711167805086</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.006948526676916234</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.007007090143698941</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.00824304748571051</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.004649191515996918</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.006529813022875545</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.008818969682089601</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0037373587190321</v>
+        <v>0</v>
       </c>
       <c r="EP4">
         <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.005697918245609798</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.01055548360904526</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.01759459603819865</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.02085474928830885</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.02054190067105709</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01592771204275881</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.005045999041963261</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0001837561879573286</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.004740332001086979</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01773361436726898</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.03463467369111589</v>
+        <v>0.02151394714972644</v>
       </c>
       <c r="FB4">
-        <v>0.03549875392105131</v>
+        <v>0.02557299619028382</v>
       </c>
       <c r="FC4">
-        <v>0.02353257417987967</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0142722813672764</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.006689015573385746</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>7.590230941805793E-05</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.001853020595796268</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.005760143908442247</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.007214426002947657</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.009792577044642134</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.005900455696975051</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01019118625360528</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.01470482259004764</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.01213507662954174</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.008268766342618777</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.003391802595000945</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0008937492860846818</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0001064303981383462</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.004725357597037274</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.01223455053740447</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.01019677260339901</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.007436408241077889</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.005060250247230914</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.001750467580923979</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0006314296136256044</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0001571414404957555</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0003331231648765358</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0002699401656519136</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0003540628664631545</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0001432284429068592</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0001592536098876259</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001801232407181941</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.001956641070511632</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001058337081804901</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0003610244966015108</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0002194524419871465</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.002248906885176604</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001852280158905775</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.001012451842894573</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>9.970508943791814E-05</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0002132523654221239</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>9.459375576660218E-05</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0001103227079025474</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0005536900540821711</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,13 +4313,13 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.368210546893513E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.592865328992052E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4328,97 +4328,97 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.262494213215743E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5.326661050647865E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001983708986484914</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002317005658557252</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001289313544488943</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001554211162839129</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001794422245737902</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>9.113566054320289E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.38602494637853E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001394724874597036</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>8.975042309093102E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002164634145849598</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001077658011155956</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5.074253123844544E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.486274965304696E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>6.771956506643511E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>5.162533067183159E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.756305113496104E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>2.326369552058187E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>8.699329859361064E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.000242233376144552</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001822973088108343</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001344111908409698</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001386063434855916</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000196347255339026</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001305506196322902</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001097595787728931</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>9.368414211221114E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>5.808160463107784E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.360227021719484E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -4427,49 +4427,49 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>2.606771870650305E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>4.36555602055313E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001020793288631807</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>7.200277030687567E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>8.587845946798549E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0002203136900557356</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.000303370659638477</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0003116343413729381</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0002663659147650873</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0001100298919694112</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>9.183192984955857E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0002112658096074038</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>5.326661050647865E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>8.132080570983956E-07</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -4478,46 +4478,46 @@
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>8.631412041248126E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>6.191968145519346E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.00014086867164498</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.00014086867164498</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001803766128650964</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0002462976387126531</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0001369209872764889</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>8.767489647345356E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0002899440359117562</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0002496473289967534</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0003720241723226116</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0001832613123715776</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>7.620496772002029E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.39424839493068E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -4532,46 +4532,46 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>2.301285208523568E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>1.663365093828306E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>5.809484486989952E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0001617264545251848</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0002541740384539256</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0001623331919745463</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0004192377422460669</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0006420649424139896</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0002903738328926892</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0002960258725119205</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0003666335823512169</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0001355434916582633</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>5.217837104067685E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.275178417755624E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
         <v>0</v>
@@ -4580,337 +4580,337 @@
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>2.261591633546598E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0246128518718479</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.06917658229214436</v>
+        <v>0.2595914702207594</v>
       </c>
       <c r="CP5">
-        <v>0.09452067787968223</v>
+        <v>0.4276886292640769</v>
       </c>
       <c r="CQ5">
-        <v>0.03995419540928008</v>
+        <v>0.06577117000497223</v>
       </c>
       <c r="CR5">
-        <v>0.01619493437501629</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.01181168721205999</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.005966438756828374</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.04244176086286845</v>
+        <v>0.08227018786253269</v>
       </c>
       <c r="CV5">
-        <v>0.02419493805533396</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0116502274071312</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0003323075421037605</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.02114922943284008</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0003889876324019818</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.001572440259550831</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>6.191968145519346E-05</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.0001166936681132466</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.0005240231255416667</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.004139113035352842</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.02209352486805137</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.003106061729307621</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.008395289960734352</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.005715760774390913</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0001057716729224747</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0005572158033490496</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>3.350182636702878E-05</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0001756174781262794</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001365133473645045</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0002507949832831193</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.004160109530266088</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0001794199104647927</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002270339657639202</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.004482866491501529</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.004433126860280341</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.005791552628632141</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.005587901931366182</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01285252722379874</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.003196172170716914</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.003819009029383267</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.00105946934023849</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.00462118993054382</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.02257677555748584</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.02506405657629166</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.006178761810522528</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>7.62199155690682E-05</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001032984155399797</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0007251785886317474</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001793189493371944</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001773500697386797</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.008978470401221033</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.008921233910417716</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.007491240244498698</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.004233907636895946</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.006114767990571719</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.007186233415837881</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.000441606484755494</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0008080588380828637</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.01155766792215227</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.01833051979744227</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.03283575727624958</v>
+        <v>0.01855744233988137</v>
       </c>
       <c r="EU5">
-        <v>0.03434057752090481</v>
+        <v>0.02853830778933925</v>
       </c>
       <c r="EV5">
-        <v>0.02590329241905554</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01771527133828454</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.006151350510037964</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>6.778234102478178E-06</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.005905469660422597</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.02205180910198478</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.03962442733096087</v>
+        <v>0.06358395141130935</v>
       </c>
       <c r="FC5">
-        <v>0.03817927529419362</v>
+        <v>0.05399884110712905</v>
       </c>
       <c r="FD5">
-        <v>0.02685128951256372</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.01535616123953952</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.008737568161831273</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.000120339150540584</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0005700456147978704</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.002858102402564673</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.004095789111080804</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.005614153759499472</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.002909383490031734</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.008781277975968515</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.01216578748418952</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.00954967253185089</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.005503091992221627</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.001513814545202161</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0002675230835952358</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0007033002757854216</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.006424343202391474</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.009988754705984705</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.007289185486760904</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.005719156865602746</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.002985159319778169</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0003136879504876642</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
         <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.000303370659638477</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.001569667421033306</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.001583555850669306</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001315656844444627</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001055672937116142</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.001615261715758055</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.003646884121945836</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.004453409463950614</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0007719221000311056</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0003250812661314981</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>3.350182636702878E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001178851926590038</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.004520353293239491</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.003983226449559528</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.002778876599242668</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.001199777713420015</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001435835347421862</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>9.628156148678242E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0002923580759755855</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,34 +5086,34 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001896252605000746</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.66595831640218E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001524499661654111</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0003035762837237186</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001905956632354819</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.656002843143173E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002249919763671128</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>6.810935589795628E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.059064982396983E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.816229927348194E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5125,46 +5125,46 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.873340611465475E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001653974623965472</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>7.398458696944007E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001344966289040816</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001663070314932694</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001448428258462297</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001128448729085268</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001056090361933154</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>9.598996153289652E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001120861295578882</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0001078310770184658</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>9.811773225925857E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0002210055295896471</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>4.741980732877642E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -5173,259 +5173,259 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>6.511137559940064E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.564943952552164E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>8.66595831640218E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>6.570625685173939E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>2.435145810335046E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0001121922237443538</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001974545457913514</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002299256726291622</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0001991046281845371</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0003462530449294432</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002542475665058335</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.000155671093307582</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>4.83608552286522E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>4.442047049618292E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>4.13141758638739E-08</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>3.974286662080739E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>2.632542752521493E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0001742888717608731</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0001824477026511726</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0001242439566683111</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0001143694408377063</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0001279772705875726</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>9.811773225925857E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0001937103214912387</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>9.859344089431167E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>8.411157843053204E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>3.830566890125909E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>5.472935774293198E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>1.70004251989157E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.007468374904084E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>8.411157843053204E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1.468917272428065E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>3.349568072886574E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.033320915669576E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>4.110665420848203E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>4.594585795626562E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0002169980435102646</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0002381424718056</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0002805241618112996</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.000351452958491746</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0003677234521611908</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0002159655648154877</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0002149354204813521</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0001860872514148918</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0001180720473948845</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>2.355528783834499E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>8.037497236145631E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>9.469299877559559E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>8.147096570310534E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0002120568632679621</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0004837846973296553</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0003264931329435282</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0002642221793199862</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0003074686547654709</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0001983051948239915</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0002394339242695418</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001021946981285423</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0001869142562796636</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>5.676535002497553E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.004393105862315512</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1062151839277108</v>
+        <v>0.4736801939178539</v>
       </c>
       <c r="CP6">
-        <v>0.07576442117810547</v>
+        <v>0.2843120923094165</v>
       </c>
       <c r="CQ6">
-        <v>0.05988317763716563</v>
+        <v>0.1855493465201336</v>
       </c>
       <c r="CR6">
-        <v>0.01311364904454629</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.02157500806459301</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0001925435519379417</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02857678054223743</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.03785219724140495</v>
+        <v>0.04854243577626477</v>
       </c>
       <c r="CW6">
-        <v>0.01749313703234808</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.0003473678874818667</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01589923558650921</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.003612655362205023</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.003347161313001822</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0005808795327933527</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.001087502516585717</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>1.880260671688679E-05</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.0008399446225472803</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01422966679226247</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.003494599931851166</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.003389725624148159</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.003490536841902433</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>4.994045295480225E-05</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.001168541499334382</v>
+        <v>0</v>
       </c>
       <c r="DL6">
         <v>0</v>
@@ -5434,256 +5434,256 @@
         <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.00083024651625389</v>
+        <v>0</v>
       </c>
       <c r="DO6">
         <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.006699708350665502</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0003181535544123332</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0008052320285955493</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.001571219511445547</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.001678534277983747</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002970424259218259</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.003718092922076487</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01034955264668406</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.003013052690141866</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.004616949006637019</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.001722618328038538</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.002994936248197106</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01937468080089222</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.03085132043689926</v>
+        <v>0.005005176596083161</v>
       </c>
       <c r="ED6">
-        <v>0.009511397953767932</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0005586141405106076</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0005775474083054981</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0004519915068931784</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.005178512019711766</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.005930932258627166</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.01242150710693246</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.01202664048668723</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01274250774376252</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.006294401928622021</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.008306985081855766</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.01089699828817266</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.002151534153008636</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0006958744460283846</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.009862946154173843</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.01744950352391576</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.02795176900581087</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.030514533310531</v>
+        <v>0.002910754880247968</v>
       </c>
       <c r="EV6">
-        <v>0.02782944349885227</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.02082181908966042</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.00813999013131334</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0009373089113562402</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.003198249141521088</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0146766743129508</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.02999465616765399</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.02860000091845289</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01757194624984217</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.01149287540080212</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.006738041257447772</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>5.684372142461544E-05</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0006510194558390725</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.00411751104463638</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.004416796416835238</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.006177889881344488</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.003542176706398443</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.006924636822404458</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.008688137082865833</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.007227064764999616</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0034084317676695</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.000590697172377776</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>6.399793967459111E-06</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.00170591352306524</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0104569783203995</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.01756284324521286</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.01216512868593973</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.008612362534205349</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.00401875015694747</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0008711921737166188</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>8.134429507936518E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0001859528303130741</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001898313230297848</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.002363509327680356</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.002984909117277883</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.002746879171673905</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.002299286958766605</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.005613516919218031</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.005519525040150737</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.002428612642221508</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.000566826982294542</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0007997405203273956</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0001741088655049024</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002267964848318759</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.002179284691675385</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.001659780345190909</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0006418862948770078</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001340121514887382</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>7.282070681360628E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0002435758915630331</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0003733971200431014</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0008777853944495571</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001129511589929369</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.001376443296182039</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001566890526918595</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001715173307811088</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001847951621673339</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00202911810967051</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002151736326613502</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.00217225450424252</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.00217225450424252</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.00217225450424252</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.00217225450424252</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002180769387518564</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.002249246305966355</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0023566659211671</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.00247068533430156</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.002688380000603825</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.002931207529260986</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.003306694435309719</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003676372371585337</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.003905703036396832</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.004159160566017079</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.004383904073737963</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.004622018383515063</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.004730525832142354</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.004768741161795738</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.004768741161795738</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.004768741161795738</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.004787168206767969</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.004852915329962599</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.004923725826405608</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.005029260565168978</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0051656407046072</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.005230510448977709</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.005324833349250582</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.005498280608217199</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.005829596634418122</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.006219975015501039</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.006567333898460243</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.006831510991873942</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.006910366625978716</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.006944344321197052</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.006944344321197052</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.006944344321197052</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.006962814416892065</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.006973078099662098</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.007051374477463597</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.007308063067409521</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.007566374427146979</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.007927102959035945</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.008365170749703877</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.008910106359496081</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.009376523613641566</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.009737252145530532</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01009039380725156</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.01038275336135063</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01057471964066093</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01069973918829601</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.01071991647868254</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.01071991647868254</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.01073985788451879</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.01078563194905735</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.01085918608930088</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01097200835663177</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.01117484275250443</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.01142071493608909</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.01181705632458508</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.01219239424669589</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01259809808947455</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.01306219419031169</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01338985977913619</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01379020072156311</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01402663417405692</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0141039143867451</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01414207514042747</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01415581861891574</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01415581861891574</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01415581861891574</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01420165110084048</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.01433214321616674</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0146030570046814</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01495619866640242</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01535070010627314</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01581711736041863</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01630022588936857</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01678114112166601</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0172708586194145</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0176787375294205</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.01835905890863032</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1555851683466968</v>
+        <v>0.437607818459785</v>
       </c>
       <c r="CO2">
-        <v>0.2272646421691155</v>
+        <v>0.6075403185536705</v>
       </c>
       <c r="CP2">
-        <v>0.2944807685842707</v>
+        <v>0.7592456750726746</v>
       </c>
       <c r="CQ2">
-        <v>0.2957159787251049</v>
+        <v>0.7592456750726746</v>
       </c>
       <c r="CR2">
-        <v>0.3342994157565334</v>
+        <v>0.7940226160525092</v>
       </c>
       <c r="CS2">
-        <v>0.3348129850232274</v>
+        <v>0.7940226160525092</v>
       </c>
       <c r="CT2">
-        <v>0.415092135019409</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="CU2">
-        <v>0.4239910237777905</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="CV2">
-        <v>0.4317773029343508</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="CW2">
-        <v>0.4429947765372442</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="CX2">
-        <v>0.4550734716571933</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="CY2">
-        <v>0.4565881926315821</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="CZ2">
-        <v>0.4567258760345393</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DA2">
-        <v>0.4567258760345393</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DB2">
-        <v>0.4572304362751953</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DC2">
-        <v>0.457285428228057</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DD2">
-        <v>0.4573327947863</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DE2">
-        <v>0.4698567140357919</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DF2">
-        <v>0.4714052841849434</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DG2">
-        <v>0.4769470122235306</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DH2">
-        <v>0.4806516058670297</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DI2">
-        <v>0.4810994979240845</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DJ2">
-        <v>0.4811897586005104</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DK2">
-        <v>0.4811935566962307</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DL2">
-        <v>0.4820652192559297</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DM2">
-        <v>0.4829456956123443</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DN2">
-        <v>0.4829667954139216</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DO2">
-        <v>0.4868414279814195</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DP2">
-        <v>0.4876880948306214</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DQ2">
-        <v>0.4881543466462158</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DR2">
-        <v>0.4884465740921319</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DS2">
-        <v>0.4898331886334592</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DT2">
-        <v>0.4924822743941764</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DU2">
-        <v>0.4946489595292714</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DV2">
-        <v>0.4997256406932026</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DW2">
-        <v>0.5039256542613552</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DX2">
-        <v>0.5087736465846432</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DY2">
-        <v>0.5109238543448774</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="DZ2">
-        <v>0.5122997157313363</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EA2">
-        <v>0.5380312636274123</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EB2">
-        <v>0.5623450555829498</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EC2">
-        <v>0.5654752379336769</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="ED2">
-        <v>0.5656786673327729</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EE2">
-        <v>0.5670542474566488</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EF2">
-        <v>0.5703574978441631</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EG2">
-        <v>0.5748280714777863</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EH2">
-        <v>0.5770720723378534</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EI2">
-        <v>0.5897462850758394</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EJ2">
-        <v>0.6030682059351955</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EK2">
-        <v>0.6146609805862238</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EL2">
-        <v>0.622066455273305</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EM2">
-        <v>0.6294973980115335</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EN2">
-        <v>0.6357550927399296</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EO2">
-        <v>0.6363710431912024</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EP2">
-        <v>0.6368696404645541</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="EQ2">
-        <v>0.6467492873377862</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="ER2">
-        <v>0.6587891391424339</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="ES2">
-        <v>0.6847317883944681</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="ET2">
-        <v>0.7150260350676951</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7438471576816289</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7706858483574127</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7811216045014175</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.7825443573239277</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.7845412708598176</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.7965047355572406</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8222614095774021</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8510366778671906</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8695668307283028</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8806525024787992</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.886804070667892</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8868336052365275</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8885870058394337</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8906316407616066</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8936415187328638</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8970846580992804</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8982921790668721</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.901396646296575</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9078831453788035</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9114607368832971</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9142700876681843</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9147927435713401</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9147927435713401</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9161476000073902</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9222246499562895</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9359590962898118</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9448517872441796</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.951070550016945</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9540890443496143</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.954464382271725</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9545227507894166</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9549286093216024</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9580587916723295</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.960487724234964</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9625984110426289</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9650127637751874</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9675549238298323</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9727878976477053</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9787330469764203</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9820197376658721</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9825378405845892</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9839457014307058</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9839490540776876</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9857228956017585</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9877109869180961</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9895168932790812</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9909946215557203</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9931079873268188</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9936281898381299</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.99450278545017</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.362545641877603E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.362545641877603E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.362545641877603E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.641125845328308E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0003139626496219142</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000534993542696093</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0006272179624725579</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001073597033529014</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001485871549941307</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00163279750214208</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.002010774949170254</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.002089137481546817</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.002097129684556817</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002181171094973685</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.002190609310062533</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.002190609310062533</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002246463027465029</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002246463027465029</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002246463027465029</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002249339622972931</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002249339622972931</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002364565249110691</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002390818145929241</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002425320643238665</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002545777081941818</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002722849426781751</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002867172349506748</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.003375154172299325</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.003940133110892122</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004207000418092267</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004590944227962453</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004806520112313814</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004806520112313814</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004806520112313814</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004806520112313814</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.004806520112313814</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.004806520112313814</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.004825168322994578</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.005049704674679948</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.005264950821645492</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.005504171179478044</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.006007041466231699</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.006375059739368942</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.006650535709808466</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0068379395152719</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.006948925064917999</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.007020368877007325</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.007028718257922006</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.007028718257922006</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.007028718257922006</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.007028718257922006</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.007028718257922006</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.007038139334968125</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.007212422902983715</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.007448375172217743</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.007583596986176999</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007819549255411026</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.008154126188286089</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.008349092969697085</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.008517176785086712</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.008775623853275304</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.009016401422956871</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.009154418881389511</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.009252689956349744</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.009334702157941577</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.009346377961365988</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.009346377961365988</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.009346377961365988</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.009394425989075498</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.009474744558233659</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.009536205605806957</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.009790963413034207</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.009987815118475499</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01023433764200433</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01056052497460575</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01088298756506341</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01098508261718959</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01122309601327418</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01138715157653553</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01144300529393802</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01155655041136853</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01160420043224788</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01160420043224788</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01160420043224788</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01160420043224788</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01165647609447466</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01169010155089343</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01181143987593947</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01202357705322316</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01269540644475594</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1453922082935742</v>
+        <v>0.5424561991209293</v>
       </c>
       <c r="CO3">
-        <v>0.1883736924595166</v>
+        <v>0.610733388628707</v>
       </c>
       <c r="CP3">
-        <v>0.2715921608834613</v>
+        <v>0.8916780895275884</v>
       </c>
       <c r="CQ3">
-        <v>0.2753218418895053</v>
+        <v>0.8916780895275884</v>
       </c>
       <c r="CR3">
-        <v>0.3134859720292653</v>
+        <v>0.9344937612021958</v>
       </c>
       <c r="CS3">
-        <v>0.3218234021017053</v>
+        <v>0.9344937612021958</v>
       </c>
       <c r="CT3">
-        <v>0.3417883134163023</v>
+        <v>0.9344937612021958</v>
       </c>
       <c r="CU3">
-        <v>0.3737437960713711</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="CV3">
-        <v>0.3868546282187125</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="CW3">
-        <v>0.3868659210258822</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="CX3">
-        <v>0.3935131595072061</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="CY3">
-        <v>0.3993595905086693</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="CZ3">
-        <v>0.4071108216195845</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DA3">
-        <v>0.4073432407991989</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DB3">
-        <v>0.4093941873576212</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DC3">
-        <v>0.4094142762336403</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DD3">
-        <v>0.4094219141421556</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DE3">
-        <v>0.4146680271979862</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DF3">
-        <v>0.4187851776543765</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DG3">
-        <v>0.4219579812517949</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DH3">
-        <v>0.4236445285475058</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DI3">
-        <v>0.4236445285475058</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DJ3">
-        <v>0.4250163872309572</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DK3">
-        <v>0.4261583559245106</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DL3">
-        <v>0.4265785059500435</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DM3">
-        <v>0.4278934753347717</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DN3">
-        <v>0.4288443903932342</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DO3">
-        <v>0.4336731756663599</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DP3">
-        <v>0.4345439388941622</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DQ3">
-        <v>0.4351194047428652</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DR3">
-        <v>0.4353281819955427</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DS3">
-        <v>0.4371402932757412</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DT3">
-        <v>0.440969979483244</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DU3">
-        <v>0.4455212398504098</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DV3">
-        <v>0.4555594622566121</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DW3">
-        <v>0.4613055538978683</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DX3">
-        <v>0.4655274936502707</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DY3">
-        <v>0.4696495270552575</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="DZ3">
-        <v>0.4725470235461966</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="EA3">
-        <v>0.4981660943774371</v>
+        <v>0.9444944087386228</v>
       </c>
       <c r="EB3">
-        <v>0.5387311746731858</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC3">
-        <v>0.552089266247811</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED3">
-        <v>0.5549323815856625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE3">
-        <v>0.5551066651536781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF3">
-        <v>0.5551066651536781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG3">
-        <v>0.5589034635434056</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH3">
-        <v>0.5630485487888772</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI3">
-        <v>0.5735851895709524</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ3">
-        <v>0.5883950008924519</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK3">
-        <v>0.6043511461556728</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL3">
-        <v>0.612402219324972</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM3">
-        <v>0.6240510232338432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN3">
-        <v>0.6391208678098412</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO3">
-        <v>0.6436823967660582</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP3">
-        <v>0.643835108386738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ3">
-        <v>0.6488237404470718</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER3">
-        <v>0.6604666933194762</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES3">
-        <v>0.6826922472163054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET3">
-        <v>0.7072643985892083</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU3">
-        <v>0.7295428353888002</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV3">
-        <v>0.748153410219913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW3">
-        <v>0.7577694100644112</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX3">
-        <v>0.7594768997796464</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY3">
-        <v>0.7611324187362206</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ3">
-        <v>0.7719122685365105</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA3">
-        <v>0.7981065736513593</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB3">
-        <v>0.8249358024444525</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC3">
-        <v>0.8403244382760148</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD3">
-        <v>0.851318374252283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE3">
-        <v>0.8563575171193751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF3">
-        <v>0.8566689284594353</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG3">
-        <v>0.8580605147404633</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH3">
-        <v>0.8630223252726638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI3">
-        <v>0.8683532333415803</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ3">
-        <v>0.8766490745355552</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK3">
-        <v>0.8832259638278407</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.8923176793239971</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.9041031895518287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.9125940038033434</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.91792491187226</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.9193279100805821</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.9193279100805821</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.9204255567718677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9286204916486235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.9479570862641257</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9641927668999662</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.9754888754236978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.980873849034619</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9827141945735001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.983273789375503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.9832924375861838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.9837529693980989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.984339463087038</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9854252072903469</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.9865653346518963</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9870600995086601</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9888948459585493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9916680320866592</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9944065786953291</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9948027338970221</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9970452733263071</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9972216465545005</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9980925153536085</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.9986896881866764</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9988792530357645</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9989137802084869</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9990979640590496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9991933046429969</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9992573954246737</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0004096084014769583</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.000869726896071033</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0009951620732453134</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001114170131930949</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001269655601557009</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00130732581593873</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.00130732581593873</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00130732581593873</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00130732581593873</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001334181048542971</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001374652783270917</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001522206488073147</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001673130192964884</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001727107111724627</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001841271462381361</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.002067008317376864</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.00221273871136949</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.002446355055622759</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.002819265488570647</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.002964995882563273</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003122137323059029</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.003168890143439516</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.003194851533016938</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.003202089509576814</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.003202089509576814</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.003231180569945602</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003231180569945602</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003238179044035212</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.003238179044035212</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.003306503616281555</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.003438520263170123</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.003538917122910871</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003859156445361084</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.004274734995098495</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.004640906379972197</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.004894866979453465</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.005136380000962161</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.005199814015608834</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.005219367253627975</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.005228289544717129</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.005228289544717129</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.005228289544717129</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.005228289544717129</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.005269937757295238</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.005298153440459768</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.005362698622574357</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.005362698622574357</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.005493643209450214</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.005752861251607288</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.006040621241705367</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0062807104656119</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.006504590215087528</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.006661731655583284</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.006742908921394881</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.006830235030509668</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.006857541117822468</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.006857541117822468</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.006857541117822468</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.006857541117822468</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.006928918102063458</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.007010960690852344</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.007092303242061857</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.007123264983963133</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.007213668676719756</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.007387755959541545</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.007509818611042989</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.007621747068791162</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.007740755127476798</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.007842691221015547</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.007958407272030217</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.008099837439473335</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.00824730275888118</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.008313056487740927</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.008334111112890098</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.008334864285435417</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.008336046096575934</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.008337252991168664</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.008401167029006925</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.008433927131560267</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.008570992930655027</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.008602316439317335</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.008680264476243593</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.009057449789708285</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.009385341038340527</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.009739537870963877</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01000716840068286</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01030207576153775</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01040615584882276</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01044169398981065</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01065785353215495</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.166884862492391</v>
+        <v>0.5926984676544217</v>
       </c>
       <c r="CO4">
-        <v>0.211910236999249</v>
+        <v>0.6630231186204</v>
       </c>
       <c r="CP4">
-        <v>0.2975107012218537</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CQ4">
-        <v>0.3138003002915175</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CR4">
-        <v>0.3412920330188046</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CS4">
-        <v>0.3420079732608365</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CT4">
-        <v>0.3711224814724813</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CU4">
-        <v>0.397450211929481</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CV4">
-        <v>0.4078678162274934</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CW4">
-        <v>0.4080875294459815</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CX4">
-        <v>0.4136480981517283</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CY4">
-        <v>0.4156104123639052</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="CZ4">
-        <v>0.4211506427074517</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DA4">
-        <v>0.421343276180503</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DB4">
-        <v>0.4213554967701705</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DC4">
-        <v>0.4217581931211152</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DD4">
-        <v>0.422186851115699</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DE4">
-        <v>0.4397526134108826</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DF4">
-        <v>0.4440503639932469</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DG4">
-        <v>0.4477976534662862</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DH4">
-        <v>0.4516223465561974</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DI4">
-        <v>0.4516528366895093</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DJ4">
-        <v>0.4543768799629727</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DK4">
-        <v>0.4549409550753967</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DL4">
-        <v>0.4556603461061182</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DM4">
-        <v>0.4587013439739538</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DN4">
-        <v>0.4599136247805355</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DO4">
-        <v>0.4623460887570247</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DP4">
-        <v>0.4623579567652372</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DQ4">
-        <v>0.4649558845340201</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DR4">
-        <v>0.4689871940928174</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DS4">
-        <v>0.4727556760161972</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DT4">
-        <v>0.4768177611107481</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DU4">
-        <v>0.4821199456041929</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DV4">
-        <v>0.4918011213730327</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DW4">
-        <v>0.4978459979425295</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DX4">
-        <v>0.5013529014922462</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DY4">
-        <v>0.5052997377050578</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="DZ4">
-        <v>0.5080070162165109</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="EA4">
-        <v>0.5285904917975955</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="EB4">
-        <v>0.5648107507563225</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EC4">
-        <v>0.5796948627029632</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="ED4">
-        <v>0.5826217851833138</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EE4">
-        <v>0.5826217851833138</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EF4">
-        <v>0.5826217851833138</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EG4">
-        <v>0.5838586952379958</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EH4">
-        <v>0.5852404064058009</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EI4">
-        <v>0.5921889330827171</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EJ4">
-        <v>0.5991960232264161</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EK4">
-        <v>0.6074390707121265</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EL4">
-        <v>0.6120882622281235</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EM4">
-        <v>0.6186180752509991</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EN4">
-        <v>0.6274370449330887</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EO4">
-        <v>0.6311744036521209</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EP4">
-        <v>0.6311744036521209</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EQ4">
-        <v>0.6368723218977307</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="ER4">
-        <v>0.6474278055067759</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="ES4">
-        <v>0.6650224015449746</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="ET4">
-        <v>0.6858771508332835</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EU4">
-        <v>0.7064190515043406</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EV4">
-        <v>0.7223467635470994</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EW4">
-        <v>0.7273927625890626</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EX4">
-        <v>0.7275765187770199</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EY4">
-        <v>0.7323168507781069</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="EZ4">
-        <v>0.7500504651453759</v>
+        <v>0.9529130566599897</v>
       </c>
       <c r="FA4">
-        <v>0.7846851388364917</v>
+        <v>0.9744270038097161</v>
       </c>
       <c r="FB4">
-        <v>0.820183892757543</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8437164669374226</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8579887483046991</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8646777638780848</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8647536661875028</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8666066867832991</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8723668306917414</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.879581256694689</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8893738337393311</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8952742894363062</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9054654756899114</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9201702982799591</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9323053749095008</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9405741412521196</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9439659438471205</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9448596931332052</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9449661235313435</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9496914811283808</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9619260316657853</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9721228042691843</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9795592125102622</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9846194627574931</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9863699303384171</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9870013599520427</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9871585013925385</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.987491624557415</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.987761564723067</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9881156275895301</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9882588560324369</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9884181096423246</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9902193420495065</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9921759831200181</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.993234320201823</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.993234320201823</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9935953446984245</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9938147971404117</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9960637040255883</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9979159841844941</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9989284360273887</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9990281411168266</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9992413934822487</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9993359872380153</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9994463099459179</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.368210546893513E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.368210546893513E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6.527497079792718E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6.527497079792718E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6.527497079792718E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>8.789991293008462E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001411665234365633</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0003395374220850547</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0005712379879407799</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0007001693423896742</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.000855590458673587</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001035032683247377</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.00112616834379058</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001210028593254365</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001349501080714069</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001439251503805</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001655714918389959</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001763480719505555</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001814223250744</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001849086000397047</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001849086000397047</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001855857956903691</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001907483287575522</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001955046338710483</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001978310034231066</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.002065303332824676</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002307536708969229</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.002489834017780063</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002624245208621033</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002762851552106624</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.00295919880744565</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.00308974942707794</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003199509005850833</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003293193147963044</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003351274752594122</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.003364877022811317</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003364877022811317</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003364877022811317</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.00339094474151782</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.00339094474151782</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003434600301723351</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003536679630586532</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.003608682400893408</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.003694560860361393</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.003914874550417129</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.004218245210055606</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.004529879551428545</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.004796245466193633</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.004906275358163043</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.004998107288012602</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.005209373097620006</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.005262639708126484</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.005263452916183582</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.005263452916183582</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.005263452916183582</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.005349767036596063</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005411686718051256</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.005552555389696236</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005693424061341216</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.005873800674206313</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.006120098312918966</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.006257019300195455</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.006344694196668909</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.006634638232580666</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.006884285561577419</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00725630973390003</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.007439571046271608</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.007515776013991628</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.007549718497940935</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.007549718497940935</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.007549718497940935</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.007549718497940935</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.007549718497940935</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.007572731350026171</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007589365000964454</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.007647459845834354</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007809186300359539</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.008063360338813464</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.00822569353078801</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.008644931273034076</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.009286996215448066</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.009577370048340755</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.009873395920852675</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01024002950320389</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.01037557299486216</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.01042775136590283</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.01044050315008039</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.01044050315008039</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.01044050315008039</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01046311906641586</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.03507597093826376</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1042525532304081</v>
+        <v>0.2595914702207594</v>
       </c>
       <c r="CP5">
-        <v>0.1987732311100903</v>
+        <v>0.6872800994848363</v>
       </c>
       <c r="CQ5">
-        <v>0.2387274265193704</v>
+        <v>0.7530512694898085</v>
       </c>
       <c r="CR5">
-        <v>0.2549223608943867</v>
+        <v>0.7530512694898085</v>
       </c>
       <c r="CS5">
-        <v>0.2667340481064467</v>
+        <v>0.7530512694898085</v>
       </c>
       <c r="CT5">
-        <v>0.2727004868632751</v>
+        <v>0.7530512694898085</v>
       </c>
       <c r="CU5">
-        <v>0.3151422477261435</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="CV5">
-        <v>0.3393371857814775</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="CW5">
-        <v>0.3509874131886087</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="CX5">
-        <v>0.3513197207307124</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="CY5">
-        <v>0.3724689501635525</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="CZ5">
-        <v>0.3728579377959545</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DA5">
-        <v>0.3744303780555053</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DB5">
-        <v>0.3744922977369605</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DC5">
-        <v>0.3746089914050738</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DD5">
-        <v>0.3751330145306154</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DE5">
-        <v>0.3792721275659683</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DF5">
-        <v>0.4013656524340197</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DG5">
-        <v>0.4044717141633273</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DH5">
-        <v>0.4128670041240616</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DI5">
-        <v>0.4185827648984525</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DJ5">
-        <v>0.418688536571375</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DK5">
-        <v>0.4192457523747241</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DL5">
-        <v>0.4192792542010911</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DM5">
-        <v>0.4194548716792174</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DN5">
-        <v>0.4208200051528624</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DO5">
-        <v>0.4210708001361455</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DP5">
-        <v>0.4252309096664116</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DQ5">
-        <v>0.4254103295768764</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DR5">
-        <v>0.4276806692345155</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DS5">
-        <v>0.4321635357260171</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DT5">
-        <v>0.4365966625862974</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DU5">
-        <v>0.4423882152149295</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DV5">
-        <v>0.4479761171462957</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DW5">
-        <v>0.4608286443700945</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DX5">
-        <v>0.4640248165408114</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DY5">
-        <v>0.4678438255701947</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="DZ5">
-        <v>0.4689032949104331</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EA5">
-        <v>0.473524484840977</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EB5">
-        <v>0.4961012603984628</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EC5">
-        <v>0.5211653169747544</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="ED5">
-        <v>0.527344078785277</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EE5">
-        <v>0.5274202987008461</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EF5">
-        <v>0.5284532828562458</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EG5">
-        <v>0.5291784614448776</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EH5">
-        <v>0.5309716509382495</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EI5">
-        <v>0.5327451516356363</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EJ5">
-        <v>0.5417236220368573</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EK5">
-        <v>0.5506448559472751</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EL5">
-        <v>0.5581360961917737</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EM5">
-        <v>0.5623700038286696</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EN5">
-        <v>0.5684847718192414</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EO5">
-        <v>0.5756710052350793</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EP5">
-        <v>0.5761126117198347</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="EQ5">
-        <v>0.5769206705579176</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="ER5">
-        <v>0.5884783384800699</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="ES5">
-        <v>0.6068088582775122</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="ET5">
-        <v>0.6396446155537617</v>
+        <v>0.8538788996922225</v>
       </c>
       <c r="EU5">
-        <v>0.6739851930746665</v>
+        <v>0.8824172074815617</v>
       </c>
       <c r="EV5">
-        <v>0.6998884854937221</v>
+        <v>0.8824172074815617</v>
       </c>
       <c r="EW5">
-        <v>0.7176037568320066</v>
+        <v>0.8824172074815617</v>
       </c>
       <c r="EX5">
-        <v>0.7237551073420446</v>
+        <v>0.8824172074815617</v>
       </c>
       <c r="EY5">
-        <v>0.7237618855761471</v>
+        <v>0.8824172074815617</v>
       </c>
       <c r="EZ5">
-        <v>0.7296673552365697</v>
+        <v>0.8824172074815617</v>
       </c>
       <c r="FA5">
-        <v>0.7517191643385545</v>
+        <v>0.8824172074815617</v>
       </c>
       <c r="FB5">
-        <v>0.7913435916695153</v>
+        <v>0.9460011588928711</v>
       </c>
       <c r="FC5">
-        <v>0.8295228669637089</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8563741564762727</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8717303177158122</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8804678858776435</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.880588225028184</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8811582706429819</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8840163730455466</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8881121621566274</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8937263159161268</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8966356994061586</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9054169773821271</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9175827648663166</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9271324373981675</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9326355293903892</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9341493439355913</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9344168670191866</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.935120167294972</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9415445104973635</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9515332652033482</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9588224506901092</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9645416075557119</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9675267668754901</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9678404548259778</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9678404548259778</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9681438254856163</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9697134929066495</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9712970487573188</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9726127056017635</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9736683785388797</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9752836402546378</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9789305243765836</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9833839338405341</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9841558559405652</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9844809372066967</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9845144390330638</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9856932909596539</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9902136442528934</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9941968707024529</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9969757473016956</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9981755250151156</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9996113603625375</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9997076419240243</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001896252605000746</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002762848436640964</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0004287348098295075</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0007323110935532262</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0009229067567887081</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00101946678522014</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001244458761587253</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001312568117485209</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001333158767309179</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001341974997236527</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001341974997236527</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.001341974997236527</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.001341974997236527</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001350848337847992</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.00151624580024454</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.00159023038721398</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001724727016118061</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001891034047611331</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.00203587687345756</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002148721746366087</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.002254330782559402</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.002350320744092299</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.002462406873650187</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.002570237950668653</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.002668355682927912</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.002889361212517559</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.002936781019846335</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.002936781019846335</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.002936781019846335</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.003001892395445736</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.003017541834971257</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.003104201418135279</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.003169907674987019</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.003194259133090369</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.003306451356834723</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.003503905902626074</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.003733831575255237</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.003932936203439773</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.004279189248369217</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.00453343681487505</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.004689107908182632</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.004737468763411285</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.004781889233907467</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.004781930548083332</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.004821673414704138</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.004847998842229353</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.005022287713990227</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0052047354166414</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.005328979373309711</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.005443348814147417</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.00557132608473499</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.005669443816994248</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.005863154138485487</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.005961747579379798</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.006045859157810331</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.006084164826711589</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.006138894184454522</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.006155894609653437</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.006165969293402478</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.00625008087183301</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.006264770044557291</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.006268119612630177</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.006268119612630177</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.006298452821786873</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.006339559475995355</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.00638550533395162</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.006602503377461885</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.006840645849267485</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.007121170011078784</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.00747262296957053</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.00784034642173172</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.008056311986547209</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.008271247407028561</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.008457334658443453</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.008575406705838338</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.008598961993676683</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.008606999490912828</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.008606999490912828</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.008616468790790388</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.008697939756493495</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.008909996619761457</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.009393781317091112</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.009720274450034641</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.009984496629354626</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0102919652841201</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01049027047894409</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01072970440321363</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01083189910134217</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01101881335762184</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01107557870764681</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01546868456996233</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1216838684976731</v>
+        <v>0.4736801939178539</v>
       </c>
       <c r="CP6">
-        <v>0.1974482896757786</v>
+        <v>0.7579922862272704</v>
       </c>
       <c r="CQ6">
-        <v>0.2573314673129442</v>
+        <v>0.943541632747404</v>
       </c>
       <c r="CR6">
-        <v>0.2704451163574905</v>
+        <v>0.943541632747404</v>
       </c>
       <c r="CS6">
-        <v>0.2920201244220835</v>
+        <v>0.943541632747404</v>
       </c>
       <c r="CT6">
-        <v>0.2922126679740214</v>
+        <v>0.943541632747404</v>
       </c>
       <c r="CU6">
-        <v>0.3207894485162588</v>
+        <v>0.943541632747404</v>
       </c>
       <c r="CV6">
-        <v>0.3586416457576638</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="CW6">
-        <v>0.3761347827900118</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="CX6">
-        <v>0.3764821506774937</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="CY6">
-        <v>0.3923813862640029</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="CZ6">
-        <v>0.3959940416262079</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DA6">
-        <v>0.3993412029392097</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DB6">
-        <v>0.3999220824720031</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DC6">
-        <v>0.4010095849885888</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DD6">
-        <v>0.4010283875953057</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DE6">
-        <v>0.401868332217853</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DF6">
-        <v>0.4160979990101154</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DG6">
-        <v>0.4195925989419665</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DH6">
-        <v>0.4229823245661147</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DI6">
-        <v>0.4264728614080171</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DJ6">
-        <v>0.4265228018609719</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DK6">
-        <v>0.4276913433603063</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DL6">
-        <v>0.4276913433603063</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DM6">
-        <v>0.4276913433603063</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DN6">
-        <v>0.4285215898765602</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DO6">
-        <v>0.4285215898765602</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DP6">
-        <v>0.4352212982272257</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DQ6">
-        <v>0.4355394517816381</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DR6">
-        <v>0.4363446838102336</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DS6">
-        <v>0.4379159033216792</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DT6">
-        <v>0.4395944375996629</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DU6">
-        <v>0.4425648618588812</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DV6">
-        <v>0.4462829547809577</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DW6">
-        <v>0.4566325074276418</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DX6">
-        <v>0.4596455601177836</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DY6">
-        <v>0.4642625091244206</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="DZ6">
-        <v>0.4659851274524592</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="EA6">
-        <v>0.4689800637006563</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="EB6">
-        <v>0.4883547445015485</v>
+        <v>0.9920840685236687</v>
       </c>
       <c r="EC6">
-        <v>0.5192060649384478</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="ED6">
-        <v>0.5287174628922158</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EE6">
-        <v>0.5292760770327264</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EF6">
-        <v>0.5298536244410319</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EG6">
-        <v>0.530305615947925</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EH6">
-        <v>0.5354841279676368</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EI6">
-        <v>0.541415060226264</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EJ6">
-        <v>0.5538365673331964</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EK6">
-        <v>0.5658632078198836</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EL6">
-        <v>0.5786057155636462</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EM6">
-        <v>0.5849001174922682</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EN6">
-        <v>0.593207102574124</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EO6">
-        <v>0.6041041008622967</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EP6">
-        <v>0.6062556350153053</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EQ6">
-        <v>0.6069515094613337</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="ER6">
-        <v>0.6168144556155075</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="ES6">
-        <v>0.6342639591394232</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="ET6">
-        <v>0.6622157281452341</v>
+        <v>0.9970892451197518</v>
       </c>
       <c r="EU6">
-        <v>0.6927302614557651</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV6">
-        <v>0.7205597049546174</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW6">
-        <v>0.7413815240442778</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX6">
-        <v>0.7495215141755912</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY6">
-        <v>0.7504588230869474</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ6">
-        <v>0.7536570722284686</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA6">
-        <v>0.7683337465414194</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB6">
-        <v>0.7983284027090733</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC6">
-        <v>0.8269284036275263</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD6">
-        <v>0.8445003498773684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE6">
-        <v>0.8559932252781706</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF6">
-        <v>0.8627312665356184</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG6">
-        <v>0.8627881102570431</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH6">
-        <v>0.8634391297128822</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI6">
-        <v>0.8675566407575186</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ6">
-        <v>0.8719734371743538</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK6">
-        <v>0.8781513270556983</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL6">
-        <v>0.8816935037620968</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM6">
-        <v>0.8886181405845012</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN6">
-        <v>0.897306277667367</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO6">
-        <v>0.9045333424323666</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP6">
-        <v>0.9079417742000361</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ6">
-        <v>0.9085324713724139</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR6">
-        <v>0.9085388711663813</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS6">
-        <v>0.9102447846894466</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT6">
-        <v>0.9207017630098461</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU6">
-        <v>0.9382646062550589</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV6">
-        <v>0.9504297349409987</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW6">
-        <v>0.9590420974752041</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX6">
-        <v>0.9630608476321515</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY6">
-        <v>0.9639320398058682</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ6">
-        <v>0.9640133841009475</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA6">
-        <v>0.9641993369312606</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB6">
-        <v>0.9660976501615585</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC6">
-        <v>0.9684611594892388</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD6">
-        <v>0.9714460686065167</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE6">
-        <v>0.9741929477781907</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF6">
-        <v>0.9764922347369572</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG6">
-        <v>0.9821057516561753</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH6">
-        <v>0.987625276696326</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI6">
-        <v>0.9900538893385475</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ6">
-        <v>0.990620716320842</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK6">
-        <v>0.9914204568411694</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL6">
-        <v>0.9915945657066744</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM6">
-        <v>0.9938625305549931</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN6">
-        <v>0.9960418152466685</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO6">
-        <v>0.9977015955918593</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP6">
-        <v>0.9983434818867364</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ6">
-        <v>0.9996836034016238</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR6">
-        <v>0.9997564241084373</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>0.0176787375294205</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5039256542613552</v>
+        <v>0.6075403185536705</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>0.01202357705322316</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5387311746731858</v>
+        <v>0.5424561991209293</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>0.01044169398981065</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5013529014922462</v>
+        <v>0.5926984676544217</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01046311906641586</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5211653169747544</v>
+        <v>0.6872800994848363</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01107557870764681</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5192060649384478</v>
+        <v>0.7579922862272704</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0176787375294205</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7150260350676951</v>
+        <v>0.7592456750726746</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01202357705322316</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7072643985892083</v>
+        <v>0.8916780895275884</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.01044169398981065</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7064190515043406</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.01046311906641586</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7176037568320066</v>
+        <v>0.7530512694898085</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01107557870764681</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7205597049546174</v>
+        <v>0.7579922862272704</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>0.0176787375294205</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8222614095774021</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01202357705322316</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8249358024444525</v>
+        <v>0.8916780895275884</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.01044169398981065</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.820183892757543</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.01046311906641586</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8295228669637089</v>
+        <v>0.8353214573523412</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.01107557870764681</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8269284036275263</v>
+        <v>0.943541632747404</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>0.0176787375294205</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.901396646296575</v>
+        <v>0.999073944687857</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.01202357705322316</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9041031895518287</v>
+        <v>0.9344937612021958</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.01044169398981065</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9054654756899114</v>
+        <v>0.9239507637013334</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E5">
-        <v>0.01046311906641586</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9054169773821271</v>
+        <v>0.9460011588928711</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.01107557870764681</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9045333424323666</v>
+        <v>0.943541632747404</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>23</v>

--- a/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
@@ -674,37 +674,37 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3795722049826877</v>
+        <v>0.3302499310136194</v>
       </c>
       <c r="E2">
-        <v>0.1774340378758286</v>
+        <v>0.1669039253837691</v>
       </c>
       <c r="F2">
-        <v>0.16366959587829</v>
+        <v>0.1557810055898387</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07536972667821674</v>
+        <v>0.08442668820431816</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2039544345849769</v>
+        <v>0.1883348156117799</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01045107765183455</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.007678390196927198</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01622912513676921</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01837533895006768</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0194848632221797</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.002084839038896349</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -784,43 +784,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4394856616551252</v>
+        <v>0.3716032150744039</v>
       </c>
       <c r="E3">
-        <v>0.1108166116422742</v>
+        <v>0.1120828411820291</v>
       </c>
       <c r="F3">
-        <v>0.2582234506639663</v>
+        <v>0.2284767577242373</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.09316839713159722</v>
+        <v>0.09814763423703488</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01186764823945862</v>
       </c>
       <c r="J3">
-        <v>0.02649617084148113</v>
+        <v>0.04550257655858475</v>
       </c>
       <c r="K3">
-        <v>0.07042322581234482</v>
+        <v>0.08018781914404788</v>
       </c>
       <c r="L3">
-        <v>0.001386482253210857</v>
+        <v>0.0256757149465948</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.006978414549993373</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.004661910947744816</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.01017194478993194</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.002925365375275477</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.001718157230663112</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4863133170604222</v>
+        <v>0.4049335784125176</v>
       </c>
       <c r="E4">
-        <v>0.1064516189083336</v>
+        <v>0.1079340005213218</v>
       </c>
       <c r="F4">
-        <v>0.2450549996757166</v>
+        <v>0.2163027720570184</v>
       </c>
       <c r="G4">
-        <v>0.008291007250542548</v>
+        <v>0.03118590938781405</v>
       </c>
       <c r="H4">
-        <v>0.04655718503676477</v>
+        <v>0.06110479488036279</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05210054106959481</v>
+        <v>0.06543893651627987</v>
       </c>
       <c r="K4">
-        <v>0.04258098557514957</v>
+        <v>0.05799595403787781</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.01550286680366057</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.002530597755671145</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.002476277645915934</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01265034542347607</v>
+        <v>0.03459431198155977</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1004,40 +1004,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04974234367940822</v>
+        <v>0.06014753881389298</v>
       </c>
       <c r="E5">
-        <v>0.2350520087724837</v>
+        <v>0.1915309565432505</v>
       </c>
       <c r="F5">
-        <v>0.3404405348478169</v>
+        <v>0.26625077613972</v>
       </c>
       <c r="G5">
-        <v>0.1135363574701519</v>
+        <v>0.1053771039220696</v>
       </c>
       <c r="H5">
-        <v>0.01473805976047171</v>
+        <v>0.03532971587881437</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0224069648525802</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.005173921023381215</v>
       </c>
       <c r="K5">
-        <v>0.1238804179146881</v>
+        <v>0.1127109794310434</v>
       </c>
       <c r="L5">
-        <v>0.04800452979700725</v>
+        <v>0.05891543941350453</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02193094678144049</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.03533953879462969</v>
+        <v>0.04993603835221524</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0392662089633422</v>
+        <v>0.05272002345521698</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.01233469435441936</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.004434868664624168</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0008000323738270586</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1117,37 +1117,37 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3549794035163336</v>
+        <v>0.2907730386157671</v>
       </c>
       <c r="F6">
-        <v>0.2393614381371332</v>
+        <v>0.2039501137812078</v>
       </c>
       <c r="G6">
-        <v>0.1790622239271761</v>
+        <v>0.1586686203233068</v>
       </c>
       <c r="H6">
-        <v>0.001483823606380344</v>
+        <v>0.02531671387237915</v>
       </c>
       <c r="I6">
-        <v>0.03361060881321155</v>
+        <v>0.04944221589138056</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06019551555495892</v>
+        <v>0.06940606279183588</v>
       </c>
       <c r="L6">
-        <v>0.09541318204234132</v>
+        <v>0.09585265178217162</v>
       </c>
       <c r="M6">
-        <v>0.01811222450116103</v>
+        <v>0.03780375597064969</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0120603681421526</v>
+        <v>0.03325913465644115</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.005721211759151521</v>
+        <v>0.02849876634905324</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.007028925965806903</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1347,61 +1347,61 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3795722049826877</v>
+        <v>0.3302499310136194</v>
       </c>
       <c r="E2">
-        <v>0.5570062428585163</v>
+        <v>0.4971538563973885</v>
       </c>
       <c r="F2">
-        <v>0.7206758387368063</v>
+        <v>0.6529348619872273</v>
       </c>
       <c r="G2">
-        <v>0.7206758387368063</v>
+        <v>0.6529348619872273</v>
       </c>
       <c r="H2">
-        <v>0.796045565415023</v>
+        <v>0.7373615501915455</v>
       </c>
       <c r="I2">
-        <v>0.796045565415023</v>
+        <v>0.7373615501915455</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9256963658033254</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9361474434551599</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.9438258336520871</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.9600549587888563</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.978430297738924</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.978430297738924</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.978430297738924</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.978430297738924</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.978430297738924</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.978430297738924</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.978430297738924</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.9979151609611037</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9979151609611037</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4394856616551252</v>
+        <v>0.3716032150744039</v>
       </c>
       <c r="E3">
-        <v>0.5503022732973994</v>
+        <v>0.483686056256433</v>
       </c>
       <c r="F3">
-        <v>0.8085257239613658</v>
+        <v>0.7121628139806703</v>
       </c>
       <c r="G3">
-        <v>0.8085257239613658</v>
+        <v>0.7121628139806703</v>
       </c>
       <c r="H3">
-        <v>0.901694121092963</v>
+        <v>0.8103104482177051</v>
       </c>
       <c r="I3">
-        <v>0.901694121092963</v>
+        <v>0.8221780964571638</v>
       </c>
       <c r="J3">
-        <v>0.9281902919344441</v>
+        <v>0.8676806730157485</v>
       </c>
       <c r="K3">
-        <v>0.998613517746789</v>
+        <v>0.9478684921597964</v>
       </c>
       <c r="L3">
-        <v>0.9999999999999998</v>
+        <v>0.9735442071063912</v>
       </c>
       <c r="M3">
-        <v>0.9999999999999998</v>
+        <v>0.9735442071063912</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999998</v>
+        <v>0.9805226216563846</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999998</v>
+        <v>0.9851845326041294</v>
       </c>
       <c r="P3">
-        <v>0.9999999999999998</v>
+        <v>0.9953564773940613</v>
       </c>
       <c r="Q3">
-        <v>0.9999999999999998</v>
+        <v>0.9953564773940613</v>
       </c>
       <c r="R3">
-        <v>0.9999999999999998</v>
+        <v>0.9953564773940613</v>
       </c>
       <c r="S3">
-        <v>0.9999999999999998</v>
+        <v>0.9953564773940613</v>
       </c>
       <c r="T3">
-        <v>0.9999999999999998</v>
+        <v>0.9953564773940613</v>
       </c>
       <c r="U3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="V3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="W3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="X3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999998</v>
+        <v>0.9982818427693367</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4863133170604222</v>
+        <v>0.4049335784125176</v>
       </c>
       <c r="E4">
-        <v>0.5927649359687558</v>
+        <v>0.5128675789338395</v>
       </c>
       <c r="F4">
-        <v>0.8378199356444723</v>
+        <v>0.7291703509908579</v>
       </c>
       <c r="G4">
-        <v>0.8461109428950149</v>
+        <v>0.760356260378672</v>
       </c>
       <c r="H4">
-        <v>0.8926681279317796</v>
+        <v>0.8214610552590348</v>
       </c>
       <c r="I4">
-        <v>0.8926681279317796</v>
+        <v>0.8214610552590348</v>
       </c>
       <c r="J4">
-        <v>0.9447686690013745</v>
+        <v>0.8868999917753146</v>
       </c>
       <c r="K4">
-        <v>0.987349654576524</v>
+        <v>0.9448959458131925</v>
       </c>
       <c r="L4">
-        <v>0.987349654576524</v>
+        <v>0.960398812616853</v>
       </c>
       <c r="M4">
-        <v>0.987349654576524</v>
+        <v>0.960398812616853</v>
       </c>
       <c r="N4">
-        <v>0.987349654576524</v>
+        <v>0.9629294103725241</v>
       </c>
       <c r="O4">
-        <v>0.987349654576524</v>
+        <v>0.9629294103725241</v>
       </c>
       <c r="P4">
-        <v>0.987349654576524</v>
+        <v>0.9654056880184401</v>
       </c>
       <c r="Q4">
-        <v>0.987349654576524</v>
+        <v>0.9654056880184401</v>
       </c>
       <c r="R4">
-        <v>0.987349654576524</v>
+        <v>0.9654056880184401</v>
       </c>
       <c r="S4">
-        <v>0.987349654576524</v>
+        <v>0.9654056880184401</v>
       </c>
       <c r="T4">
-        <v>0.987349654576524</v>
+        <v>0.9654056880184401</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04974234367940822</v>
+        <v>0.06014753881389298</v>
       </c>
       <c r="E5">
-        <v>0.2847943524518919</v>
+        <v>0.2516784953571435</v>
       </c>
       <c r="F5">
-        <v>0.6252348872997089</v>
+        <v>0.5179292714968635</v>
       </c>
       <c r="G5">
-        <v>0.7387712447698608</v>
+        <v>0.6233063754189332</v>
       </c>
       <c r="H5">
-        <v>0.7535093045303325</v>
+        <v>0.6586360912977476</v>
       </c>
       <c r="I5">
-        <v>0.7535093045303325</v>
+        <v>0.6810430561503278</v>
       </c>
       <c r="J5">
-        <v>0.7535093045303325</v>
+        <v>0.686216977173709</v>
       </c>
       <c r="K5">
-        <v>0.8773897224450207</v>
+        <v>0.7989279566047524</v>
       </c>
       <c r="L5">
-        <v>0.9253942522420279</v>
+        <v>0.8578433960182569</v>
       </c>
       <c r="M5">
-        <v>0.9253942522420279</v>
+        <v>0.8797743427996974</v>
       </c>
       <c r="N5">
-        <v>0.9253942522420279</v>
+        <v>0.8797743427996974</v>
       </c>
       <c r="O5">
-        <v>0.9607337910366576</v>
+        <v>0.9297103811519126</v>
       </c>
       <c r="P5">
-        <v>0.9607337910366576</v>
+        <v>0.9297103811519126</v>
       </c>
       <c r="Q5">
-        <v>0.9607337910366576</v>
+        <v>0.9297103811519126</v>
       </c>
       <c r="R5">
-        <v>0.9607337910366576</v>
+        <v>0.9297103811519126</v>
       </c>
       <c r="S5">
-        <v>0.9607337910366576</v>
+        <v>0.9297103811519126</v>
       </c>
       <c r="T5">
-        <v>0.9607337910366576</v>
+        <v>0.9297103811519126</v>
       </c>
       <c r="U5">
-        <v>0.9607337910366576</v>
+        <v>0.9297103811519126</v>
       </c>
       <c r="V5">
-        <v>0.9999999999999998</v>
+        <v>0.9824304046071296</v>
       </c>
       <c r="W5">
-        <v>0.9999999999999998</v>
+        <v>0.9824304046071296</v>
       </c>
       <c r="X5">
-        <v>0.9999999999999998</v>
+        <v>0.994765098961549</v>
       </c>
       <c r="Y5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="Z5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>0.9991999676261731</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1790,100 +1790,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3549794035163336</v>
+        <v>0.2907730386157671</v>
       </c>
       <c r="F6">
-        <v>0.5943408416534668</v>
+        <v>0.494723152396975</v>
       </c>
       <c r="G6">
-        <v>0.7734030655806429</v>
+        <v>0.6533917727202817</v>
       </c>
       <c r="H6">
-        <v>0.7748868891870232</v>
+        <v>0.6787084865926608</v>
       </c>
       <c r="I6">
-        <v>0.8084974980002347</v>
+        <v>0.7281507024840413</v>
       </c>
       <c r="J6">
-        <v>0.8084974980002347</v>
+        <v>0.7281507024840413</v>
       </c>
       <c r="K6">
-        <v>0.8686930135551937</v>
+        <v>0.7975567652758773</v>
       </c>
       <c r="L6">
-        <v>0.964106195597535</v>
+        <v>0.8934094170580489</v>
       </c>
       <c r="M6">
-        <v>0.982218420098696</v>
+        <v>0.9312131730286985</v>
       </c>
       <c r="N6">
-        <v>0.982218420098696</v>
+        <v>0.9312131730286985</v>
       </c>
       <c r="O6">
-        <v>0.9942787882408486</v>
+        <v>0.9644723076851397</v>
       </c>
       <c r="P6">
-        <v>0.9942787882408486</v>
+        <v>0.9644723076851397</v>
       </c>
       <c r="Q6">
-        <v>0.9942787882408486</v>
+        <v>0.9644723076851397</v>
       </c>
       <c r="R6">
-        <v>0.9942787882408486</v>
+        <v>0.9644723076851397</v>
       </c>
       <c r="S6">
-        <v>0.9942787882408486</v>
+        <v>0.9644723076851397</v>
       </c>
       <c r="T6">
-        <v>0.9942787882408486</v>
+        <v>0.9644723076851397</v>
       </c>
       <c r="U6">
-        <v>0.9942787882408486</v>
+        <v>0.9644723076851397</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9929710740341929</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.6529348619872273</v>
+      </c>
+      <c r="G2">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5570062428585163</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -1992,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7121628139806703</v>
+      </c>
+      <c r="G3">
         <v>4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5503022732973994</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5927649359687558</v>
+        <v>0.5128675789338395</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2071,7 +2071,7 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -2080,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6252348872997089</v>
+        <v>0.5179292714968635</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5943408416534668</v>
+        <v>0.6533917727202817</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -2210,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7206758387368063</v>
+        <v>0.7373615501915455</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8085257239613658</v>
+        <v>0.7121628139806703</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8378199356444723</v>
+        <v>0.7291703509908579</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2330,19 +2330,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7387712447698608</v>
+        <v>0.7989279566047524</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.7281507024840413</v>
+      </c>
+      <c r="G6">
         <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7734030655806429</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9256963658033254</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -2510,16 +2510,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8085257239613658</v>
+        <v>0.8103104482177051</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8378199356444723</v>
+        <v>0.8214610552590348</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -2589,19 +2589,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8578433960182569</v>
+      </c>
+      <c r="G5">
         <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8773897224450207</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -2633,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8084974980002347</v>
+        <v>0.8934094170580489</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9256963658033254</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.901694121092963</v>
+        <v>0.9478684921597964</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -2810,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9448959458131925</v>
+      </c>
+      <c r="G4">
         <v>9</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9447686690013745</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -2848,19 +2848,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9253942522420279</v>
+        <v>0.9297103811519126</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.964106195597535</v>
+        <v>0.9312131730286985</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>23</v>
